--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12525" tabRatio="673"/>
+    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="673" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId1"/>
     <sheet name="card|卡牌" sheetId="29" r:id="rId2"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="combat|战斗" sheetId="31" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="30" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster|魔物'!$A$1:$R$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster|魔物'!$A$1:$O$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -139,13 +140,7 @@
     <t>attack_points</t>
   </si>
   <si>
-    <t>defense_points</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>tags</t>
+    <t>entityID</t>
   </si>
   <si>
     <t>怪物名</t>
@@ -163,49 +158,43 @@
     <t>攻击力</t>
   </si>
   <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>Goblin</t>
+    <t>实体名</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
   </si>
   <si>
     <t>一个矮小而丑陋的怪物，生活在森林深处。</t>
   </si>
   <si>
-    <t>森林*小怪*低级</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>一个高大而强壮的怪物，经常在草原上活动。</t>
-  </si>
-  <si>
-    <t>草原*小怪*中级</t>
-  </si>
-  <si>
-    <t>Troll</t>
-  </si>
-  <si>
-    <t>一个极其强壮的怪物，生活在山区和洞穴中。</t>
-  </si>
-  <si>
-    <t>山区*洞穴*高级</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>一只传说中的龙，无人能够抵挡其猛烈的攻击。</t>
-  </si>
-  <si>
-    <t>龙*中级</t>
+    <t>character_slime</t>
+  </si>
+  <si>
+    <t>mark_01</t>
+  </si>
+  <si>
+    <t>mark_02</t>
+  </si>
+  <si>
+    <t>mark_03</t>
+  </si>
+  <si>
+    <t>战斗名</t>
+  </si>
+  <si>
+    <t>位置1</t>
+  </si>
+  <si>
+    <t>位置2</t>
+  </si>
+  <si>
+    <t>位置3</t>
+  </si>
+  <si>
+    <t>测试用</t>
   </si>
   <si>
     <t>MAX_HP</t>
@@ -656,6 +645,9 @@
   </si>
   <si>
     <t>鳍</t>
+  </si>
+  <si>
+    <t>速度</t>
   </si>
   <si>
     <t>企业家</t>
@@ -1133,18 +1125,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1339,7 +1325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1738,17 +1724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1818,6 +1793,19 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1876,7 +1864,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1890,21 +1878,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1912,7 +1885,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2068,7 +2043,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2080,119 +2055,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2298,7 +2273,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2307,13 +2285,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
@@ -2325,19 +2297,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
@@ -2346,238 +2381,151 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -2933,61 +2881,62 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="41" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="40" customWidth="1"/>
     <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
     <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.6666666666667" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-    </row>
-    <row r="2" s="125" customFormat="1" ht="27" spans="1:7">
-      <c r="A2" s="121" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="119" customFormat="1" ht="27" spans="1:7">
+      <c r="A2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="128" t="s">
+      <c r="F2" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="118" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2998,42 +2947,42 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="10">
         <v>80</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3048,8 +2997,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -3062,27 +3011,27 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:4">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3093,52 +3042,52 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3151,14 +3100,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3166,504 +3115,337 @@
     <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
     <col min="3" max="3" width="30.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.4666666666667" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7" style="21" customWidth="1"/>
     <col min="5" max="5" width="15.225" customWidth="1"/>
-    <col min="6" max="6" width="15.225" style="41" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="8" width="8" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.4416666666667" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="8" style="42" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9" style="42"/>
-    <col min="14" max="14" width="7.26666666666667" style="43" customWidth="1"/>
-    <col min="18" max="18" width="6.4" customWidth="1"/>
+    <col min="6" max="6" width="15.225" style="40" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="17.125" style="41" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9" style="41"/>
+    <col min="11" max="11" width="7.26666666666667" style="42" customWidth="1"/>
+    <col min="15" max="15" width="6.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="C2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="42"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="G2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="B4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="C4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="D4" s="49">
+        <v>3</v>
+      </c>
+      <c r="E4" s="49">
+        <v>50</v>
+      </c>
+      <c r="F4" s="50">
+        <v>10</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="42"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="44">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="47">
-        <v>3</v>
-      </c>
-      <c r="E4" s="47">
-        <v>50</v>
-      </c>
-      <c r="F4" s="48">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>20</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="44">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="47">
-        <v>5</v>
-      </c>
-      <c r="E5" s="47">
-        <v>100</v>
-      </c>
-      <c r="F5" s="48">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="91"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="42"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="41"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="53"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="44">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="47">
-        <v>8</v>
-      </c>
-      <c r="E6" s="47">
-        <v>200</v>
-      </c>
-      <c r="F6" s="48">
-        <v>40</v>
-      </c>
-      <c r="G6" s="10">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10">
-        <v>40</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="26"/>
-      <c r="N6"/>
-    </row>
-    <row r="7" s="36" customFormat="1" spans="1:14">
-      <c r="A7" s="49">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="52">
-        <v>20</v>
-      </c>
-      <c r="E7" s="52">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="53">
-        <v>100</v>
-      </c>
-      <c r="G7" s="54">
-        <v>50</v>
-      </c>
-      <c r="H7" s="54">
-        <v>80</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="93"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="53"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="41"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="53"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="10"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="42"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="53"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="10"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="53"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="10"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="42"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="42"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:18">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="42"/>
-    </row>
-    <row r="15" s="37" customFormat="1" spans="1:18">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="115"/>
-    </row>
-    <row r="16" s="38" customFormat="1" spans="1:18">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="116"/>
-    </row>
-    <row r="17" s="38" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="116"/>
-    </row>
-    <row r="18" s="39" customFormat="1" spans="1:18">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="118"/>
-    </row>
-    <row r="19" s="40" customFormat="1" ht="14.25" spans="1:18">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="119"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="41"/>
+    </row>
+    <row r="12" s="36" customFormat="1" spans="1:15">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="102"/>
+    </row>
+    <row r="13" s="37" customFormat="1" spans="1:15">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="105"/>
+    </row>
+    <row r="14" s="37" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="105"/>
+    </row>
+    <row r="15" s="38" customFormat="1" spans="1:15">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
+    </row>
+    <row r="16" s="39" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3673,6 +3455,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C7:F9"/>
@@ -3684,7 +3549,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="7" spans="3:5">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D7">
@@ -3696,7 +3561,7 @@
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D8">
@@ -3712,7 +3577,7 @@
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D9">
@@ -3733,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA41"/>
@@ -3752,67 +3617,67 @@
         <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="V1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3824,82 +3689,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="V2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="W2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="Y2" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Z2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AA2" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3990,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -4045,17 +3910,17 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="129" t="s">
-        <v>108</v>
+      <c r="X4" s="120" t="s">
+        <v>104</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -4063,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -4119,16 +3984,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4136,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -4192,16 +4057,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4209,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -4265,16 +4130,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4282,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -4338,16 +4203,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4355,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -4411,16 +4276,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4428,7 +4293,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -4484,16 +4349,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4501,7 +4366,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -4557,16 +4422,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4574,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -4630,16 +4495,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4647,7 +4512,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -4703,16 +4568,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4720,7 +4585,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -4776,16 +4641,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4793,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -4849,16 +4714,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4866,7 +4731,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -4922,16 +4787,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4939,7 +4804,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -4995,16 +4860,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -5012,7 +4877,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -5068,16 +4933,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -5085,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -5141,16 +5006,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5158,7 +5023,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -5214,16 +5079,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5231,7 +5096,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -5287,16 +5152,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5304,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -5360,16 +5225,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5377,7 +5242,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -5433,16 +5298,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5450,7 +5315,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -5506,16 +5371,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA24" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA24" s="26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5523,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -5579,16 +5444,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5596,7 +5461,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -5652,16 +5517,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA26" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z26" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA26" s="26" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5669,7 +5534,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -5725,16 +5590,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y27" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA27" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z27" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA27" s="26" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5742,7 +5607,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -5798,16 +5663,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y28" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA28" s="26" t="s">
         <v>213</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA28" s="26" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5815,7 +5680,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -5871,16 +5736,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA29" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA29" s="26" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5888,7 +5753,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -5944,16 +5809,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5961,7 +5826,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -6017,16 +5882,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -6034,7 +5899,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -6090,16 +5955,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA32" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="Y32" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z32" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA32" s="26" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -6107,7 +5972,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -6163,16 +6028,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA33" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="Y33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA33" s="26" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6180,7 +6045,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -6236,16 +6101,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6253,7 +6118,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -6309,16 +6174,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA35" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z35" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA35" s="26" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6326,7 +6191,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -6382,16 +6247,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y36" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA36" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="Y36" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA36" s="26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6399,7 +6264,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -6455,16 +6320,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA37" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="Y37" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z37" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA37" s="26" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6472,7 +6337,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -6528,16 +6393,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y38" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA38" s="26" t="s">
         <v>260</v>
-      </c>
-      <c r="Y38" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z38" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA38" s="26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6545,7 +6410,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -6601,16 +6466,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y39" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA39" s="26" t="s">
         <v>265</v>
-      </c>
-      <c r="Y39" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z39" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA39" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6618,7 +6483,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -6674,16 +6539,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6691,7 +6556,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6747,16 +6612,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,53 +4,87 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="673" activeTab="1"/>
+    <workbookView windowHeight="18375" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="hero|玩家角色" sheetId="27" r:id="rId1"/>
-    <sheet name="card|卡牌" sheetId="29" r:id="rId2"/>
+    <sheet name="character|角色" sheetId="32" r:id="rId1"/>
+    <sheet name="hero|玩家角色" sheetId="27" r:id="rId2"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId3"/>
-    <sheet name="combat|战斗" sheetId="31" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="card|卡牌" sheetId="29" r:id="rId4"/>
+    <sheet name="combat|战斗" sheetId="31" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="30" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster|魔物'!$A$1:$O$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>铁甲战士</t>
+  </si>
+  <si>
+    <t>铁甲军团残留下的士兵，他出卖自己的灵魂，获得了恶魔的力量。</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>一个矮小而丑陋的怪物，生活在森林深处。</t>
+  </si>
+  <si>
     <t>hero_name</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>background_story</t>
-  </si>
-  <si>
     <t>initial_deck</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
     <t>英雄的名字</t>
   </si>
   <si>
-    <t>英雄的生命值</t>
-  </si>
-  <si>
-    <t>英雄的背景故事描述</t>
-  </si>
-  <si>
     <t>初始卡牌</t>
   </si>
   <si>
@@ -60,34 +94,22 @@
     <t>被动技能</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>string[]</t>
   </si>
   <si>
-    <t>铁甲战士</t>
-  </si>
-  <si>
-    <t>铁甲军团残留下的士兵，他出卖自己的灵魂，获得了恶魔的力量。</t>
-  </si>
-  <si>
     <t>strike*5*defense*4*trounce*1</t>
   </si>
   <si>
     <t>燃烧之血，战斗结束时恢复6点生命。</t>
   </si>
   <si>
+    <t>怪物名</t>
+  </si>
+  <si>
     <t>card_name</t>
   </si>
   <si>
     <t>card_type</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>卡牌名</t>
@@ -128,58 +150,13 @@
     <t>造成8点伤害，给与2层易伤</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>health_points</t>
-  </si>
-  <si>
-    <t>attack_points</t>
-  </si>
-  <si>
-    <t>entityID</t>
-  </si>
-  <si>
-    <t>怪物名</t>
-  </si>
-  <si>
-    <t>怪物描述</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>实体名</t>
-  </si>
-  <si>
-    <t>slime</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>一个矮小而丑陋的怪物，生活在森林深处。</t>
-  </si>
-  <si>
-    <t>character_slime</t>
-  </si>
-  <si>
-    <t>mark_01</t>
-  </si>
-  <si>
-    <t>mark_02</t>
-  </si>
-  <si>
-    <t>mark_03</t>
+    <t>mark_04</t>
+  </si>
+  <si>
+    <t>mark_05</t>
+  </si>
+  <si>
+    <t>mark_06</t>
   </si>
   <si>
     <t>战斗名</t>
@@ -1125,24 +1102,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1219,6 +1184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,7 +1296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1667,24 +1638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1713,210 +1666,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2043,7 +1798,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,119 +1810,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2276,257 +2031,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -2879,26 +2409,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.6666666666667" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2908,82 +2430,79 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="119" customFormat="1" ht="27" spans="1:7">
-      <c r="A2" s="118" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="118" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10">
         <v>80</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="44">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="35">
+        <v>50</v>
+      </c>
+      <c r="D5" s="35">
+        <v>10</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="10">
-        <v>99</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2995,9 +2514,157 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.33333333333333" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" s="41" customFormat="1" spans="1:5">
+      <c r="A2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10">
+        <v>99</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -3012,523 +2679,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:4">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="118" t="s">
-        <v>23</v>
+      <c r="B2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
-    <col min="3" max="3" width="30.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.225" customWidth="1"/>
-    <col min="6" max="6" width="15.225" style="40" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="17.125" style="41" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9" style="41"/>
-    <col min="11" max="11" width="7.26666666666667" style="42" customWidth="1"/>
-    <col min="15" max="15" width="6.4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="44" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="41"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="49">
-        <v>3</v>
-      </c>
-      <c r="E4" s="49">
-        <v>50</v>
-      </c>
-      <c r="F4" s="50">
-        <v>10</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="41"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="53"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="41"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="41"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="41"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="41"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="41"/>
-    </row>
-    <row r="12" s="36" customFormat="1" spans="1:15">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="102"/>
-    </row>
-    <row r="13" s="37" customFormat="1" spans="1:15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="105"/>
-    </row>
-    <row r="14" s="37" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="105"/>
-    </row>
-    <row r="15" s="38" customFormat="1" spans="1:15">
-      <c r="A15" s="83"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="113"/>
-    </row>
-    <row r="16" s="39" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="117"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="35" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3538,6 +2765,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C7:F9"/>
@@ -3550,7 +2860,7 @@
   <sheetData>
     <row r="7" spans="3:5">
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3562,7 +2872,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3578,7 +2888,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3598,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA41"/>
@@ -3614,70 +2924,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3689,165 +2999,165 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="R2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="W2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Y2" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Z2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="AA2" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -3855,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -3910,17 +3220,17 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="120" t="s">
-        <v>104</v>
+      <c r="X4" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3928,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -3984,16 +3294,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4001,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -4057,16 +3367,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Y6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="AA6" s="26" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4074,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -4130,16 +3440,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4147,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -4203,16 +3513,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4220,7 +3530,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -4276,16 +3586,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4293,7 +3603,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -4349,16 +3659,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4366,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -4422,16 +3732,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4439,7 +3749,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -4495,16 +3805,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4512,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -4568,16 +3878,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4585,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -4641,16 +3951,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4658,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -4714,16 +4024,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4731,7 +4041,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -4787,16 +4097,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4804,7 +4114,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -4860,16 +4170,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4877,7 +4187,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -4933,16 +4243,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4950,7 +4260,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -5006,16 +4316,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5023,7 +4333,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -5079,16 +4389,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5096,7 +4406,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -5152,16 +4462,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5169,7 +4479,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -5225,16 +4535,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5242,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -5298,16 +4608,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5315,7 +4625,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -5371,16 +4681,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5388,7 +4698,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -5444,16 +4754,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5461,7 +4771,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -5517,16 +4827,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5534,7 +4844,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -5590,16 +4900,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5607,7 +4917,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -5663,16 +4973,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5680,7 +4990,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -5736,16 +5046,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5753,7 +5063,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -5809,16 +5119,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5826,7 +5136,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -5882,16 +5192,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5899,7 +5209,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -5955,16 +5265,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5972,7 +5282,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -6028,16 +5338,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6045,7 +5355,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -6101,16 +5411,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6118,7 +5428,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -6174,16 +5484,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6191,7 +5501,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -6247,16 +5557,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6264,7 +5574,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -6320,16 +5630,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6337,7 +5647,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -6393,16 +5703,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6410,7 +5720,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -6466,16 +5776,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6483,7 +5793,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -6539,16 +5849,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6556,7 +5866,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6612,16 +5922,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375" tabRatio="673" activeTab="4"/>
+    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="673" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="268">
   <si>
     <t>ID</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>card_type</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
   <si>
     <t>卡牌名</t>
@@ -118,6 +121,9 @@
     <t>卡牌类型
 1攻击
 2技能</t>
+  </si>
+  <si>
+    <t>成本</t>
   </si>
   <si>
     <t>卡牌描述</t>
@@ -1922,7 +1928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,12 +2056,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -2430,10 +2430,10 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2447,10 +2447,10 @@
       <c r="C2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2464,10 +2464,10 @@
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       <c r="C4" s="10">
         <v>80</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2662,19 +2662,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="67.25" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="67.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2685,24 +2686,30 @@
         <v>28</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:4">
+    <row r="2" ht="40.5" spans="1:5">
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2713,49 +2720,61 @@
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>40</v>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2788,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2783,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2797,16 +2816,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2831,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>14</v>
@@ -2860,7 +2879,7 @@
   <sheetData>
     <row r="7" spans="3:5">
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -2872,7 +2891,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2888,7 +2907,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2927,67 +2946,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -2999,82 +3018,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="X2" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3165,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -3220,17 +3239,17 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="45" t="s">
-        <v>96</v>
+      <c r="X4" s="43" t="s">
+        <v>98</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3238,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -3294,16 +3313,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3311,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -3367,16 +3386,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -3384,7 +3403,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -3440,16 +3459,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -3457,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -3513,16 +3532,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -3530,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -3586,16 +3605,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -3603,7 +3622,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -3659,16 +3678,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -3676,7 +3695,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -3732,16 +3751,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -3749,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -3805,16 +3824,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -3822,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -3878,16 +3897,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -3895,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -3951,16 +3970,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -3968,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -4024,16 +4043,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4041,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -4097,16 +4116,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4114,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -4170,16 +4189,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4187,7 +4206,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -4243,16 +4262,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4260,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -4316,16 +4335,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4333,7 +4352,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -4389,16 +4408,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -4406,7 +4425,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -4462,16 +4481,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -4479,7 +4498,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -4535,16 +4554,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4552,7 +4571,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -4608,16 +4627,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4625,7 +4644,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -4681,16 +4700,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4698,7 +4717,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -4754,16 +4773,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4771,7 +4790,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -4827,16 +4846,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4844,7 +4863,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -4900,16 +4919,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4917,7 +4936,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -4973,16 +4992,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4990,7 +5009,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -5046,16 +5065,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5063,7 +5082,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -5119,16 +5138,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5136,7 +5155,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -5192,16 +5211,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5209,7 +5228,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -5265,16 +5284,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5282,7 +5301,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -5338,16 +5357,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -5355,7 +5374,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -5411,16 +5430,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -5428,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -5484,16 +5503,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -5501,7 +5520,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -5557,16 +5576,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -5574,7 +5593,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -5630,16 +5649,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -5647,7 +5666,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -5703,16 +5722,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -5720,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -5776,16 +5795,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -5793,7 +5812,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -5849,16 +5868,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -5866,7 +5885,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -5922,16 +5941,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -1,29 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1540E82-9635-4A70-A1F5-A54521DC30CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27930" windowHeight="12975" tabRatio="673" activeTab="3"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="character|角色" sheetId="32" r:id="rId1"/>
-    <sheet name="hero|玩家角色" sheetId="27" r:id="rId2"/>
-    <sheet name="monster|魔物" sheetId="28" r:id="rId3"/>
-    <sheet name="card|卡牌" sheetId="29" r:id="rId4"/>
-    <sheet name="combat|战斗" sheetId="31" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
+    <sheet name="character|角色" sheetId="32" r:id="rId2"/>
+    <sheet name="hero|玩家角色" sheetId="27" r:id="rId3"/>
+    <sheet name="monster|魔物" sheetId="28" r:id="rId4"/>
+    <sheet name="card|卡牌" sheetId="29" r:id="rId5"/>
+    <sheet name="ability|技能" sheetId="33" r:id="rId6"/>
+    <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId7"/>
+    <sheet name="attribute|属性" sheetId="35" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="sheet2" sheetId="30" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="340">
   <si>
     <t>ID</t>
   </si>
@@ -936,18 +956,267 @@
   <si>
     <t>抹杀者</t>
   </si>
+  <si>
+    <t>texture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asserts/cards/card_icons/card_defense.png</t>
+  </si>
+  <si>
+    <t>res://asserts/cards/card_icons/card_strike.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asserts/cards/card_icons/card_trounce.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给与2层易伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予易伤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>trounce_01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>trounce_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BaseValue</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>角色的最大生命值</t>
+  </si>
+  <si>
+    <t>CurrentHealth</t>
+  </si>
+  <si>
+    <t>角色当前的生命值</t>
+  </si>
+  <si>
+    <t>MaxEnergy</t>
+  </si>
+  <si>
+    <t>角色可以累积的最大能量值</t>
+  </si>
+  <si>
+    <t>CurrentEnergy</t>
+  </si>
+  <si>
+    <t>角色当前的能量值</t>
+  </si>
+  <si>
+    <t>BaseAttack</t>
+  </si>
+  <si>
+    <t>角色基础的攻击力</t>
+  </si>
+  <si>
+    <t>BaseDefense</t>
+  </si>
+  <si>
+    <t>角色基础的防御值</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>角色持有的金币数量</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>增加角色攻击力的强化值</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>影响角色行动速度或攻击速度的属性</t>
+  </si>
+  <si>
+    <t>MagicPower</t>
+  </si>
+  <si>
+    <t>影响角色魔法或特殊技能效果的属性</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>充当额外生命值的保护层</t>
+  </si>
+  <si>
+    <t>属性描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前生命值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大能量值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前能量值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>visibility</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 能量消耗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 效果ID列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 目标类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 触发时机</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 持续回合</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 稀有度</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 类别</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,104 +1233,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,46 +1251,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,192 +1291,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF7F7F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1680,255 +1674,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2001,9 +1753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2034,9 +1783,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2046,10 +1792,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2058,65 +1804,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2130,7 +1862,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2403,24 +2135,166 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C7:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E9" si="0">C7&amp;"*"&amp;D7</f>
+        <v>strike*5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>defense*4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>E7&amp;"*"&amp;E8</f>
+        <v>strike*5*defense*4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>trounce*1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>F8&amp;"*"&amp;E9</f>
+        <v>strike*5*defense*4*trounce*1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2437,14 +2311,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2454,7 +2328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2471,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2488,50 +2362,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="10">
         <v>50</v>
       </c>
-      <c r="D5" s="35">
-        <v>10</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="42" customWidth="1"/>
-    <col min="2" max="2" width="11.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2544,24 +2416,24 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" s="41" customFormat="1" spans="1:5">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2578,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -2596,349 +2468,746 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="67.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:5">
-      <c r="A2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="35" t="s">
-        <v>14</v>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C7:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D2148-8412-4B4D-9F87-3CA753CB34C0}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="3:5">
-      <c r="C7" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E9" si="0">C7&amp;"*"&amp;D7</f>
-        <v>strike*5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="10" t="s">
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>defense*4</v>
-      </c>
-      <c r="F8" t="str">
-        <f>E7&amp;"*"&amp;E8</f>
-        <v>strike*5*defense*4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>trounce*1</v>
-      </c>
-      <c r="F9" t="str">
-        <f>F8&amp;"*"&amp;E9</f>
-        <v>strike*5*defense*4*trounce*1</v>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D68F6-6A69-4994-8A54-CD8F7D229E72}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EA7D5D-311E-4C1E-90F0-7DA998873B51}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.46484375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="50">
+        <v>100</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="50">
+        <v>100</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="50">
+        <v>3</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="50">
+        <v>3</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="50">
+        <v>10</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3011,9 +3280,9 @@
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
-      <c r="AA1" s="31"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:27">
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3086,17 +3355,17 @@
       <c r="X2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -3175,11 +3444,11 @@
       <c r="Z3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3" s="33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -3239,7 +3508,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="41" t="s">
         <v>98</v>
       </c>
       <c r="Y4" s="8" t="s">
@@ -3252,7 +3521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -3304,15 +3573,15 @@
       <c r="Q5" s="10">
         <v>0</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="24">
         <v>0</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="27" t="s">
+      <c r="W5" s="25"/>
+      <c r="X5" s="26" t="s">
         <v>103</v>
       </c>
       <c r="Y5" s="10" t="s">
@@ -3321,11 +3590,11 @@
       <c r="Z5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AA5" s="26" t="s">
+      <c r="AA5" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -3377,15 +3646,15 @@
       <c r="Q6" s="10">
         <v>0</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="24">
         <v>0</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27" t="s">
+      <c r="W6" s="25"/>
+      <c r="X6" s="26" t="s">
         <v>106</v>
       </c>
       <c r="Y6" s="10" t="s">
@@ -3394,11 +3663,11 @@
       <c r="Z6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -3450,15 +3719,15 @@
       <c r="Q7" s="10">
         <v>0</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="24">
         <v>0</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27" t="s">
+      <c r="W7" s="25"/>
+      <c r="X7" s="26" t="s">
         <v>110</v>
       </c>
       <c r="Y7" s="10" t="s">
@@ -3467,11 +3736,11 @@
       <c r="Z7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AA7" s="26" t="s">
+      <c r="AA7" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -3523,15 +3792,15 @@
       <c r="Q8" s="10">
         <v>0</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="24">
         <v>0</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27" t="s">
+      <c r="W8" s="25"/>
+      <c r="X8" s="26" t="s">
         <v>114</v>
       </c>
       <c r="Y8" s="10" t="s">
@@ -3540,11 +3809,11 @@
       <c r="Z8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA8" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -3596,15 +3865,15 @@
       <c r="Q9" s="10">
         <v>0</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="24">
         <v>0</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="27" t="s">
+      <c r="W9" s="25"/>
+      <c r="X9" s="26" t="s">
         <v>118</v>
       </c>
       <c r="Y9" s="10" t="s">
@@ -3613,11 +3882,11 @@
       <c r="Z9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -3669,15 +3938,15 @@
       <c r="Q10" s="10">
         <v>0</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="24">
         <v>0</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27" t="s">
+      <c r="W10" s="25"/>
+      <c r="X10" s="26" t="s">
         <v>123</v>
       </c>
       <c r="Y10" s="10" t="s">
@@ -3686,11 +3955,11 @@
       <c r="Z10" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -3742,15 +4011,15 @@
       <c r="Q11" s="10">
         <v>0</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="24">
         <v>0</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27" t="s">
+      <c r="W11" s="25"/>
+      <c r="X11" s="26" t="s">
         <v>127</v>
       </c>
       <c r="Y11" s="10" t="s">
@@ -3759,11 +4028,11 @@
       <c r="Z11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AA11" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -3815,15 +4084,15 @@
       <c r="Q12" s="10">
         <v>0</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="24">
         <v>0</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27" t="s">
+      <c r="W12" s="25"/>
+      <c r="X12" s="26" t="s">
         <v>132</v>
       </c>
       <c r="Y12" s="10" t="s">
@@ -3832,11 +4101,11 @@
       <c r="Z12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -3888,15 +4157,15 @@
       <c r="Q13" s="10">
         <v>0</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="24">
         <v>0</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27" t="s">
+      <c r="W13" s="25"/>
+      <c r="X13" s="26" t="s">
         <v>137</v>
       </c>
       <c r="Y13" s="10" t="s">
@@ -3905,11 +4174,11 @@
       <c r="Z13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AA13" s="25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -3961,15 +4230,15 @@
       <c r="Q14" s="10">
         <v>0</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="24">
         <v>0</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27" t="s">
+      <c r="W14" s="25"/>
+      <c r="X14" s="26" t="s">
         <v>141</v>
       </c>
       <c r="Y14" s="10" t="s">
@@ -3978,11 +4247,11 @@
       <c r="Z14" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="AA14" s="26" t="s">
+      <c r="AA14" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -4034,15 +4303,15 @@
       <c r="Q15" s="10">
         <v>0</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="24">
         <v>0</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27" t="s">
+      <c r="W15" s="25"/>
+      <c r="X15" s="26" t="s">
         <v>146</v>
       </c>
       <c r="Y15" s="10" t="s">
@@ -4051,11 +4320,11 @@
       <c r="Z15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AA15" s="26" t="s">
+      <c r="AA15" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -4107,15 +4376,15 @@
       <c r="Q16" s="10">
         <v>0</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="24">
         <v>0</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27" t="s">
+      <c r="W16" s="25"/>
+      <c r="X16" s="26" t="s">
         <v>150</v>
       </c>
       <c r="Y16" s="10" t="s">
@@ -4124,11 +4393,11 @@
       <c r="Z16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA16" s="26" t="s">
+      <c r="AA16" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -4180,15 +4449,15 @@
       <c r="Q17" s="10">
         <v>0</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="24">
         <v>0</v>
       </c>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="27" t="s">
+      <c r="W17" s="25"/>
+      <c r="X17" s="26" t="s">
         <v>154</v>
       </c>
       <c r="Y17" s="10" t="s">
@@ -4197,11 +4466,11 @@
       <c r="Z17" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AA17" s="26" t="s">
+      <c r="AA17" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -4253,15 +4522,15 @@
       <c r="Q18" s="10">
         <v>0</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="24">
         <v>0</v>
       </c>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27" t="s">
+      <c r="W18" s="25"/>
+      <c r="X18" s="26" t="s">
         <v>159</v>
       </c>
       <c r="Y18" s="10" t="s">
@@ -4270,11 +4539,11 @@
       <c r="Z18" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AA18" s="26" t="s">
+      <c r="AA18" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -4326,15 +4595,15 @@
       <c r="Q19" s="10">
         <v>0</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="24">
         <v>0</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="27" t="s">
+      <c r="W19" s="25"/>
+      <c r="X19" s="26" t="s">
         <v>163</v>
       </c>
       <c r="Y19" s="10" t="s">
@@ -4343,11 +4612,11 @@
       <c r="Z19" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AA19" s="26" t="s">
+      <c r="AA19" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -4399,15 +4668,15 @@
       <c r="Q20" s="10">
         <v>0</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="24">
         <v>0</v>
       </c>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27" t="s">
+      <c r="W20" s="25"/>
+      <c r="X20" s="26" t="s">
         <v>167</v>
       </c>
       <c r="Y20" s="10" t="s">
@@ -4416,11 +4685,11 @@
       <c r="Z20" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="AA20" s="26" t="s">
+      <c r="AA20" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -4472,15 +4741,15 @@
       <c r="Q21" s="10">
         <v>0</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="24">
         <v>0</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27" t="s">
+      <c r="W21" s="25"/>
+      <c r="X21" s="26" t="s">
         <v>171</v>
       </c>
       <c r="Y21" s="10" t="s">
@@ -4489,11 +4758,11 @@
       <c r="Z21" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AA21" s="26" t="s">
+      <c r="AA21" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -4545,15 +4814,15 @@
       <c r="Q22" s="10">
         <v>0</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="24">
         <v>0</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="27" t="s">
+      <c r="W22" s="25"/>
+      <c r="X22" s="26" t="s">
         <v>175</v>
       </c>
       <c r="Y22" s="10" t="s">
@@ -4562,11 +4831,11 @@
       <c r="Z22" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="AA22" s="26" t="s">
+      <c r="AA22" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -4618,15 +4887,15 @@
       <c r="Q23" s="10">
         <v>0</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23" s="24">
         <v>0</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="27" t="s">
+      <c r="W23" s="25"/>
+      <c r="X23" s="26" t="s">
         <v>180</v>
       </c>
       <c r="Y23" s="10" t="s">
@@ -4635,11 +4904,11 @@
       <c r="Z23" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="AA23" s="26" t="s">
+      <c r="AA23" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>21</v>
       </c>
@@ -4691,15 +4960,15 @@
       <c r="Q24" s="10">
         <v>0</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="24">
         <v>0</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="27" t="s">
+      <c r="W24" s="25"/>
+      <c r="X24" s="26" t="s">
         <v>185</v>
       </c>
       <c r="Y24" s="10" t="s">
@@ -4708,11 +4977,11 @@
       <c r="Z24" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="AA24" s="26" t="s">
+      <c r="AA24" s="25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>22</v>
       </c>
@@ -4764,15 +5033,15 @@
       <c r="Q25" s="10">
         <v>0</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25" s="24">
         <v>0</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="27" t="s">
+      <c r="W25" s="25"/>
+      <c r="X25" s="26" t="s">
         <v>190</v>
       </c>
       <c r="Y25" s="10" t="s">
@@ -4781,11 +5050,11 @@
       <c r="Z25" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AA25" s="26" t="s">
+      <c r="AA25" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>23</v>
       </c>
@@ -4837,15 +5106,15 @@
       <c r="Q26" s="10">
         <v>0</v>
       </c>
-      <c r="R26" s="25">
+      <c r="R26" s="24">
         <v>0</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27" t="s">
+      <c r="W26" s="25"/>
+      <c r="X26" s="26" t="s">
         <v>194</v>
       </c>
       <c r="Y26" s="10" t="s">
@@ -4854,11 +5123,11 @@
       <c r="Z26" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="AA26" s="26" t="s">
+      <c r="AA26" s="25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -4910,15 +5179,15 @@
       <c r="Q27" s="10">
         <v>0</v>
       </c>
-      <c r="R27" s="25">
+      <c r="R27" s="24">
         <v>0</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="27" t="s">
+      <c r="W27" s="25"/>
+      <c r="X27" s="26" t="s">
         <v>199</v>
       </c>
       <c r="Y27" s="10" t="s">
@@ -4927,11 +5196,11 @@
       <c r="Z27" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AA27" s="26" t="s">
+      <c r="AA27" s="25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>25</v>
       </c>
@@ -4983,15 +5252,15 @@
       <c r="Q28" s="10">
         <v>0</v>
       </c>
-      <c r="R28" s="25">
+      <c r="R28" s="24">
         <v>0</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="27" t="s">
+      <c r="W28" s="25"/>
+      <c r="X28" s="26" t="s">
         <v>204</v>
       </c>
       <c r="Y28" s="10" t="s">
@@ -5000,11 +5269,11 @@
       <c r="Z28" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="AA28" s="26" t="s">
+      <c r="AA28" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>26</v>
       </c>
@@ -5056,15 +5325,15 @@
       <c r="Q29" s="10">
         <v>0</v>
       </c>
-      <c r="R29" s="25">
+      <c r="R29" s="24">
         <v>0</v>
       </c>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="27" t="s">
+      <c r="W29" s="25"/>
+      <c r="X29" s="26" t="s">
         <v>209</v>
       </c>
       <c r="Y29" s="10" t="s">
@@ -5073,11 +5342,11 @@
       <c r="Z29" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="AA29" s="26" t="s">
+      <c r="AA29" s="25" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>27</v>
       </c>
@@ -5129,15 +5398,15 @@
       <c r="Q30" s="10">
         <v>0</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="24">
         <v>0</v>
       </c>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27" t="s">
+      <c r="W30" s="25"/>
+      <c r="X30" s="26" t="s">
         <v>214</v>
       </c>
       <c r="Y30" s="10" t="s">
@@ -5146,11 +5415,11 @@
       <c r="Z30" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AA30" s="26" t="s">
+      <c r="AA30" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>28</v>
       </c>
@@ -5202,15 +5471,15 @@
       <c r="Q31" s="10">
         <v>0</v>
       </c>
-      <c r="R31" s="25">
+      <c r="R31" s="24">
         <v>0</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="27" t="s">
+      <c r="W31" s="25"/>
+      <c r="X31" s="26" t="s">
         <v>218</v>
       </c>
       <c r="Y31" s="10" t="s">
@@ -5219,11 +5488,11 @@
       <c r="Z31" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="AA31" s="26" t="s">
+      <c r="AA31" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>29</v>
       </c>
@@ -5275,15 +5544,15 @@
       <c r="Q32" s="10">
         <v>0</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="24">
         <v>0</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="27" t="s">
+      <c r="W32" s="25"/>
+      <c r="X32" s="26" t="s">
         <v>222</v>
       </c>
       <c r="Y32" s="10" t="s">
@@ -5292,11 +5561,11 @@
       <c r="Z32" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="AA32" s="26" t="s">
+      <c r="AA32" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>30</v>
       </c>
@@ -5348,15 +5617,15 @@
       <c r="Q33" s="10">
         <v>0</v>
       </c>
-      <c r="R33" s="25">
+      <c r="R33" s="24">
         <v>0</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="27" t="s">
+      <c r="W33" s="25"/>
+      <c r="X33" s="26" t="s">
         <v>227</v>
       </c>
       <c r="Y33" s="10" t="s">
@@ -5365,11 +5634,11 @@
       <c r="Z33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="AA33" s="26" t="s">
+      <c r="AA33" s="25" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>31</v>
       </c>
@@ -5421,15 +5690,15 @@
       <c r="Q34" s="10">
         <v>0</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="24">
         <v>0</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="27" t="s">
+      <c r="W34" s="25"/>
+      <c r="X34" s="26" t="s">
         <v>232</v>
       </c>
       <c r="Y34" s="10" t="s">
@@ -5438,11 +5707,11 @@
       <c r="Z34" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AA34" s="26" t="s">
+      <c r="AA34" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>32</v>
       </c>
@@ -5494,15 +5763,15 @@
       <c r="Q35" s="10">
         <v>0</v>
       </c>
-      <c r="R35" s="25">
+      <c r="R35" s="24">
         <v>0</v>
       </c>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="27" t="s">
+      <c r="W35" s="25"/>
+      <c r="X35" s="26" t="s">
         <v>236</v>
       </c>
       <c r="Y35" s="10" t="s">
@@ -5511,11 +5780,11 @@
       <c r="Z35" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="AA35" s="26" t="s">
+      <c r="AA35" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>33</v>
       </c>
@@ -5567,15 +5836,15 @@
       <c r="Q36" s="10">
         <v>0</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="24">
         <v>0</v>
       </c>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
       <c r="V36" s="10"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="27" t="s">
+      <c r="W36" s="25"/>
+      <c r="X36" s="26" t="s">
         <v>241</v>
       </c>
       <c r="Y36" s="10" t="s">
@@ -5584,11 +5853,11 @@
       <c r="Z36" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="AA36" s="26" t="s">
+      <c r="AA36" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>34</v>
       </c>
@@ -5640,15 +5909,15 @@
       <c r="Q37" s="10">
         <v>0</v>
       </c>
-      <c r="R37" s="25">
+      <c r="R37" s="24">
         <v>0</v>
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="27" t="s">
+      <c r="W37" s="25"/>
+      <c r="X37" s="26" t="s">
         <v>246</v>
       </c>
       <c r="Y37" s="10" t="s">
@@ -5657,11 +5926,11 @@
       <c r="Z37" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AA37" s="26" t="s">
+      <c r="AA37" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -5713,15 +5982,15 @@
       <c r="Q38" s="10">
         <v>0</v>
       </c>
-      <c r="R38" s="25">
+      <c r="R38" s="24">
         <v>0</v>
       </c>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="27" t="s">
+      <c r="W38" s="25"/>
+      <c r="X38" s="26" t="s">
         <v>251</v>
       </c>
       <c r="Y38" s="10" t="s">
@@ -5730,11 +5999,11 @@
       <c r="Z38" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="AA38" s="26" t="s">
+      <c r="AA38" s="25" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -5786,15 +6055,15 @@
       <c r="Q39" s="10">
         <v>0</v>
       </c>
-      <c r="R39" s="25">
+      <c r="R39" s="24">
         <v>0</v>
       </c>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="27" t="s">
+      <c r="W39" s="25"/>
+      <c r="X39" s="26" t="s">
         <v>256</v>
       </c>
       <c r="Y39" s="10" t="s">
@@ -5803,11 +6072,11 @@
       <c r="Z39" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AA39" s="26" t="s">
+      <c r="AA39" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -5859,15 +6128,15 @@
       <c r="Q40" s="10">
         <v>0</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R40" s="24">
         <v>0</v>
       </c>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="27" t="s">
+      <c r="W40" s="25"/>
+      <c r="X40" s="26" t="s">
         <v>261</v>
       </c>
       <c r="Y40" s="10" t="s">
@@ -5876,11 +6145,11 @@
       <c r="Z40" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AA40" s="26" t="s">
+      <c r="AA40" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>38</v>
       </c>
@@ -5932,15 +6201,15 @@
       <c r="Q41" s="12">
         <v>0</v>
       </c>
-      <c r="R41" s="28">
+      <c r="R41" s="27">
         <v>0</v>
       </c>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="30" t="s">
+      <c r="W41" s="28"/>
+      <c r="X41" s="29" t="s">
         <v>265</v>
       </c>
       <c r="Y41" s="12" t="s">
@@ -5949,12 +6218,12 @@
       <c r="Z41" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="AA41" s="29" t="s">
+      <c r="AA41" s="28" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1540E82-9635-4A70-A1F5-A54521DC30CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98A1EB7-638A-4A07-8515-2A960348BB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="351">
   <si>
     <t>ID</t>
   </si>
@@ -1191,25 +1191,79 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 能量消耗</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 效果ID列表</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 目标类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 触发时机</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 持续回合</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 稀有度</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 类别</t>
+    <t>abilityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量消耗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果ID列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effects</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>trounce_01*trounce_02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型
+1、自身
+2、对方单体
+3、对方全体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1296,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1670,6 +1724,17 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1680,7 +1745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,15 +1881,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1834,8 +1890,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2545,7 +2616,7 @@
     <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2564,8 +2635,11 @@
       <c r="F1" s="42" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="G1" s="48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2584,8 +2658,11 @@
       <c r="F2" s="43" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2604,8 +2681,11 @@
       <c r="F3" s="42" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2624,8 +2704,11 @@
       <c r="F4" s="44" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -2644,8 +2727,11 @@
       <c r="F5" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -2663,6 +2749,9 @@
       </c>
       <c r="F6" s="44" t="s">
         <v>273</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2673,19 +2762,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D2148-8412-4B4D-9F87-3CA753CB34C0}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2698,43 +2790,52 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="E1" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="52" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="47" t="s">
+      <c r="E2" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="F2" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2747,38 +2848,101 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E3" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2885,10 +3049,10 @@
         <v>286</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2914,25 +3078,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="45" t="s">
         <v>329</v>
       </c>
     </row>
@@ -2946,7 +3110,7 @@
       <c r="C2" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="46" t="s">
         <v>312</v>
       </c>
       <c r="E2" s="42" t="s">
@@ -2972,27 +3136,27 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="42" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>290</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="47">
         <v>100</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="47" t="s">
         <v>291</v>
       </c>
       <c r="E4" s="10"/>
@@ -3002,16 +3166,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>292</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="47">
         <v>100</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>293</v>
       </c>
       <c r="E5" s="10"/>
@@ -3021,16 +3185,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="47" t="s">
         <v>294</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="47">
         <v>3</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="47" t="s">
         <v>295</v>
       </c>
       <c r="E6" s="10"/>
@@ -3040,16 +3204,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>296</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="47">
         <v>3</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>297</v>
       </c>
       <c r="E7" s="10"/>
@@ -3059,16 +3223,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="47" t="s">
         <v>298</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="50">
-        <v>10</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="47">
+        <v>10</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>299</v>
       </c>
       <c r="E8" s="10"/>
@@ -3078,16 +3242,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="47" t="s">
         <v>300</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="50">
-        <v>0</v>
-      </c>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="47">
+        <v>0</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>301</v>
       </c>
       <c r="E9" s="10"/>
@@ -3097,16 +3261,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="47" t="s">
         <v>302</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="50">
-        <v>0</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="47">
+        <v>0</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>303</v>
       </c>
       <c r="E10" s="10"/>
@@ -3116,16 +3280,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="47" t="s">
         <v>304</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="C11" s="50">
-        <v>0</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="47">
+        <v>0</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>305</v>
       </c>
       <c r="E11" s="10"/>
@@ -3135,16 +3299,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="47" t="s">
         <v>306</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="50">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="47">
+        <v>0</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>307</v>
       </c>
       <c r="E12" s="10"/>
@@ -3154,16 +3318,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="47" t="s">
         <v>308</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="C13" s="50">
-        <v>0</v>
-      </c>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="47">
+        <v>0</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>309</v>
       </c>
       <c r="E13" s="10"/>
@@ -3173,16 +3337,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>310</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="50">
-        <v>0</v>
-      </c>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="47">
+        <v>0</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>311</v>
       </c>
       <c r="E14" s="10"/>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98A1EB7-638A-4A07-8515-2A960348BB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5FA949-7E6B-4D8E-9F2E-0A30BCC53742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -18,11 +18,10 @@
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId3"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId4"/>
     <sheet name="card|卡牌" sheetId="29" r:id="rId5"/>
-    <sheet name="ability|技能" sheetId="33" r:id="rId6"/>
-    <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId7"/>
-    <sheet name="attribute|属性" sheetId="35" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
-    <sheet name="sheet2" sheetId="30" r:id="rId10"/>
+    <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId6"/>
+    <sheet name="attribute|属性" sheetId="35" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
+    <sheet name="sheet2" sheetId="30" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="346">
   <si>
     <t>ID</t>
   </si>
@@ -988,18 +987,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>技能名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ability_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_name</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1191,38 +1178,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>abilityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量消耗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>效果ID列表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>cost</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1240,10 +1203,6 @@
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1263,6 +1222,36 @@
   </si>
   <si>
     <t>技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型
+0、继承主人
+1、自身
+2、对方单体
+3、对方全体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_parameters</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型
+1、造成伤害
+2、获取护盾
+3、给予BUFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果参数，根据类型。*号分割
+1、伤害值
+2、护盾值
+3、BUFFID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1323,12 +1312,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9.6"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9.6"/>
       <color rgb="FF374151"/>
       <name val="宋体"/>
@@ -1350,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1724,17 +1715,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1745,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,31 +1862,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2214,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2282,69 +2265,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="C7:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E9" si="0">C7&amp;"*"&amp;D7</f>
-        <v>strike*5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>defense*4</v>
-      </c>
-      <c r="F8" t="str">
-        <f>E7&amp;"*"&amp;E8</f>
-        <v>strike*5*defense*4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>trounce*1</v>
-      </c>
-      <c r="F9" t="str">
-        <f>F8&amp;"*"&amp;E9</f>
-        <v>strike*5*defense*4*trounce*1</v>
-      </c>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2602,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2614,9 +2535,12 @@
     <col min="4" max="4" width="5.86328125" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625"/>
+    <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2635,11 +2559,17 @@
       <c r="F1" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="G1" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2658,11 +2588,17 @@
       <c r="F2" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2681,11 +2617,17 @@
       <c r="F3" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2704,11 +2646,17 @@
       <c r="F4" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -2727,11 +2675,17 @@
       <c r="F5" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -2750,8 +2704,14 @@
       <c r="F6" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>40</v>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2761,23 +2721,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D2148-8412-4B4D-9F87-3CA753CB34C0}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D68F6-6A69-4994-8A54-CD8F7D229E72}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="16.9296875" customWidth="1"/>
+    <col min="7" max="7" width="37.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2785,57 +2745,45 @@
         <v>274</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="H1" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="52" customFormat="1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2849,22 +2797,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2876,22 +2818,16 @@
         <v>36</v>
       </c>
       <c r="E4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -2903,47 +2839,54 @@
         <v>39</v>
       </c>
       <c r="E5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>42</v>
+      <c r="D6" s="44" t="s">
+        <v>278</v>
       </c>
       <c r="E6" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>344</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2952,108 +2895,340 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D68F6-6A69-4994-8A54-CD8F7D229E72}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EA7D5D-311E-4C1E-90F0-7DA998873B51}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>280</v>
+      <c r="D2" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="45">
+        <v>100</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="45">
+        <v>100</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="45">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="45">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="45">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="45">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3063,305 +3238,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EA7D5D-311E-4C1E-90F0-7DA998873B51}">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="47">
-        <v>100</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="47">
-        <v>100</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="47">
-        <v>3</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="47">
-        <v>3</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="47">
-        <v>10</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="47">
-        <v>0</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="47">
-        <v>0</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="47">
-        <v>0</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="47">
-        <v>0</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
@@ -6390,4 +6266,64 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C7:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E9" si="0">C7&amp;"*"&amp;D7</f>
+        <v>strike*5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>defense*4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>E7&amp;"*"&amp;E8</f>
+        <v>strike*5*defense*4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>trounce*1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>F8&amp;"*"&amp;E9</f>
+        <v>strike*5*defense*4*trounce*1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5FA949-7E6B-4D8E-9F2E-0A30BCC53742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2993DBC-3C2D-4BB5-8A68-3BA8A81D7713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -1182,10 +1182,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1199,10 +1195,6 @@
   </si>
   <si>
     <t>trounce_01*trounce_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1214,14 +1206,6 @@
 1、自身
 2、对方单体
 3、对方全体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1253,6 +1237,10 @@
 2、护盾值
 3、BUFFID</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2197,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2253,9 @@
         <v>14</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2523,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2535,12 +2525,11 @@
     <col min="4" max="4" width="5.86328125" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625"/>
-    <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2553,23 +2542,20 @@
       <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
+      <c r="E1" s="42" t="s">
+        <v>342</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>270</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2589,16 +2575,13 @@
         <v>269</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="I2" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2618,16 +2601,13 @@
         <v>268</v>
       </c>
       <c r="G3" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="H3" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2649,14 +2629,11 @@
       <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -2678,14 +2655,11 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -2708,10 +2682,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2751,13 +2722,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
@@ -2774,13 +2745,13 @@
         <v>280</v>
       </c>
       <c r="E2" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>341</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2797,13 +2768,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>332</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2993DBC-3C2D-4BB5-8A68-3BA8A81D7713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B432C9F-B25F-450B-9A31-6E985317D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="384">
   <si>
     <t>ID</t>
   </si>
@@ -1225,13 +1225,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>效果类型
-1、造成伤害
-2、获取护盾
-3、给予BUFF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>效果参数，根据类型。*号分割
 1、伤害值
 2、护盾值
@@ -1241,6 +1234,144 @@
   <si>
     <t>card_description</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤（Vulnerable）</t>
+  </si>
+  <si>
+    <t>弱化（Weak）</t>
+  </si>
+  <si>
+    <t>中毒（Poisoned）</t>
+  </si>
+  <si>
+    <t>燃烧（Burning）</t>
+  </si>
+  <si>
+    <t>强化（Strengthened）</t>
+  </si>
+  <si>
+    <t>再生（Regenerating）</t>
+  </si>
+  <si>
+    <t>流血（Bleeding）</t>
+  </si>
+  <si>
+    <t>充能（Energized）</t>
+  </si>
+  <si>
+    <t>冻结（Frozen）</t>
+  </si>
+  <si>
+    <t>易伤</t>
+  </si>
+  <si>
+    <t>弱化</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>充能</t>
+  </si>
+  <si>
+    <t>FROZEN</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>VULNERABLE</t>
+  </si>
+  <si>
+    <t>WEAK</t>
+  </si>
+  <si>
+    <t>POISONED</t>
+  </si>
+  <si>
+    <t>BURNING</t>
+  </si>
+  <si>
+    <t>STRENGTHENED</t>
+  </si>
+  <si>
+    <t>REGENERATING</t>
+  </si>
+  <si>
+    <t>BLEEDING</t>
+  </si>
+  <si>
+    <t>ENERGIZED</t>
+  </si>
+  <si>
+    <t>目标受到的伤害增加50%。</t>
+  </si>
+  <si>
+    <t>目标造成的伤害减少25%。</t>
+  </si>
+  <si>
+    <t>在目标的回合开始时，中毒将造成等同于其堆叠数的伤害，并减少1点堆叠数。</t>
+  </si>
+  <si>
+    <t>每回合结束时，目标受到等同于燃烧堆叠数的伤害，然后燃烧堆叠数减半。</t>
+  </si>
+  <si>
+    <t>目标的攻击力增加。</t>
+  </si>
+  <si>
+    <t>每回合结束时，目标受到等同于流血堆叠数的伤害。</t>
+  </si>
+  <si>
+    <t>目标在下一回合获得额外的能量点数。</t>
+  </si>
+  <si>
+    <t>目标在下一回合无法行动。</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>持续回合
+0及时
+-1永久</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VULNERABLE*2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型
+1、造成伤害
+2、获得护盾
+3、给予BUFF
+4、特性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点护盾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标每回合恢复5生命值。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shielded</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2375,7 +2506,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="A1:E4"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2515,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2543,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>270</v>
@@ -2655,8 +2786,8 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>37</v>
+      <c r="H5" s="44" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2693,22 +2824,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D68F6-6A69-4994-8A54-CD8F7D229E72}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="16.9296875" customWidth="1"/>
-    <col min="7" max="7" width="37.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="71.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2718,11 +2850,11 @@
       <c r="C1" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
+      <c r="D1" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="F1" s="49" t="s">
         <v>338</v>
@@ -2730,8 +2862,11 @@
       <c r="G1" s="49" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2741,20 +2876,23 @@
       <c r="C2" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2764,10 +2902,10 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>331</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -2776,8 +2914,11 @@
       <c r="G3" s="42" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2785,10 +2926,10 @@
       <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="48">
         <v>0</v>
       </c>
       <c r="F4" s="10">
@@ -2797,29 +2938,35 @@
       <c r="G4" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
+      <c r="H4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>383</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="C5" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
         <v>0</v>
       </c>
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="44">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>282</v>
       </c>
@@ -2827,10 +2974,10 @@
       <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="48">
         <v>0</v>
       </c>
       <c r="F6" s="10">
@@ -2839,8 +2986,11 @@
       <c r="G6" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>283</v>
       </c>
@@ -2848,8 +2998,8 @@
       <c r="C7" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>277</v>
+      <c r="D7" s="48">
+        <v>0</v>
       </c>
       <c r="E7" s="48">
         <v>0</v>
@@ -2857,7 +3007,246 @@
       <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="48">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="48">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="48">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="48">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="48">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10">
+        <v>6</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="48">
+        <v>4</v>
+      </c>
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="48">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10">
+        <v>8</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="48">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2870,7 +3259,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B432C9F-B25F-450B-9A31-6E985317D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F261B-6C28-4192-B3A9-2020FE6B8D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="673" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -1371,6 +1371,21 @@
   </si>
   <si>
     <t>shielded</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>play_animation</t>
+  </si>
+  <si>
+    <t>施法者动作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1844,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1988,15 +2003,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2644,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2657,10 +2663,11 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625"/>
+    <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2683,10 +2690,13 @@
         <v>335</v>
       </c>
       <c r="H1" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
@@ -2708,11 +2718,14 @@
       <c r="G2" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2735,10 +2748,13 @@
         <v>331</v>
       </c>
       <c r="H3" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2760,11 +2776,12 @@
       <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -2787,10 +2804,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
@@ -2812,9 +2832,40 @@
       <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="44" t="s">
         <v>334</v>
       </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2826,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D68F6-6A69-4994-8A54-CD8F7D229E72}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2856,14 +2907,14 @@
       <c r="E1" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
+      <c r="H1" s="42" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -2882,10 +2933,10 @@
       <c r="E2" s="43" t="s">
         <v>378</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="43" t="s">
         <v>340</v>
       </c>
       <c r="H2" s="42" t="s">
@@ -2896,8 +2947,8 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>274</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -2905,7 +2956,7 @@
       <c r="D3" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="42" t="s">
         <v>331</v>
       </c>
       <c r="F3" s="42" t="s">
@@ -2929,7 +2980,7 @@
       <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
       <c r="F4" s="10">
@@ -2953,7 +3004,7 @@
       <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
       <c r="F5" s="10">
@@ -2977,7 +3028,7 @@
       <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
       <c r="F6" s="10">
@@ -2998,10 +3049,10 @@
       <c r="C7" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="48">
-        <v>0</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
         <v>0</v>
       </c>
       <c r="F7" s="10">
@@ -3030,7 +3081,7 @@
       <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
       <c r="G8" s="10">
@@ -3056,7 +3107,7 @@
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="10">
         <v>4</v>
       </c>
       <c r="G9" s="10">
@@ -3082,7 +3133,7 @@
       <c r="E10" s="10">
         <v>-1</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="10">
         <v>4</v>
       </c>
       <c r="G10" s="10">
@@ -3108,7 +3159,7 @@
       <c r="E11" s="10">
         <v>-1</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="10">
         <v>4</v>
       </c>
       <c r="G11" s="10">
@@ -3134,7 +3185,7 @@
       <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="10">
         <v>4</v>
       </c>
       <c r="G12" s="10">
@@ -3160,7 +3211,7 @@
       <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="10">
         <v>4</v>
       </c>
       <c r="G13" s="10">
@@ -3186,7 +3237,7 @@
       <c r="E14" s="10">
         <v>-1</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="10">
         <v>4</v>
       </c>
       <c r="G14" s="10">
@@ -3212,7 +3263,7 @@
       <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="10">
         <v>4</v>
       </c>
       <c r="G15" s="10">
@@ -3238,7 +3289,7 @@
       <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="10">
         <v>4</v>
       </c>
       <c r="G16" s="10">
@@ -3259,7 +3310,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="A15" sqref="A15:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3270,71 +3321,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="48" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="51" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>10</v>
       </c>
     </row>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5F261B-6C28-4192-B3A9-2020FE6B8D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB24C4-0E9F-42A6-959F-E24D331C9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="389">
   <si>
     <t>ID</t>
   </si>
@@ -1387,6 +1387,10 @@
   <si>
     <t>items</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2323,7 +2327,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2512,7 +2516,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2653,7 +2657,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2663,7 +2667,7 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.06640625"/>
+    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2776,7 +2780,9 @@
       <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="44" t="s">
+        <v>388</v>
+      </c>
       <c r="I4" s="10" t="s">
         <v>34</v>
       </c>
@@ -2832,7 +2838,9 @@
       <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="44" t="s">
+        <v>388</v>
+      </c>
       <c r="I6" s="44" t="s">
         <v>334</v>
       </c>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24102\Documents\project-sx\xlsdir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDB24C4-0E9F-42A6-959F-E24D331C9B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2223CB15-51F6-40E5-91FF-3E31D690A49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="673" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="673" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
     <sheet name="character|角色" sheetId="32" r:id="rId2"/>
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId3"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId4"/>
-    <sheet name="card|卡牌" sheetId="29" r:id="rId5"/>
-    <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId6"/>
-    <sheet name="attribute|属性" sheetId="35" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
-    <sheet name="sheet2" sheetId="30" r:id="rId9"/>
+    <sheet name="intent|意图" sheetId="38" r:id="rId5"/>
+    <sheet name="card|卡牌" sheetId="29" r:id="rId6"/>
+    <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId7"/>
+    <sheet name="attribute|属性" sheetId="35" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="sheet2" sheetId="30" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="433">
   <si>
     <t>ID</t>
   </si>
@@ -1390,6 +1391,155 @@
   </si>
   <si>
     <t>attack_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>多重攻击</t>
+  </si>
+  <si>
+    <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
+  </si>
+  <si>
+    <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>敌人会恢复一定量的生命值。</t>
+  </si>
+  <si>
+    <t>策略</t>
+  </si>
+  <si>
+    <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
+  </si>
+  <si>
+    <t>逃跑</t>
+  </si>
+  <si>
+    <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
+  </si>
+  <si>
+    <t>ESCAPE</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>MULTI_ATTACK</t>
+  </si>
+  <si>
+    <t>DEFEND</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>STRATEGY</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Spells/poison_dagger.png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Spells/thorn_vine_spell.png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Spells/healing_spell.png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Debuffs/on_fire_(burning).png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Debuffs/confused.png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Debuffs/disarmed.png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Buffs/lucky_boost.png</t>
+  </si>
+  <si>
+    <t>res://asserts/widgets/Buffs/swiftness.png</t>
+  </si>
+  <si>
+    <t>func</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图对应方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK*MULTI_ATTACK*DEFEND</t>
+  </si>
+  <si>
+    <t>intent_pool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>意图池</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人计划多次攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人打算进行攻击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人将增加防御力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1479,7 +1629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1853,6 +2003,17 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1863,7 +2024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2019,6 +2180,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2404,6 +2583,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="C7:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E9" si="0">C7&amp;"*"&amp;D7</f>
+        <v>strike*5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>defense*4</v>
+      </c>
+      <c r="F8" t="str">
+        <f>E7&amp;"*"&amp;E8</f>
+        <v>strike*5*defense*4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>trounce*1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>F8&amp;"*"&amp;E9</f>
+        <v>strike*5*defense*4*trounce*1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
@@ -2598,52 +2837,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.46484375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="28.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="52" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="52" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2653,11 +2912,261 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44291C8-9325-4F23-B950-831A2BB11291}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.06640625" style="55"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="5" max="5" width="54.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="56">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="56">
+        <v>2</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="56">
+        <v>3</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="56">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="56">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="56">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="56">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="56">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2667,7 +3176,7 @@
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2881,7 +3390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5D68F6-6A69-4994-8A54-CD8F7D229E72}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3313,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EA7D5D-311E-4C1E-90F0-7DA998873B51}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -3656,7 +4165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
@@ -6685,64 +7194,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="C7:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" ref="E7:E9" si="0">C7&amp;"*"&amp;D7</f>
-        <v>strike*5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>defense*4</v>
-      </c>
-      <c r="F8" t="str">
-        <f>E7&amp;"*"&amp;E8</f>
-        <v>strike*5*defense*4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>trounce*1</v>
-      </c>
-      <c r="F9" t="str">
-        <f>F8&amp;"*"&amp;E9</f>
-        <v>strike*5*defense*4*trounce*1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="13545" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -21,12 +21,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="433">
   <si>
     <t>ID</t>
   </si>
@@ -133,13 +146,43 @@
     <t>intent_pool</t>
   </si>
   <si>
+    <t>enemy_scene</t>
+  </si>
+  <si>
     <t>怪物名</t>
   </si>
   <si>
     <t>意图池</t>
   </si>
   <si>
+    <t>怪物场景</t>
+  </si>
+  <si>
     <t>ATTACK*MULTI_ATTACK*DEFEND</t>
+  </si>
+  <si>
+    <t>flying_eye</t>
+  </si>
+  <si>
+    <t>眼魔</t>
+  </si>
+  <si>
+    <t>goblin</t>
+  </si>
+  <si>
+    <t>地精</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>蘑菇怪</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>骷髅怪</t>
   </si>
   <si>
     <t>type</t>
@@ -1424,14 +1467,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,14 +1499,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9.6"/>
       <color rgb="FF374151"/>
       <name val="宋体"/>
@@ -1474,13 +1509,6 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1827,7 +1855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2177,34 +2205,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2334,137 +2334,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2573,70 +2573,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -2993,7 +2984,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3019,13 +3010,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3105,7 +3096,7 @@
   <sheetData>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3117,7 +3108,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3133,7 +3124,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3251,7 +3242,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="57" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="54" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -3269,20 +3260,20 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="56" customFormat="1" spans="1:5">
-      <c r="A2" s="42" t="s">
+    <row r="2" s="53" customFormat="1" spans="1:5">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3329,73 +3320,132 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
     <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="52" t="s">
+      <c r="D1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="53" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="53" t="s">
+      <c r="C2" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>31</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="40"/>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" s="1"/>
+      <c r="C4" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="51" t="str">
+        <f t="shared" ref="D4:D8" si="0">"enemy_"&amp;A4</f>
+        <v>enemy_slime</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>enemy_flying_eye</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>enemy_goblin</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>enemy_mushroom</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>enemy_skeleton</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3415,95 +3465,95 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="9.06666666666667" style="46"/>
+    <col min="3" max="3" width="9.06666666666667" style="44"/>
     <col min="4" max="4" width="62" customWidth="1"/>
     <col min="5" max="5" width="54.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>42</v>
+      <c r="C1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>48</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="D3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="50">
+        <v>61</v>
+      </c>
+      <c r="C4" s="48">
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1">
         <v>8</v>
@@ -3511,19 +3561,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="50">
+        <v>65</v>
+      </c>
+      <c r="C5" s="48">
         <v>2</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -3531,19 +3581,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="50">
+        <v>69</v>
+      </c>
+      <c r="C6" s="48">
         <v>3</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -3551,19 +3601,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="50">
+        <v>73</v>
+      </c>
+      <c r="C7" s="48">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -3571,19 +3621,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="50">
+        <v>77</v>
+      </c>
+      <c r="C8" s="48">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -3591,19 +3641,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="50">
+        <v>81</v>
+      </c>
+      <c r="C9" s="48">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -3611,19 +3661,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="50">
+        <v>85</v>
+      </c>
+      <c r="C10" s="48">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -3631,19 +3681,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="50">
+        <v>89</v>
+      </c>
+      <c r="C11" s="48">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -3680,57 +3730,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:9">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>91</v>
+      <c r="B2" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3749,25 +3799,25 @@
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -3776,27 +3826,27 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -3805,27 +3855,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3834,19 +3884,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3860,8 +3910,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3878,52 +3928,52 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="41" t="s">
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:8">
-      <c r="A2" s="42" t="s">
+    <row r="2" ht="108" spans="1:8">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="41" t="s">
+      <c r="B2" s="5" t="s">
         <v>122</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3936,16 +3986,16 @@
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -3954,11 +4004,11 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -3973,16 +4023,16 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3997,16 +4047,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4021,16 +4071,16 @@
         <v>8</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="40" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4042,21 +4092,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4071,18 +4121,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4097,18 +4147,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4123,18 +4173,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4149,18 +4199,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4175,18 +4225,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -4201,18 +4251,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4227,18 +4277,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4253,18 +4303,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4279,7 +4329,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4309,22 +4359,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4332,22 +4382,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4358,16 +4408,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>10</v>
@@ -4375,10 +4425,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -4393,15 +4443,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -4416,15 +4466,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -4439,15 +4489,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -4462,12 +4512,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -4485,15 +4535,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -4508,15 +4558,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -4531,15 +4581,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -4554,15 +4604,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -4577,15 +4627,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -4600,15 +4650,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -4623,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4651,67 +4701,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4723,82 +4773,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -4889,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -4944,17 +4994,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="58" t="s">
-        <v>253</v>
+      <c r="X4" s="55" t="s">
+        <v>263</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -4962,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5018,16 +5068,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5035,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -5091,16 +5141,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5108,7 +5158,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -5164,16 +5214,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5181,7 +5231,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -5237,16 +5287,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5254,7 +5304,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -5310,16 +5360,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5327,7 +5377,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -5383,16 +5433,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5400,7 +5450,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -5456,16 +5506,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5473,7 +5523,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -5529,16 +5579,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5546,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -5602,16 +5652,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5619,7 +5669,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -5675,16 +5725,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5692,7 +5742,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -5748,16 +5798,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -5765,7 +5815,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -5821,16 +5871,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -5838,7 +5888,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -5894,16 +5944,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -5911,7 +5961,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -5967,16 +6017,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -5984,7 +6034,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -6040,16 +6090,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6057,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -6113,16 +6163,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6130,7 +6180,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -6186,16 +6236,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6203,7 +6253,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -6259,16 +6309,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6276,7 +6326,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -6332,16 +6382,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6349,7 +6399,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -6405,16 +6455,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6422,7 +6472,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -6478,16 +6528,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6495,7 +6545,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -6551,16 +6601,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6568,7 +6618,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -6624,16 +6674,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6641,7 +6691,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -6697,16 +6747,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6714,7 +6764,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -6770,16 +6820,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -6787,7 +6837,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -6843,16 +6893,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -6860,7 +6910,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -6916,16 +6966,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -6933,7 +6983,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -6989,16 +7039,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7006,7 +7056,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -7062,16 +7112,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7079,7 +7129,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -7135,16 +7185,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7152,7 +7202,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -7208,16 +7258,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7225,7 +7275,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -7281,16 +7331,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7298,7 +7348,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -7354,16 +7404,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7371,7 +7421,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -7427,16 +7477,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7444,7 +7494,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -7500,16 +7550,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7517,7 +7567,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -7573,16 +7623,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7590,7 +7640,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7646,16 +7696,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="433">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,30 @@
     <t>一个矮小而丑陋的怪物，生活在森林深处。</t>
   </si>
   <si>
+    <t>flying_eye</t>
+  </si>
+  <si>
+    <t>眼魔</t>
+  </si>
+  <si>
+    <t>goblin</t>
+  </si>
+  <si>
+    <t>地精</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>蘑菇怪</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>骷髅怪</t>
+  </si>
+  <si>
     <t>mark_04</t>
   </si>
   <si>
@@ -161,30 +185,6 @@
     <t>ATTACK*MULTI_ATTACK*DEFEND</t>
   </si>
   <si>
-    <t>flying_eye</t>
-  </si>
-  <si>
-    <t>眼魔</t>
-  </si>
-  <si>
-    <t>goblin</t>
-  </si>
-  <si>
-    <t>地精</t>
-  </si>
-  <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>蘑菇怪</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>骷髅怪</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -230,7 +230,7 @@
     <t>敌人打算进行攻击。</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Spells/poison_dagger.png</t>
+    <t>res://asserts/textures/widgets/Spells/poison_dagger.png</t>
   </si>
   <si>
     <t>MULTI_ATTACK</t>
@@ -242,7 +242,7 @@
     <t>敌人计划多次攻击。</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Spells/thorn_vine_spell.png</t>
+    <t>res://asserts/textures/widgets/Spells/thorn_vine_spell.png</t>
   </si>
   <si>
     <t>DEFEND</t>
@@ -254,7 +254,7 @@
     <t>敌人将增加防御力</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Spells/healing_spell.png</t>
+    <t>res://asserts/textures/widgets/Spells/healing_spell.png</t>
   </si>
   <si>
     <t>BUFF</t>
@@ -266,7 +266,7 @@
     <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Debuffs/on_fire_(burning).png</t>
+    <t>res://asserts/textures/widgets/Debuffs/on_fire_(burning).png</t>
   </si>
   <si>
     <t>DEBUFF</t>
@@ -278,7 +278,7 @@
     <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Debuffs/disarmed.png</t>
+    <t>res://asserts/textures/widgets/Debuffs/disarmed.png</t>
   </si>
   <si>
     <t>HEAL</t>
@@ -290,7 +290,7 @@
     <t>敌人会恢复一定量的生命值。</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Buffs/lucky_boost.png</t>
+    <t>res://asserts/textures/widgets/Buffs/lucky_boost.png</t>
   </si>
   <si>
     <t>STRATEGY</t>
@@ -302,7 +302,7 @@
     <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Debuffs/confused.png</t>
+    <t>res://asserts/textures/widgets/Debuffs/confused.png</t>
   </si>
   <si>
     <t>ESCAPE</t>
@@ -314,7 +314,7 @@
     <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
   </si>
   <si>
-    <t>res://asserts/widgets/Buffs/swiftness.png</t>
+    <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
   </si>
   <si>
     <t>card_name</t>
@@ -376,7 +376,7 @@
     <t>造成6点伤害</t>
   </si>
   <si>
-    <t>res://asserts/cards/card_icons/card_strike.png</t>
+    <t>res://asserts/textures/cards/card_icons/card_strike.png</t>
   </si>
   <si>
     <t>attack_01</t>
@@ -388,7 +388,7 @@
     <t>获得5点护甲</t>
   </si>
   <si>
-    <t>res://asserts/cards/card_icons/card_defense.png</t>
+    <t>res://asserts/textures/cards/card_icons/card_defense.png</t>
   </si>
   <si>
     <t>items</t>
@@ -406,7 +406,7 @@
     <t>造成8点伤害，给与2层易伤</t>
   </si>
   <si>
-    <t>res://asserts/cards/card_icons/card_trounce.png</t>
+    <t>res://asserts/textures/cards/card_icons/card_trounce.png</t>
   </si>
   <si>
     <t>trounce_01*trounce_02</t>
@@ -2981,13 +2981,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
@@ -3075,6 +3075,62 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3150,7 +3206,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -3163,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3177,16 +3233,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3211,14 +3267,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+      <c r="E4" s="50" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3252,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3265,16 +3321,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3285,7 +3341,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -3302,13 +3358,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3322,12 +3378,12 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -3346,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3357,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3374,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -3388,7 +3444,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D4" s="51" t="str">
         <f t="shared" ref="D4:D8" si="0">"enemy_"&amp;A4</f>
@@ -3397,10 +3453,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="50" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="51" t="str">
@@ -3410,10 +3466,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="50" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="51" t="str">
@@ -3423,10 +3479,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="50" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51" t="str">
@@ -3436,10 +3492,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="50" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="51" t="str">
@@ -3460,14 +3516,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="9.06666666666667" style="44"/>
     <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="54.5333333333333" customWidth="1"/>
+    <col min="5" max="5" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3711,7 +3767,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3809,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3996,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>10</v>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="504">
   <si>
     <t>ID</t>
   </si>
@@ -89,7 +89,7 @@
     <t>史莱姆</t>
   </si>
   <si>
-    <t>一个矮小而丑陋的怪物，生活在森林深处。</t>
+    <t>一种黏滑的生物，能够分裂和吸收小型物体。史莱姆的主要攻击方式是覆盖和缠绕。</t>
   </si>
   <si>
     <t>flying_eye</t>
@@ -98,24 +98,36 @@
     <t>眼魔</t>
   </si>
   <si>
+    <t>一种拥有多个眼睛的神秘生物，能够施放不同的魔法效果。以其智慧和远程攻击著称。</t>
+  </si>
+  <si>
     <t>goblin</t>
   </si>
   <si>
     <t>地精</t>
   </si>
   <si>
+    <t>一种小型、狡猾且迅速的生物。擅长使用小刀和陷阱。</t>
+  </si>
+  <si>
     <t>mushroom</t>
   </si>
   <si>
     <t>蘑菇怪</t>
   </si>
   <si>
+    <t>一种生长在森林里的神秘生物，能够释放毒素和治疗药剂。</t>
+  </si>
+  <si>
     <t>skeleton</t>
   </si>
   <si>
     <t>骷髅怪</t>
   </si>
   <si>
+    <t>不死生物，使用古老的武器和盔甲。虽然动作缓慢，但具有较高的防御力。</t>
+  </si>
+  <si>
     <t>mark_04</t>
   </si>
   <si>
@@ -182,12 +194,33 @@
     <t>怪物场景</t>
   </si>
   <si>
-    <t>ATTACK*MULTI_ATTACK*DEFEND</t>
+    <t>split*absorb*entangle</t>
+  </si>
+  <si>
+    <t>destruction_ray*curse_gaze*magic_shield</t>
+  </si>
+  <si>
+    <t>sprint_stab*set_trap*sneak_attack</t>
+  </si>
+  <si>
+    <t>toxin_spray*healing_spore*hallucinogenic_spore</t>
+  </si>
+  <si>
+    <t>heavy_strike*bone_shield*summon_assistance</t>
+  </si>
+  <si>
+    <t>owner</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
     <t>des</t>
   </si>
   <si>
@@ -200,12 +233,21 @@
     <t>func</t>
   </si>
   <si>
+    <t>所属(注释）</t>
+  </si>
+  <si>
     <t>意图名</t>
   </si>
   <si>
     <t>意图类型</t>
   </si>
   <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
     <t>意图描述</t>
   </si>
   <si>
@@ -215,7 +257,10 @@
     <t>意图值</t>
   </si>
   <si>
-    <t>意图对应方法</t>
+    <t>意图方法</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>texture</t>
@@ -315,6 +360,141 @@
   </si>
   <si>
     <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
+  </si>
+  <si>
+    <t>entangle</t>
+  </si>
+  <si>
+    <t>缠绕</t>
+  </si>
+  <si>
+    <t>降低玩家下一回合的行动点数。</t>
+  </si>
+  <si>
+    <t>destruction_ray</t>
+  </si>
+  <si>
+    <t>破坏射线</t>
+  </si>
+  <si>
+    <t>对玩家造成魔法伤害。</t>
+  </si>
+  <si>
+    <t>curse_gaze</t>
+  </si>
+  <si>
+    <t>诅咒凝视</t>
+  </si>
+  <si>
+    <t>使玩家在下一回合内受到的伤害增加。</t>
+  </si>
+  <si>
+    <t>magic_shield</t>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+  </si>
+  <si>
+    <t>为自己添加一层护盾，抵挡一定量的伤害。</t>
+  </si>
+  <si>
+    <t>sprint_stab</t>
+  </si>
+  <si>
+    <t>疾跑刺击</t>
+  </si>
+  <si>
+    <t>快速冲刺并对玩家造成物理伤害。</t>
+  </si>
+  <si>
+    <t>set_trap</t>
+  </si>
+  <si>
+    <t>布置陷阱</t>
+  </si>
+  <si>
+    <t>下一回合对玩家造成额外伤害。</t>
+  </si>
+  <si>
+    <t>sneak_attack</t>
+  </si>
+  <si>
+    <t>偷袭</t>
+  </si>
+  <si>
+    <t>如果玩家生命值低，造成额外伤害。</t>
+  </si>
+  <si>
+    <t>toxin_spray</t>
+  </si>
+  <si>
+    <t>毒素喷射</t>
+  </si>
+  <si>
+    <t>造成持续性的毒素伤害。</t>
+  </si>
+  <si>
+    <t>healing_spore</t>
+  </si>
+  <si>
+    <t>治疗孢子</t>
+  </si>
+  <si>
+    <t>为自己或其他敌人恢复生命值。</t>
+  </si>
+  <si>
+    <t>hallucinogenic_spore</t>
+  </si>
+  <si>
+    <t>迷幻孢子</t>
+  </si>
+  <si>
+    <t>使玩家在下一回合内混乱，随机选择行动。</t>
+  </si>
+  <si>
+    <t>heavy_strike</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
+    <t>用锋利的武器对玩家造成大量伤害。</t>
+  </si>
+  <si>
+    <t>bone_shield</t>
+  </si>
+  <si>
+    <t>骨盾</t>
+  </si>
+  <si>
+    <t>提高自己的防御力，减少受到的伤害。</t>
+  </si>
+  <si>
+    <t>summon_assistance</t>
+  </si>
+  <si>
+    <t>召唤援助</t>
+  </si>
+  <si>
+    <t>召唤另一个骷髅怪加入战斗</t>
   </si>
   <si>
     <t>card_name</t>
@@ -615,9 +795,6 @@
   </si>
   <si>
     <t>属性描述</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>bool</t>
@@ -1462,6 +1639,42 @@
   </si>
   <si>
     <t>抹杀者</t>
+  </si>
+  <si>
+    <t>史莱姆（Slime）</t>
+  </si>
+  <si>
+    <t>眼魔（Beholder）</t>
+  </si>
+  <si>
+    <t>哥布林（Goblin）</t>
+  </si>
+  <si>
+    <t>蘑菇精（Mushroom Sprite）</t>
+  </si>
+  <si>
+    <t>split*absorb</t>
+  </si>
+  <si>
+    <t>骷髅怪（Skeleton）</t>
+  </si>
+  <si>
+    <t>destruction_ray*curse_gaze</t>
+  </si>
+  <si>
+    <t>sprint_stab*set_trap</t>
+  </si>
+  <si>
+    <t>意图：</t>
+  </si>
+  <si>
+    <t>toxin_spray*healing_spore</t>
+  </si>
+  <si>
+    <t>heavy_strike*bone_shield</t>
+  </si>
+  <si>
+    <t>描述：</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,6 +1878,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,7 +2074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2197,17 +2416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2340,7 +2548,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2352,119 +2560,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2606,19 +2814,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2627,7 +2841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -2983,8 +3197,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3073,15 +3287,15 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
@@ -3090,13 +3304,16 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="50" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="52" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="52" t="s">
         <v>20</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>50</v>
@@ -3104,13 +3321,16 @@
       <c r="D7" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="52" t="s">
+      <c r="E7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -3118,19 +3338,25 @@
       <c r="D8" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>24</v>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>50</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3142,17 +3368,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:F9"/>
+  <dimension ref="A7:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="J19" sqref="J15:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3164,7 +3390,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3180,7 +3406,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3192,6 +3418,220 @@
       <c r="F9" t="str">
         <f>F8&amp;"*"&amp;E9</f>
         <v>strike*5*defense*4*trounce*1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>497</v>
+      </c>
+      <c r="F16" t="s">
+        <v>496</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>500</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20">
+        <f>IF('intent|意图'!F17='intent|意图'!F16,#REF!&amp;"*"&amp;'intent|意图'!D17,'intent|意图'!D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21">
+        <f>IF('intent|意图'!F18='intent|意图'!F17,H20&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22">
+        <f>IF('intent|意图'!F19='intent|意图'!F18,H21&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <f>IF('intent|意图'!F20='intent|意图'!F19,H22&amp;"*"&amp;'intent|意图'!D20,'intent|意图'!D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24">
+        <f>IF('intent|意图'!F21='intent|意图'!F20,H23&amp;"*"&amp;'intent|意图'!D21,'intent|意图'!D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25">
+        <f>IF('intent|意图'!F22='intent|意图'!F21,H24&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26">
+        <f>IF('intent|意图'!F23='intent|意图'!F22,H25&amp;"*"&amp;'intent|意图'!D23,'intent|意图'!D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27">
+        <f>IF('intent|意图'!F24='intent|意图'!F23,H26&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>502</v>
+      </c>
+      <c r="H28">
+        <f>IF('intent|意图'!F25='intent|意图'!F24,H27&amp;"*"&amp;'intent|意图'!D25,'intent|意图'!D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29">
+        <f>IF('intent|意图'!F26='intent|意图'!F25,H28&amp;"*"&amp;'intent|意图'!D26,'intent|意图'!D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3219,13 +3659,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3233,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3267,14 +3707,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="50" t="s">
-        <v>21</v>
+      <c r="E4" s="52" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3738,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="54" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="56" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -3308,29 +3748,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="53" customFormat="1" spans="1:5">
+    <row r="2" s="55" customFormat="1" spans="1:5">
       <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3341,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -3358,13 +3798,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1">
         <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3383,14 +3823,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:B8"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
-    <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
+    <col min="3" max="3" width="51.5" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3401,11 +3841,11 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
+      <c r="C1" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3413,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3429,10 +3869,10 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3443,62 +3883,70 @@
       <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="51" t="str">
+      <c r="C4" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="40" t="str">
         <f t="shared" ref="D4:D8" si="0">"enemy_"&amp;A4</f>
         <v>enemy_slime</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="str">
+      <c r="C5" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>enemy_flying_eye</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51" t="str">
+      <c r="B6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>enemy_goblin</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="str">
+      <c r="A7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="40" t="str">
         <f t="shared" si="0"/>
         <v>enemy_mushroom</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51" t="str">
+      <c r="A8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>enemy_skeleton</v>
       </c>
@@ -3513,247 +3961,728 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9.06666666666667" style="44"/>
-    <col min="4" max="4" width="62" customWidth="1"/>
-    <col min="5" max="5" width="67.125" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="9.06666666666667" style="44"/>
+    <col min="4" max="6" width="9.06666666666667" style="44"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="48">
-        <v>1</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="1">
+        <v>75</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="48">
+        <v>79</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="47">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="48">
+        <v>83</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="47">
         <v>3</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="48">
+        <v>87</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="47">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="48">
+        <v>91</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="47">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="48">
+        <v>95</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="47">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="48">
+        <v>99</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="47">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="48">
+        <v>103</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="47">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51">
+        <v>1</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="49">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51">
+        <v>1</v>
+      </c>
+      <c r="F13" s="51">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="49">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51">
+        <v>1</v>
+      </c>
+      <c r="F14" s="51">
+        <v>3</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51">
+        <v>1</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="49">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51">
+        <v>1</v>
+      </c>
+      <c r="F16" s="51">
+        <v>1</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="49">
+        <v>0</v>
+      </c>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51">
+        <v>1</v>
+      </c>
+      <c r="F17" s="51">
+        <v>3</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="49">
+        <v>0</v>
+      </c>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51">
+        <v>1</v>
+      </c>
+      <c r="F18" s="51">
+        <v>0</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="49">
+        <v>0</v>
+      </c>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51">
+        <v>1</v>
+      </c>
+      <c r="F19" s="51">
+        <v>1</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="49">
+        <v>0</v>
+      </c>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51">
+        <v>1</v>
+      </c>
+      <c r="F20" s="51">
+        <v>3</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="49">
+        <v>0</v>
+      </c>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51">
+        <v>1</v>
+      </c>
+      <c r="F21" s="51">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="49">
+        <v>0</v>
+      </c>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51">
+        <v>1</v>
+      </c>
+      <c r="F22" s="51">
+        <v>1</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51">
+        <v>1</v>
+      </c>
+      <c r="F23" s="51">
+        <v>3</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="49">
+        <v>0</v>
+      </c>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51">
+        <v>1</v>
+      </c>
+      <c r="F24" s="51">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="49">
+        <v>0</v>
+      </c>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51">
+        <v>1</v>
+      </c>
+      <c r="F25" s="51">
+        <v>1</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="49">
+        <v>0</v>
+      </c>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51">
+        <v>1</v>
+      </c>
+      <c r="F26" s="51">
+        <v>3</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="49">
+        <v>0</v>
+      </c>
+      <c r="J26" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3786,28 +4715,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:9">
@@ -3815,28 +4744,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3856,7 +4785,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>11</v>
@@ -3865,15 +4794,15 @@
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -3882,27 +4811,27 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -3911,27 +4840,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -3940,19 +4869,19 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3985,22 +4914,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -4011,25 +4940,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4052,7 +4981,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>10</v>
@@ -4060,11 +4989,11 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -4079,16 +5008,16 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -4103,16 +5032,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4127,16 +5056,16 @@
         <v>8</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="40" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4148,21 +5077,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -4177,18 +5106,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4203,18 +5132,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4229,18 +5158,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -4255,18 +5184,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -4281,18 +5210,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -4307,18 +5236,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -4333,18 +5262,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -4359,18 +5288,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -4385,7 +5314,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4415,22 +5344,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4438,22 +5367,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4464,16 +5393,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>10</v>
@@ -4481,10 +5410,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -4499,15 +5428,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -4522,15 +5451,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -4545,15 +5474,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -4568,12 +5497,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -4591,15 +5520,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -4614,15 +5543,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -4637,15 +5566,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -4660,15 +5589,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -4683,15 +5612,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -4706,15 +5635,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -4729,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4757,67 +5686,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4829,82 +5758,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -4995,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -5050,17 +5979,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="55" t="s">
-        <v>263</v>
+      <c r="X4" s="57" t="s">
+        <v>322</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5068,7 +5997,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5124,16 +6053,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5141,7 +6070,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -5197,16 +6126,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5214,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -5270,16 +6199,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5287,7 +6216,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -5343,16 +6272,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5360,7 +6289,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>341</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -5416,16 +6345,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5433,7 +6362,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -5489,16 +6418,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5506,7 +6435,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -5562,16 +6491,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5579,7 +6508,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -5635,16 +6564,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>300</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5652,7 +6581,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -5708,16 +6637,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>293</v>
+        <v>352</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5725,7 +6654,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -5781,16 +6710,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5798,7 +6727,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -5854,16 +6783,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -5871,7 +6800,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -5927,16 +6856,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -5944,7 +6873,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -6000,16 +6929,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6017,7 +6946,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -6073,16 +7002,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6090,7 +7019,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -6146,16 +7075,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6163,7 +7092,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -6219,16 +7148,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6236,7 +7165,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -6292,16 +7221,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6309,7 +7238,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -6365,16 +7294,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6382,7 +7311,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -6438,16 +7367,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6455,7 +7384,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -6511,16 +7440,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6528,7 +7457,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -6584,16 +7513,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6601,7 +7530,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -6657,16 +7586,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6674,7 +7603,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -6730,16 +7659,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6747,7 +7676,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -6803,16 +7732,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6820,7 +7749,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -6876,16 +7805,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -6893,7 +7822,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -6949,16 +7878,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -6966,7 +7895,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -7022,16 +7951,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7039,7 +7968,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -7095,16 +8024,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7112,7 +8041,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -7168,16 +8097,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7185,7 +8114,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -7241,16 +8170,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7258,7 +8187,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -7314,16 +8243,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7331,7 +8260,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -7387,16 +8316,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7404,7 +8333,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -7460,16 +8389,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7477,7 +8406,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -7533,16 +8462,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7550,7 +8479,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -7606,16 +8535,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7623,7 +8552,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -7679,16 +8608,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7696,7 +8625,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7752,16 +8681,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
     <sheet name="combat|战斗" sheetId="31" r:id="rId2"/>
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId3"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId4"/>
-    <sheet name="intent|意图" sheetId="38" r:id="rId5"/>
-    <sheet name="card|卡牌" sheetId="29" r:id="rId6"/>
+    <sheet name="card|卡牌" sheetId="29" r:id="rId5"/>
+    <sheet name="intent|意图" sheetId="38" r:id="rId6"/>
     <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId7"/>
     <sheet name="attribute|属性" sheetId="35" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="515">
   <si>
     <t>ID</t>
   </si>
@@ -209,304 +209,19 @@
     <t>heavy_strike*bone_shield*summon_assistance</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>des</t>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>card_type</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>card_description</t>
   </si>
   <si>
     <t>icon</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>func</t>
-  </si>
-  <si>
-    <t>所属(注释）</t>
-  </si>
-  <si>
-    <t>意图名</t>
-  </si>
-  <si>
-    <t>意图类型</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>意图描述</t>
-  </si>
-  <si>
-    <t>意图图标</t>
-  </si>
-  <si>
-    <t>意图值</t>
-  </si>
-  <si>
-    <t>意图方法</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>ATTACK</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>敌人打算进行攻击。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Spells/poison_dagger.png</t>
-  </si>
-  <si>
-    <t>MULTI_ATTACK</t>
-  </si>
-  <si>
-    <t>多重攻击</t>
-  </si>
-  <si>
-    <t>敌人计划多次攻击。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Spells/thorn_vine_spell.png</t>
-  </si>
-  <si>
-    <t>DEFEND</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>敌人将增加防御力</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Spells/healing_spell.png</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>强化</t>
-  </si>
-  <si>
-    <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Debuffs/on_fire_(burning).png</t>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-  </si>
-  <si>
-    <t>弱化</t>
-  </si>
-  <si>
-    <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Debuffs/disarmed.png</t>
-  </si>
-  <si>
-    <t>HEAL</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>敌人会恢复一定量的生命值。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/lucky_boost.png</t>
-  </si>
-  <si>
-    <t>STRATEGY</t>
-  </si>
-  <si>
-    <t>策略</t>
-  </si>
-  <si>
-    <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Debuffs/confused.png</t>
-  </si>
-  <si>
-    <t>ESCAPE</t>
-  </si>
-  <si>
-    <t>逃跑</t>
-  </si>
-  <si>
-    <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
-    <t>分裂</t>
-  </si>
-  <si>
-    <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
-  </si>
-  <si>
-    <t>absorb</t>
-  </si>
-  <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
-  </si>
-  <si>
-    <t>entangle</t>
-  </si>
-  <si>
-    <t>缠绕</t>
-  </si>
-  <si>
-    <t>降低玩家下一回合的行动点数。</t>
-  </si>
-  <si>
-    <t>destruction_ray</t>
-  </si>
-  <si>
-    <t>破坏射线</t>
-  </si>
-  <si>
-    <t>对玩家造成魔法伤害。</t>
-  </si>
-  <si>
-    <t>curse_gaze</t>
-  </si>
-  <si>
-    <t>诅咒凝视</t>
-  </si>
-  <si>
-    <t>使玩家在下一回合内受到的伤害增加。</t>
-  </si>
-  <si>
-    <t>magic_shield</t>
-  </si>
-  <si>
-    <t>魔法护盾</t>
-  </si>
-  <si>
-    <t>为自己添加一层护盾，抵挡一定量的伤害。</t>
-  </si>
-  <si>
-    <t>sprint_stab</t>
-  </si>
-  <si>
-    <t>疾跑刺击</t>
-  </si>
-  <si>
-    <t>快速冲刺并对玩家造成物理伤害。</t>
-  </si>
-  <si>
-    <t>set_trap</t>
-  </si>
-  <si>
-    <t>布置陷阱</t>
-  </si>
-  <si>
-    <t>下一回合对玩家造成额外伤害。</t>
-  </si>
-  <si>
-    <t>sneak_attack</t>
-  </si>
-  <si>
-    <t>偷袭</t>
-  </si>
-  <si>
-    <t>如果玩家生命值低，造成额外伤害。</t>
-  </si>
-  <si>
-    <t>toxin_spray</t>
-  </si>
-  <si>
-    <t>毒素喷射</t>
-  </si>
-  <si>
-    <t>造成持续性的毒素伤害。</t>
-  </si>
-  <si>
-    <t>healing_spore</t>
-  </si>
-  <si>
-    <t>治疗孢子</t>
-  </si>
-  <si>
-    <t>为自己或其他敌人恢复生命值。</t>
-  </si>
-  <si>
-    <t>hallucinogenic_spore</t>
-  </si>
-  <si>
-    <t>迷幻孢子</t>
-  </si>
-  <si>
-    <t>使玩家在下一回合内混乱，随机选择行动。</t>
-  </si>
-  <si>
-    <t>heavy_strike</t>
-  </si>
-  <si>
-    <t>重击</t>
-  </si>
-  <si>
-    <t>用锋利的武器对玩家造成大量伤害。</t>
-  </si>
-  <si>
-    <t>bone_shield</t>
-  </si>
-  <si>
-    <t>骨盾</t>
-  </si>
-  <si>
-    <t>提高自己的防御力，减少受到的伤害。</t>
-  </si>
-  <si>
-    <t>summon_assistance</t>
-  </si>
-  <si>
-    <t>召唤援助</t>
-  </si>
-  <si>
-    <t>召唤另一个骷髅怪加入战斗</t>
-  </si>
-  <si>
-    <t>card_name</t>
-  </si>
-  <si>
-    <t>card_type</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>card_description</t>
   </si>
   <si>
     <t>target_type</t>
@@ -547,6 +262,9 @@
     <t>效果ID列表</t>
   </si>
   <si>
+    <t>texture</t>
+  </si>
+  <si>
     <t>strike</t>
   </si>
   <si>
@@ -565,6 +283,9 @@
     <t>defense</t>
   </si>
   <si>
+    <t>防御</t>
+  </si>
+  <si>
     <t>获得5点护甲</t>
   </si>
   <si>
@@ -590,6 +311,282 @@
   </si>
   <si>
     <t>trounce_01*trounce_02</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>所属(注释）</t>
+  </si>
+  <si>
+    <t>意图名</t>
+  </si>
+  <si>
+    <t>意图类型</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>意图描述</t>
+  </si>
+  <si>
+    <t>意图图标</t>
+  </si>
+  <si>
+    <t>意图值</t>
+  </si>
+  <si>
+    <t>意图方法</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>敌人打算进行攻击。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Spells/poison_dagger.png</t>
+  </si>
+  <si>
+    <t>MULTI_ATTACK</t>
+  </si>
+  <si>
+    <t>多重攻击</t>
+  </si>
+  <si>
+    <t>敌人计划多次攻击。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Spells/thorn_vine_spell.png</t>
+  </si>
+  <si>
+    <t>DEFEND</t>
+  </si>
+  <si>
+    <t>敌人将增加防御力</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Spells/healing_spell.png</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
+    <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Debuffs/on_fire_(burning).png</t>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+  </si>
+  <si>
+    <t>弱化</t>
+  </si>
+  <si>
+    <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Debuffs/disarmed.png</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>敌人会恢复一定量的生命值。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/lucky_boost.png</t>
+  </si>
+  <si>
+    <t>STRATEGY</t>
+  </si>
+  <si>
+    <t>策略</t>
+  </si>
+  <si>
+    <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Debuffs/confused.png</t>
+  </si>
+  <si>
+    <t>ESCAPE</t>
+  </si>
+  <si>
+    <t>逃跑</t>
+  </si>
+  <si>
+    <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
+  </si>
+  <si>
+    <t>entangle</t>
+  </si>
+  <si>
+    <t>缠绕</t>
+  </si>
+  <si>
+    <t>降低玩家下一回合的行动点数。</t>
+  </si>
+  <si>
+    <t>destruction_ray</t>
+  </si>
+  <si>
+    <t>破坏射线</t>
+  </si>
+  <si>
+    <t>对玩家造成魔法伤害。</t>
+  </si>
+  <si>
+    <t>curse_gaze</t>
+  </si>
+  <si>
+    <t>诅咒凝视</t>
+  </si>
+  <si>
+    <t>使玩家在下一回合内受到的伤害增加。</t>
+  </si>
+  <si>
+    <t>magic_shield</t>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+  </si>
+  <si>
+    <t>为自己添加一层护盾，抵挡一定量的伤害。</t>
+  </si>
+  <si>
+    <t>sprint_stab</t>
+  </si>
+  <si>
+    <t>疾跑刺击</t>
+  </si>
+  <si>
+    <t>快速冲刺并对玩家造成物理伤害。</t>
+  </si>
+  <si>
+    <t>set_trap</t>
+  </si>
+  <si>
+    <t>布置陷阱</t>
+  </si>
+  <si>
+    <t>下一回合对玩家造成额外伤害。</t>
+  </si>
+  <si>
+    <t>sneak_attack</t>
+  </si>
+  <si>
+    <t>偷袭</t>
+  </si>
+  <si>
+    <t>如果玩家生命值低，造成额外伤害。</t>
+  </si>
+  <si>
+    <t>toxin_spray</t>
+  </si>
+  <si>
+    <t>毒素喷射</t>
+  </si>
+  <si>
+    <t>造成持续性的毒素伤害。</t>
+  </si>
+  <si>
+    <t>healing_spore</t>
+  </si>
+  <si>
+    <t>治疗孢子</t>
+  </si>
+  <si>
+    <t>为自己或其他敌人恢复生命值。</t>
+  </si>
+  <si>
+    <t>hallucinogenic_spore</t>
+  </si>
+  <si>
+    <t>迷幻孢子</t>
+  </si>
+  <si>
+    <t>玩家获得“混乱”卡牌。</t>
+  </si>
+  <si>
+    <t>heavy_strike</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
+    <t>用锋利的武器对玩家造成大量伤害。</t>
+  </si>
+  <si>
+    <t>bone_shield</t>
+  </si>
+  <si>
+    <t>骨盾</t>
+  </si>
+  <si>
+    <t>summon_assistance</t>
+  </si>
+  <si>
+    <t>召唤援助</t>
+  </si>
+  <si>
+    <t>召唤另一个骷髅怪加入战斗</t>
   </si>
   <si>
     <t>注释</t>
@@ -764,6 +761,45 @@
     <t>目标在下一回合无法行动。</t>
   </si>
   <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>减少玩家下一回合的行动点数。</t>
+  </si>
+  <si>
+    <t>减少行动点数</t>
+  </si>
+  <si>
+    <t>对玩家造成10点伤害</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>获得护盾</t>
+  </si>
+  <si>
+    <t>对玩家造成12点伤害</t>
+  </si>
+  <si>
+    <t>蓄力一回合，下一回合对玩家造成双倍伤害</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>放毒</t>
+  </si>
+  <si>
+    <t>所有人恢复10点生命值。</t>
+  </si>
+  <si>
+    <t>给与卡牌</t>
+  </si>
+  <si>
+    <t>造成15点伤害</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -963,9 +999,6 @@
   </si>
   <si>
     <t>生命窃取</t>
-  </si>
-  <si>
-    <t>伤害</t>
   </si>
   <si>
     <t>近战伤害</t>
@@ -1687,7 +1720,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,6 +1755,13 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1868,7 +1908,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,6 +1924,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2542,76 +2594,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2620,10 +2666,10 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2632,10 +2678,10 @@
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2644,10 +2690,10 @@
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2656,10 +2702,10 @@
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2668,11 +2714,17 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2796,47 +2848,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3198,7 +3274,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3224,13 +3300,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -3292,10 +3368,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
@@ -3309,10 +3385,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1">
@@ -3326,10 +3402,10 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="40" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1">
@@ -3343,10 +3419,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1">
@@ -3378,7 +3454,7 @@
   <sheetData>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3390,7 +3466,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3406,7 +3482,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3425,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3433,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3441,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3449,16 +3525,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3466,16 +3542,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="F16" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="6:9">
@@ -3483,35 +3559,35 @@
         <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="I18" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="I19" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -3525,7 +3601,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="H21">
         <f>IF('intent|意图'!F18='intent|意图'!F17,H20&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
@@ -3534,7 +3610,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H22">
         <f>IF('intent|意图'!F19='intent|意图'!F18,H21&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
@@ -3552,7 +3628,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="H24">
         <f>IF('intent|意图'!F21='intent|意图'!F20,H23&amp;"*"&amp;'intent|意图'!D21,'intent|意图'!D21)</f>
@@ -3561,7 +3637,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H25">
         <f>IF('intent|意图'!F22='intent|意图'!F21,H24&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
@@ -3579,7 +3655,7 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="H27">
         <f>IF('intent|意图'!F24='intent|意图'!F23,H26&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
@@ -3588,7 +3664,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="H28">
         <f>IF('intent|意图'!F25='intent|意图'!F24,H27&amp;"*"&amp;'intent|意图'!D25,'intent|意图'!D25)</f>
@@ -3606,32 +3682,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3722,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -3713,7 +3789,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3738,7 +3814,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="56" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="64" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -3756,20 +3832,20 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="55" customFormat="1" spans="1:5">
-      <c r="A2" s="41" t="s">
+    <row r="2" s="63" customFormat="1" spans="1:5">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3823,7 +3899,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -3831,7 +3907,7 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
     <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3841,10 +3917,10 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3855,10 +3931,10 @@
       <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3869,10 +3945,10 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3883,7 +3959,7 @@
       <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="40" t="str">
@@ -3892,13 +3968,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="40" t="str">
@@ -3907,13 +3983,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="40" t="str">
@@ -3922,13 +3998,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="40" t="str">
@@ -3937,13 +4013,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="40" t="str">
@@ -3961,742 +4037,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="9.06666666666667" style="44"/>
-    <col min="4" max="6" width="9.06666666666667" style="44"/>
-    <col min="7" max="7" width="62" customWidth="1"/>
-    <col min="8" max="8" width="67.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8</v>
-      </c>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="47">
-        <v>2</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="47">
-        <v>3</v>
-      </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="47">
-        <v>4</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="47">
-        <v>5</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="47">
-        <v>6</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="47">
-        <v>7</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="47">
-        <v>8</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="52"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51">
-        <v>1</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="49">
-        <v>0</v>
-      </c>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51">
-        <v>1</v>
-      </c>
-      <c r="F13" s="51">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51">
-        <v>1</v>
-      </c>
-      <c r="F14" s="51">
-        <v>3</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51">
-        <v>1</v>
-      </c>
-      <c r="F15" s="51">
-        <v>0</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="49">
-        <v>0</v>
-      </c>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51">
-        <v>1</v>
-      </c>
-      <c r="F16" s="51">
-        <v>1</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="49">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51">
-        <v>1</v>
-      </c>
-      <c r="F17" s="51">
-        <v>3</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="49">
-        <v>0</v>
-      </c>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51">
-        <v>1</v>
-      </c>
-      <c r="F18" s="51">
-        <v>0</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="49">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51">
-        <v>1</v>
-      </c>
-      <c r="F19" s="51">
-        <v>1</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="49">
-        <v>0</v>
-      </c>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51">
-        <v>1</v>
-      </c>
-      <c r="F20" s="51">
-        <v>3</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="49">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51">
-        <v>1</v>
-      </c>
-      <c r="F21" s="51">
-        <v>0</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="50"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51">
-        <v>1</v>
-      </c>
-      <c r="F22" s="51">
-        <v>1</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="50"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51">
-        <v>1</v>
-      </c>
-      <c r="F23" s="51">
-        <v>3</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="50"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51">
-        <v>1</v>
-      </c>
-      <c r="F24" s="51">
-        <v>0</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="49">
-        <v>0</v>
-      </c>
-      <c r="J24" s="50"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51">
-        <v>1</v>
-      </c>
-      <c r="F25" s="51">
-        <v>1</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="49">
-        <v>0</v>
-      </c>
-      <c r="J25" s="50"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51">
-        <v>1</v>
-      </c>
-      <c r="F26" s="51">
-        <v>3</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="49">
-        <v>0</v>
-      </c>
-      <c r="J26" s="50"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4715,57 +4059,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:9">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>161</v>
+      <c r="B2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>166</v>
+        <v>67</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4785,7 +4129,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>11</v>
@@ -4799,10 +4143,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4811,27 +4155,27 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -4840,27 +4184,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -4869,23 +4213,755 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="9.06666666666667" style="54"/>
+    <col min="4" max="6" width="9.06666666666667" style="54"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="67.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="57">
+        <v>2</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="57">
+        <v>3</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="57">
+        <v>4</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="57">
+        <v>5</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="57">
+        <v>6</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="57">
+        <v>7</v>
+      </c>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="57">
+        <v>8</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58">
+        <v>1</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="61">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59">
+        <v>1</v>
+      </c>
+      <c r="F13" s="59">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59">
+        <v>1</v>
+      </c>
+      <c r="F14" s="59">
+        <v>3</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" s="53" customFormat="1" spans="1:10">
+      <c r="A15" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60">
+        <v>1</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="52">
+        <v>0</v>
+      </c>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" s="53" customFormat="1" spans="1:10">
+      <c r="A16" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60">
+        <v>1</v>
+      </c>
+      <c r="F16" s="60">
+        <v>1</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="52">
+        <v>0</v>
+      </c>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" s="53" customFormat="1" spans="1:10">
+      <c r="A17" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60">
+        <v>1</v>
+      </c>
+      <c r="F17" s="60">
+        <v>3</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0</v>
+      </c>
+      <c r="J17" s="52"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59">
+        <v>1</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="50">
+        <v>0</v>
+      </c>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59">
+        <v>1</v>
+      </c>
+      <c r="F19" s="59">
+        <v>1</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="50">
+        <v>0</v>
+      </c>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59">
+        <v>1</v>
+      </c>
+      <c r="F20" s="59">
+        <v>3</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="50">
+        <v>0</v>
+      </c>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59">
+        <v>1</v>
+      </c>
+      <c r="F21" s="59">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0</v>
+      </c>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59">
+        <v>1</v>
+      </c>
+      <c r="F22" s="59">
+        <v>1</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="50">
+        <v>0</v>
+      </c>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59">
+        <v>1</v>
+      </c>
+      <c r="F23" s="59">
+        <v>3</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="50">
+        <v>0</v>
+      </c>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59">
+        <v>1</v>
+      </c>
+      <c r="F24" s="59">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="50">
+        <v>0</v>
+      </c>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59">
+        <v>1</v>
+      </c>
+      <c r="F25" s="59">
+        <v>1</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="50">
+        <v>0</v>
+      </c>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" s="41" customFormat="1" spans="1:10">
+      <c r="A26" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58">
+        <v>1</v>
+      </c>
+      <c r="F26" s="58">
+        <v>3</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="61">
+        <v>0</v>
+      </c>
+      <c r="J26" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4893,18 +4969,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="71.2" customWidth="1"/>
   </cols>
@@ -4914,51 +4990,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:8">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4989,11 +5065,11 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -5008,16 +5084,16 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5032,66 +5108,66 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" s="41" customFormat="1" spans="1:8">
+      <c r="A6" s="44" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="40" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45">
+        <v>8</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="40" t="s">
+    </row>
+    <row r="7" s="41" customFormat="1" spans="1:8">
+      <c r="A7" s="44" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>3</v>
+      </c>
+      <c r="G7" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="44" t="s">
         <v>199</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -5106,18 +5182,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5132,18 +5208,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -5158,18 +5234,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -5184,18 +5260,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -5210,18 +5286,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -5236,18 +5312,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -5262,18 +5338,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -5288,18 +5364,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -5314,7 +5390,343 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="I19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="I23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="47" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5344,22 +5756,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5367,22 +5779,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5393,16 +5805,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>10</v>
@@ -5410,10 +5822,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -5428,15 +5840,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -5451,15 +5863,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -5474,15 +5886,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -5497,12 +5909,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -5520,15 +5932,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -5543,15 +5955,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -5566,15 +5978,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -5589,15 +6001,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -5612,15 +6024,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -5635,15 +6047,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -5658,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5686,67 +6098,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -5758,82 +6170,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -5924,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -5979,17 +6391,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="57" t="s">
-        <v>322</v>
+      <c r="X4" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5997,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -6053,16 +6465,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6070,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -6126,16 +6538,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6143,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -6199,16 +6611,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="Z7" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6216,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -6272,16 +6684,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6289,7 +6701,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -6345,16 +6757,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6362,7 +6774,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -6418,16 +6830,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -6435,7 +6847,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -6491,16 +6903,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -6508,7 +6920,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -6564,16 +6976,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -6581,7 +6993,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -6637,16 +7049,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -6654,7 +7066,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -6710,16 +7122,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -6727,7 +7139,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -6783,16 +7195,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6800,7 +7212,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -6856,16 +7268,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6873,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -6929,16 +7341,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6946,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -7002,16 +7414,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -7019,7 +7431,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -7075,16 +7487,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -7092,7 +7504,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -7148,16 +7560,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -7165,7 +7577,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -7221,16 +7633,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -7238,7 +7650,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -7294,16 +7706,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -7311,7 +7723,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -7367,16 +7779,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -7384,7 +7796,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -7440,16 +7852,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -7457,7 +7869,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -7513,16 +7925,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -7530,7 +7942,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -7586,16 +7998,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -7603,7 +8015,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -7659,16 +8071,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -7676,7 +8088,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -7732,16 +8144,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -7749,7 +8161,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -7805,16 +8217,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7822,7 +8234,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -7878,16 +8290,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7895,7 +8307,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -7951,16 +8363,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7968,7 +8380,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -8024,16 +8436,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -8041,7 +8453,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -8097,16 +8509,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -8114,7 +8526,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -8170,16 +8582,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -8187,7 +8599,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -8243,16 +8655,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -8260,7 +8672,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -8316,16 +8728,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -8333,7 +8745,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -8389,16 +8801,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -8406,7 +8818,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -8462,16 +8874,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -8479,7 +8891,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -8535,16 +8947,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -8552,7 +8964,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -8608,16 +9020,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -8625,7 +9037,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -8681,16 +9093,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId3"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId4"/>
     <sheet name="card|卡牌" sheetId="29" r:id="rId5"/>
-    <sheet name="buff|增益" sheetId="39" r:id="rId6"/>
-    <sheet name="intent|意图" sheetId="38" r:id="rId7"/>
+    <sheet name="intent|意图" sheetId="38" r:id="rId6"/>
+    <sheet name="buff|增益" sheetId="39" r:id="rId7"/>
     <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId8"/>
     <sheet name="attribute|属性" sheetId="35" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="548">
   <si>
     <t>ID</t>
   </si>
@@ -326,21 +326,353 @@
     <t>vulnerable</t>
   </si>
   <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>所属(注释）</t>
+  </si>
+  <si>
+    <t>意图名</t>
+  </si>
+  <si>
+    <t>意图类型</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>意图描述</t>
+  </si>
+  <si>
+    <t>意图图标</t>
+  </si>
+  <si>
+    <t>意图值</t>
+  </si>
+  <si>
+    <t>意图方法</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>敌人打算进行攻击。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/poison_dagger.png</t>
+  </si>
+  <si>
+    <t>MULTI_ATTACK</t>
+  </si>
+  <si>
+    <t>多重攻击</t>
+  </si>
+  <si>
+    <t>敌人计划多次攻击。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/thorn_vine_spell.png</t>
+  </si>
+  <si>
+    <t>DEFEND</t>
+  </si>
+  <si>
+    <t>敌人将增加防御力</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/healing_spell.png</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
+    <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/on_fire_(burning).png</t>
+  </si>
+  <si>
+    <t>DEBUFF</t>
+  </si>
+  <si>
+    <t>弱化</t>
+  </si>
+  <si>
+    <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/disarmed.png</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>敌人会恢复一定量的生命值。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/lucky_boost.png</t>
+  </si>
+  <si>
+    <t>STRATEGY</t>
+  </si>
+  <si>
+    <t>策略</t>
+  </si>
+  <si>
+    <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/confused.png</t>
+  </si>
+  <si>
+    <t>ESCAPE</t>
+  </si>
+  <si>
+    <t>逃跑</t>
+  </si>
+  <si>
+    <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>脆弱</t>
+  </si>
+  <si>
+    <t>目标下一回合获得的护甲值降低25%</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/summoning_spell.png</t>
+  </si>
+  <si>
+    <t>entangle</t>
+  </si>
+  <si>
+    <t>缠绕</t>
+  </si>
+  <si>
+    <t>降低玩家下一回合的行动点数。</t>
+  </si>
+  <si>
+    <t>toxin_spray</t>
+  </si>
+  <si>
+    <t>毒素喷射</t>
+  </si>
+  <si>
+    <t>造成持续性的毒素伤害。</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/poisoned.png</t>
+  </si>
+  <si>
+    <t>healing_spore</t>
+  </si>
+  <si>
+    <t>治疗孢子</t>
+  </si>
+  <si>
+    <t>为自己或其他敌人恢复生命值。</t>
+  </si>
+  <si>
+    <t>hallucinogenic_spore</t>
+  </si>
+  <si>
+    <t>迷幻孢子</t>
+  </si>
+  <si>
+    <t>玩家获得“混乱”卡牌。</t>
+  </si>
+  <si>
+    <t>destruction_ray</t>
+  </si>
+  <si>
+    <t>破坏射线</t>
+  </si>
+  <si>
+    <t>对玩家造成魔法伤害。</t>
+  </si>
+  <si>
+    <t>curse_gaze</t>
+  </si>
+  <si>
+    <t>诅咒凝视</t>
+  </si>
+  <si>
+    <t>使玩家在下一回合内受到的伤害增加。</t>
+  </si>
+  <si>
+    <t>magic_shield</t>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+  </si>
+  <si>
+    <t>为自己添加一层护盾，抵挡一定量的伤害。</t>
+  </si>
+  <si>
+    <t>sprint_stab</t>
+  </si>
+  <si>
+    <t>疾跑刺击</t>
+  </si>
+  <si>
+    <t>快速冲刺并对玩家造成物理伤害。</t>
+  </si>
+  <si>
+    <t>set_trap</t>
+  </si>
+  <si>
+    <t>布置陷阱</t>
+  </si>
+  <si>
+    <t>下一回合对玩家造成额外伤害。</t>
+  </si>
+  <si>
+    <t>sneak_attack</t>
+  </si>
+  <si>
+    <t>偷袭</t>
+  </si>
+  <si>
+    <t>如果玩家生命值低，造成额外伤害。</t>
+  </si>
+  <si>
+    <t>heavy_strike</t>
+  </si>
+  <si>
+    <t>重击</t>
+  </si>
+  <si>
+    <t>用锋利的武器对玩家造成大量伤害。</t>
+  </si>
+  <si>
+    <t>bone_shield</t>
+  </si>
+  <si>
+    <t>骨盾</t>
+  </si>
+  <si>
+    <t>summon_assistance</t>
+  </si>
+  <si>
+    <t>召唤援助</t>
+  </si>
+  <si>
+    <t>召唤另一个骷髅怪加入战斗</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>效果名</t>
   </si>
   <si>
+    <t>持续类型
+1永久
+2持续回合</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
     <t>格挡</t>
   </si>
   <si>
     <t>持续到下一个回合开始之前，格挡伤害</t>
   </si>
   <si>
+    <t>res://asserts/textures/widgets/Buffs/fortify_spell.png</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>增加角色攻击卡牌造成的伤害</t>
+  </si>
+  <si>
+    <t>dexterity</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>增加每次或格挡时的格挡量</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
+    <t>每回合结束时恢复一定量的生命值</t>
+  </si>
+  <si>
     <t>易伤</t>
   </si>
   <si>
     <t>使目标收到的攻击伤害增加</t>
   </si>
   <si>
+    <t>VULNERABLE</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/defense_down.png</t>
+  </si>
+  <si>
     <t>weak</t>
   </si>
   <si>
@@ -359,304 +691,25 @@
     <t>每个回合结束时，根据层数对目标造成伤害</t>
   </si>
   <si>
+    <t>frail</t>
+  </si>
+  <si>
+    <t>摧残</t>
+  </si>
+  <si>
+    <t>减少从所有来源获得的格挡值</t>
+  </si>
+  <si>
     <t>entangled</t>
   </si>
   <si>
-    <t>缠绕</t>
-  </si>
-  <si>
     <t>目标在下一个回合无法攻击</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>des</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>func</t>
-  </si>
-  <si>
-    <t>所属(注释）</t>
-  </si>
-  <si>
-    <t>意图名</t>
-  </si>
-  <si>
-    <t>意图类型</t>
-  </si>
-  <si>
-    <t>权重</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>意图描述</t>
-  </si>
-  <si>
-    <t>意图图标</t>
-  </si>
-  <si>
-    <t>意图值</t>
-  </si>
-  <si>
-    <t>意图方法</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>ATTACK</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>敌人打算进行攻击。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/poison_dagger.png</t>
-  </si>
-  <si>
-    <t>MULTI_ATTACK</t>
-  </si>
-  <si>
-    <t>多重攻击</t>
-  </si>
-  <si>
-    <t>敌人计划多次攻击。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/thorn_vine_spell.png</t>
-  </si>
-  <si>
-    <t>DEFEND</t>
-  </si>
-  <si>
-    <t>敌人将增加防御力</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/healing_spell.png</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>强化</t>
-  </si>
-  <si>
-    <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/on_fire_(burning).png</t>
-  </si>
-  <si>
-    <t>DEBUFF</t>
-  </si>
-  <si>
-    <t>弱化</t>
-  </si>
-  <si>
-    <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/disarmed.png</t>
-  </si>
-  <si>
-    <t>HEAL</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>敌人会恢复一定量的生命值。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/lucky_boost.png</t>
-  </si>
-  <si>
-    <t>STRATEGY</t>
-  </si>
-  <si>
-    <t>策略</t>
-  </si>
-  <si>
-    <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/confused.png</t>
-  </si>
-  <si>
-    <t>ESCAPE</t>
-  </si>
-  <si>
-    <t>逃跑</t>
-  </si>
-  <si>
-    <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
-    <t>脆弱</t>
-  </si>
-  <si>
-    <t>目标下一回合获得的护甲值降低25%</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
-  </si>
-  <si>
-    <t>absorb</t>
-  </si>
-  <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/summoning_spell.png</t>
-  </si>
-  <si>
-    <t>entangle</t>
-  </si>
-  <si>
-    <t>降低玩家下一回合的行动点数。</t>
-  </si>
-  <si>
-    <t>toxin_spray</t>
-  </si>
-  <si>
-    <t>毒素喷射</t>
-  </si>
-  <si>
-    <t>造成持续性的毒素伤害。</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/poisoned.png</t>
-  </si>
-  <si>
-    <t>healing_spore</t>
-  </si>
-  <si>
-    <t>治疗孢子</t>
-  </si>
-  <si>
-    <t>为自己或其他敌人恢复生命值。</t>
-  </si>
-  <si>
-    <t>hallucinogenic_spore</t>
-  </si>
-  <si>
-    <t>迷幻孢子</t>
-  </si>
-  <si>
-    <t>玩家获得“混乱”卡牌。</t>
-  </si>
-  <si>
-    <t>destruction_ray</t>
-  </si>
-  <si>
-    <t>破坏射线</t>
-  </si>
-  <si>
-    <t>对玩家造成魔法伤害。</t>
-  </si>
-  <si>
-    <t>curse_gaze</t>
-  </si>
-  <si>
-    <t>诅咒凝视</t>
-  </si>
-  <si>
-    <t>使玩家在下一回合内受到的伤害增加。</t>
-  </si>
-  <si>
-    <t>magic_shield</t>
-  </si>
-  <si>
-    <t>魔法护盾</t>
-  </si>
-  <si>
-    <t>为自己添加一层护盾，抵挡一定量的伤害。</t>
-  </si>
-  <si>
-    <t>sprint_stab</t>
-  </si>
-  <si>
-    <t>疾跑刺击</t>
-  </si>
-  <si>
-    <t>快速冲刺并对玩家造成物理伤害。</t>
-  </si>
-  <si>
-    <t>set_trap</t>
-  </si>
-  <si>
-    <t>布置陷阱</t>
-  </si>
-  <si>
-    <t>下一回合对玩家造成额外伤害。</t>
-  </si>
-  <si>
-    <t>sneak_attack</t>
-  </si>
-  <si>
-    <t>偷袭</t>
-  </si>
-  <si>
-    <t>如果玩家生命值低，造成额外伤害。</t>
-  </si>
-  <si>
-    <t>heavy_strike</t>
-  </si>
-  <si>
-    <t>重击</t>
-  </si>
-  <si>
-    <t>用锋利的武器对玩家造成大量伤害。</t>
-  </si>
-  <si>
-    <t>bone_shield</t>
-  </si>
-  <si>
-    <t>骨盾</t>
-  </si>
-  <si>
-    <t>summon_assistance</t>
-  </si>
-  <si>
-    <t>召唤援助</t>
-  </si>
-  <si>
-    <t>召唤另一个骷髅怪加入战斗</t>
-  </si>
-  <si>
     <t>注释</t>
   </si>
   <si>
     <t>effect_name</t>
-  </si>
-  <si>
-    <t>duration</t>
   </si>
   <si>
     <t>effect_type</t>
@@ -714,15 +767,12 @@
     <t>给予易伤</t>
   </si>
   <si>
-    <t>VULNERABLE*2</t>
+    <t>vulnerable*2</t>
   </si>
   <si>
     <t>给与2层易伤</t>
   </si>
   <si>
-    <t>VULNERABLE</t>
-  </si>
-  <si>
     <t>易伤（Vulnerable）</t>
   </si>
   <si>
@@ -774,9 +824,6 @@
     <t>再生（Regenerating）</t>
   </si>
   <si>
-    <t>再生</t>
-  </si>
-  <si>
     <t>目标每回合恢复5生命值。</t>
   </si>
   <si>
@@ -960,16 +1007,10 @@
     <t>Strength</t>
   </si>
   <si>
-    <t>力量</t>
-  </si>
-  <si>
     <t>增加角色攻击力的强化值</t>
   </si>
   <si>
     <t>Dexterity</t>
-  </si>
-  <si>
-    <t>敏捷</t>
   </si>
   <si>
     <t>影响角色行动速度或攻击速度的属性</t>
@@ -1996,13 +2037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2791,7 +2832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2942,22 +2983,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2966,9 +3028,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,20 +3037,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3353,7 +3403,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3539,67 +3589,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3611,82 +3661,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3777,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3832,17 +3882,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="69" t="s">
-        <v>353</v>
+      <c r="X4" s="72" t="s">
+        <v>366</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3850,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -3906,16 +3956,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3923,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -3979,16 +4029,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -3996,7 +4046,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4052,16 +4102,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4069,7 +4119,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4125,16 +4175,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4142,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4198,16 +4248,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4215,7 +4265,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4271,16 +4321,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4288,7 +4338,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4344,16 +4394,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4361,7 +4411,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4417,16 +4467,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4434,7 +4484,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4490,16 +4540,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4507,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4563,16 +4613,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4580,7 +4630,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4636,16 +4686,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4653,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4709,16 +4759,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4726,7 +4776,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4782,16 +4832,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4799,7 +4849,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4855,16 +4905,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4872,7 +4922,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -4928,16 +4978,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4945,7 +4995,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5001,16 +5051,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5018,7 +5068,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5074,16 +5124,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5091,7 +5141,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5147,16 +5197,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5164,7 +5214,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5220,16 +5270,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5237,7 +5287,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5293,16 +5343,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5310,7 +5360,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5366,16 +5416,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5383,7 +5433,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5439,16 +5489,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5456,7 +5506,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5512,16 +5562,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5529,7 +5579,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5585,16 +5635,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5602,7 +5652,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5658,16 +5708,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5675,7 +5725,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5731,16 +5781,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5748,7 +5798,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5804,16 +5854,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5821,7 +5871,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5877,16 +5927,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5894,7 +5944,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -5950,16 +6000,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -5967,7 +6017,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6023,16 +6073,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6040,7 +6090,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6096,16 +6146,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6113,7 +6163,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6169,16 +6219,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6186,7 +6236,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6242,16 +6292,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6259,7 +6309,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6315,16 +6365,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6332,7 +6382,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6388,16 +6438,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6405,7 +6455,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6461,16 +6511,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6478,7 +6528,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6534,16 +6584,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6612,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6620,7 +6670,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6628,7 +6678,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6636,16 +6686,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6653,16 +6703,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F16" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="6:9">
@@ -6670,35 +6720,35 @@
         <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="I17" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -6712,7 +6762,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H21">
         <f>IF('intent|意图'!F21='intent|意图'!F20,H20&amp;"*"&amp;'intent|意图'!D21,'intent|意图'!D21)</f>
@@ -6721,7 +6771,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="H22">
         <f>IF('intent|意图'!F22='intent|意图'!F21,H21&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
@@ -6739,7 +6789,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H24">
         <f>IF('intent|意图'!F15='intent|意图'!F23,H23&amp;"*"&amp;'intent|意图'!D15,'intent|意图'!D15)</f>
@@ -6748,7 +6798,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="H25">
         <f>IF('intent|意图'!F16='intent|意图'!F15,H24&amp;"*"&amp;'intent|意图'!D16,'intent|意图'!D16)</f>
@@ -6766,7 +6816,7 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H27">
         <f>IF('intent|意图'!F24='intent|意图'!F17,H26&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
@@ -6775,7 +6825,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H28">
         <f>IF('intent|意图'!F25='intent|意图'!F24,H27&amp;"*"&amp;'intent|意图'!D25,'intent|意图'!D25)</f>
@@ -6793,32 +6843,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -6925,7 +6975,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="68" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="71" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -6943,7 +6993,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="67" customFormat="1" spans="1:5">
+    <row r="2" s="70" customFormat="1" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
@@ -7151,7 +7201,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7223,7 +7273,7 @@
       <c r="H2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="57" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="21" t="s">
@@ -7319,7 +7369,7 @@
       <c r="I5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7351,7 +7401,7 @@
       <c r="I6" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7364,108 +7414,731 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="9.06666666666667" style="63"/>
+    <col min="4" max="6" width="9.06666666666667" style="63"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="65">
+        <v>2</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="65">
+        <v>3</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="65">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="43" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="65">
         <v>5</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>106</v>
-      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="65">
+        <v>6</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="65">
+        <v>7</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="65">
+        <v>8</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66">
+        <v>1</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="47">
+        <v>0</v>
+      </c>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67">
+        <v>1</v>
+      </c>
+      <c r="F13" s="67">
+        <v>1</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="49">
+        <v>0</v>
+      </c>
+      <c r="J13" s="49"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67">
+        <v>1</v>
+      </c>
+      <c r="F14" s="67">
+        <v>3</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0</v>
+      </c>
+      <c r="J14" s="49"/>
+    </row>
+    <row r="15" s="42" customFormat="1" spans="1:10">
+      <c r="A15" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68">
+        <v>1</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" s="42" customFormat="1" spans="1:10">
+      <c r="A16" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="68">
+        <v>1</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="51">
+        <v>0</v>
+      </c>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" s="42" customFormat="1" spans="1:10">
+      <c r="A17" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68">
+        <v>1</v>
+      </c>
+      <c r="F17" s="68">
+        <v>3</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="51">
+        <v>0</v>
+      </c>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" s="62" customFormat="1" spans="1:10">
+      <c r="A18" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69">
+        <v>1</v>
+      </c>
+      <c r="F18" s="69">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="53">
+        <v>0</v>
+      </c>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" s="62" customFormat="1" spans="1:10">
+      <c r="A19" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69">
+        <v>1</v>
+      </c>
+      <c r="F19" s="69">
+        <v>1</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="53">
+        <v>0</v>
+      </c>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" s="62" customFormat="1" spans="1:10">
+      <c r="A20" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69">
+        <v>1</v>
+      </c>
+      <c r="F20" s="69">
+        <v>3</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="53">
+        <v>0</v>
+      </c>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67">
+        <v>1</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="49">
+        <v>0</v>
+      </c>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67">
+        <v>1</v>
+      </c>
+      <c r="F22" s="67">
+        <v>1</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="49">
+        <v>0</v>
+      </c>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67">
+        <v>1</v>
+      </c>
+      <c r="F23" s="67">
+        <v>3</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="49">
+        <v>0</v>
+      </c>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67">
+        <v>1</v>
+      </c>
+      <c r="F24" s="67">
+        <v>0</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="49">
+        <v>0</v>
+      </c>
+      <c r="J24" s="49"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67">
+        <v>1</v>
+      </c>
+      <c r="F25" s="67">
+        <v>1</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="49">
+        <v>0</v>
+      </c>
+      <c r="J25" s="49"/>
+    </row>
+    <row r="26" s="41" customFormat="1" spans="1:10">
+      <c r="A26" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66">
+        <v>1</v>
+      </c>
+      <c r="F26" s="66">
+        <v>3</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="47">
+        <v>0</v>
+      </c>
+      <c r="J26" s="47"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7473,731 +8146,261 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="9.06666666666667" style="56"/>
-    <col min="4" max="6" width="9.06666666666667" style="56"/>
-    <col min="7" max="7" width="62" customWidth="1"/>
-    <col min="8" max="8" width="67.125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>107</v>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>114</v>
+    </row>
+    <row r="2" ht="40.5" spans="1:6">
+      <c r="A2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>189</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>72</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="58" t="s">
+      <c r="F3" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="59">
-        <v>1</v>
-      </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="59">
+    </row>
+    <row r="4" s="54" customFormat="1" spans="1:6">
+      <c r="A4" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60">
         <v>2</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="59">
-        <v>3</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="59">
-        <v>4</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" s="54" customFormat="1" spans="1:6">
+      <c r="A5" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" s="54" customFormat="1" spans="1:6">
+      <c r="A6" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" s="54" customFormat="1" spans="1:6">
+      <c r="A7" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="59"/>
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="59">
-        <v>5</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>205</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="61">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="59"/>
+        <v>208</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="59">
-        <v>6</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>210</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="59"/>
+        <v>211</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="59">
-        <v>7</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="59">
-        <v>8</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60">
-        <v>1</v>
-      </c>
-      <c r="F12" s="60">
-        <v>0</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="47">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61">
-        <v>1</v>
-      </c>
-      <c r="F13" s="61">
-        <v>1</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61">
-        <v>1</v>
-      </c>
-      <c r="F14" s="61">
-        <v>3</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" s="42" customFormat="1" spans="1:10">
-      <c r="A15" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62">
-        <v>1</v>
-      </c>
-      <c r="F15" s="62">
-        <v>0</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="51">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" s="42" customFormat="1" spans="1:10">
-      <c r="A16" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62">
-        <v>1</v>
-      </c>
-      <c r="F16" s="62">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="51">
-        <v>0</v>
-      </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" s="42" customFormat="1" spans="1:10">
-      <c r="A17" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62">
-        <v>1</v>
-      </c>
-      <c r="F17" s="62">
-        <v>3</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" s="51">
-        <v>0</v>
-      </c>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" s="55" customFormat="1" spans="1:10">
-      <c r="A18" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63">
-        <v>1</v>
-      </c>
-      <c r="F18" s="63">
-        <v>0</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="54">
-        <v>0</v>
-      </c>
-      <c r="J18" s="54"/>
-    </row>
-    <row r="19" s="55" customFormat="1" spans="1:10">
-      <c r="A19" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63">
-        <v>1</v>
-      </c>
-      <c r="F19" s="63">
-        <v>1</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="54">
-        <v>0</v>
-      </c>
-      <c r="J19" s="54"/>
-    </row>
-    <row r="20" s="55" customFormat="1" spans="1:10">
-      <c r="A20" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63">
-        <v>1</v>
-      </c>
-      <c r="F20" s="63">
-        <v>3</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="54">
-        <v>0</v>
-      </c>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61">
-        <v>1</v>
-      </c>
-      <c r="F21" s="61">
-        <v>0</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61">
-        <v>1</v>
-      </c>
-      <c r="F22" s="61">
-        <v>1</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61">
-        <v>1</v>
-      </c>
-      <c r="F23" s="61">
-        <v>3</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61">
-        <v>1</v>
-      </c>
-      <c r="F24" s="61">
-        <v>0</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="49">
-        <v>0</v>
-      </c>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61">
-        <v>1</v>
-      </c>
-      <c r="F25" s="61">
-        <v>1</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I25" s="49">
-        <v>0</v>
-      </c>
-      <c r="J25" s="49"/>
-    </row>
-    <row r="26" s="41" customFormat="1" spans="1:10">
-      <c r="A26" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60">
-        <v>1</v>
-      </c>
-      <c r="F26" s="60">
-        <v>3</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" s="47">
-        <v>0</v>
-      </c>
-      <c r="J26" s="47"/>
+      <c r="C12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="49"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="49"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="47"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8208,7 +8411,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:H19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8217,7 +8420,7 @@
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="71.2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8226,22 +8429,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -8252,25 +8455,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8329,7 +8532,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8344,12 +8547,12 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" s="41" customFormat="1" spans="1:8">
       <c r="A6" s="45" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
@@ -8368,16 +8571,16 @@
         <v>8</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
       <c r="A7" s="45" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -8389,21 +8592,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -8418,18 +8621,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8444,18 +8647,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8470,18 +8673,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8496,18 +8699,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -8522,18 +8725,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -8548,18 +8751,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -8574,18 +8777,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -8600,18 +8803,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -8626,18 +8829,18 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="46" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -8646,18 +8849,18 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="47" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="48" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -8666,21 +8869,21 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="49" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="48" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -8689,90 +8892,90 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="49" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" s="42" customFormat="1" spans="1:9">
       <c r="A20" s="50" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="52">
-        <v>0</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+        <v>153</v>
+      </c>
+      <c r="D20" s="51">
+        <v>0</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="51" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" spans="1:9">
       <c r="A21" s="50" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="52">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+        <v>157</v>
+      </c>
+      <c r="D21" s="51">
+        <v>0</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="51" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:9">
       <c r="A22" s="50" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="52">
-        <v>0</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+        <v>160</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="51" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>176</v>
+      <c r="A23" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -8780,22 +8983,22 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="54" t="s">
-        <v>260</v>
+      <c r="H23" s="53" t="s">
+        <v>275</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>179</v>
+      <c r="A24" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>166</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -8804,21 +9007,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>182</v>
+      <c r="A25" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -8826,22 +9029,22 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="54" t="s">
-        <v>183</v>
+      <c r="H25" s="53" t="s">
+        <v>170</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="48" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -8850,21 +9053,21 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="49" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -8873,21 +9076,21 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="49" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="48" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -8896,18 +9099,18 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="47" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -8916,21 +9119,21 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="49" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="48" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -8938,22 +9141,22 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="54" t="s">
-        <v>183</v>
+      <c r="H30" s="53" t="s">
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="46" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -8962,7 +9165,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="47" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -8992,22 +9195,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9015,22 +9218,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9041,16 +9244,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>10</v>
@@ -9058,10 +9261,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9076,15 +9279,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9099,15 +9302,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9122,15 +9325,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9145,12 +9348,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -9168,15 +9371,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -9191,15 +9394,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -9214,15 +9417,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -9237,15 +9440,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -9260,15 +9463,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -9283,15 +9486,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -9306,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="557">
   <si>
     <t>ID</t>
   </si>
@@ -180,34 +180,34 @@
     <t>燃烧之血，战斗结束时恢复6点生命。</t>
   </si>
   <si>
+    <t>enemy_scene</t>
+  </si>
+  <si>
     <t>intent_pool</t>
   </si>
   <si>
-    <t>enemy_scene</t>
-  </si>
-  <si>
     <t>怪物名</t>
   </si>
   <si>
+    <t>怪物场景</t>
+  </si>
+  <si>
     <t>意图池</t>
   </si>
   <si>
-    <t>怪物场景</t>
-  </si>
-  <si>
-    <t>split*absorb*entangle</t>
+    <t>split*absorb*entangle*attack_5</t>
+  </si>
+  <si>
+    <t>toxin_spray*healing_spore*hallucinogenic_spore*attack_8</t>
+  </si>
+  <si>
+    <t>heavy_strike*bone_shield*summon_assistance</t>
   </si>
   <si>
     <t>destruction_ray*curse_gaze*magic_shield</t>
   </si>
   <si>
     <t>sprint_stab*set_trap*sneak_attack</t>
-  </si>
-  <si>
-    <t>toxin_spray*healing_spore*hallucinogenic_spore</t>
-  </si>
-  <si>
-    <t>heavy_strike*bone_shield*summon_assistance</t>
   </si>
   <si>
     <t>card_name</t>
@@ -344,9 +344,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>func</t>
-  </si>
-  <si>
     <t>所属(注释）</t>
   </si>
   <si>
@@ -371,7 +368,7 @@
     <t>意图值</t>
   </si>
   <si>
-    <t>意图方法</t>
+    <t>意图效果</t>
   </si>
   <si>
     <t>float</t>
@@ -470,13 +467,19 @@
     <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
   </si>
   <si>
+    <t>attack_5</t>
+  </si>
+  <si>
+    <t>敌人打算进行攻击,造成5点伤害</t>
+  </si>
+  <si>
     <t>split</t>
   </si>
   <si>
     <t>脆弱</t>
   </si>
   <si>
-    <t>目标下一回合获得的护甲值降低25%</t>
+    <t>敌人打算释放一个负面效果的法术</t>
   </si>
   <si>
     <t>res://asserts/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
@@ -488,9 +491,6 @@
     <t>吸收</t>
   </si>
   <si>
-    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
-  </si>
-  <si>
     <t>res://asserts/textures/widgets/Buffs/summoning_spell.png</t>
   </si>
   <si>
@@ -500,7 +500,10 @@
     <t>缠绕</t>
   </si>
   <si>
-    <t>降低玩家下一回合的行动点数。</t>
+    <t>attack_8</t>
+  </si>
+  <si>
+    <t>敌人打算进行攻击,造成8点伤害</t>
   </si>
   <si>
     <t>toxin_spray</t>
@@ -509,9 +512,6 @@
     <t>毒素喷射</t>
   </si>
   <si>
-    <t>造成持续性的毒素伤害。</t>
-  </si>
-  <si>
     <t>res://asserts/textures/widgets/Buffs/poisoned.png</t>
   </si>
   <si>
@@ -521,18 +521,12 @@
     <t>治疗孢子</t>
   </si>
   <si>
-    <t>为自己或其他敌人恢复生命值。</t>
-  </si>
-  <si>
     <t>hallucinogenic_spore</t>
   </si>
   <si>
     <t>迷幻孢子</t>
   </si>
   <si>
-    <t>玩家获得“混乱”卡牌。</t>
-  </si>
-  <si>
     <t>destruction_ray</t>
   </si>
   <si>
@@ -611,10 +605,22 @@
     <t>召唤另一个骷髅怪加入战斗</t>
   </si>
   <si>
-    <t>duration</t>
+    <t>buff_type</t>
+  </si>
+  <si>
+    <t>duration_type</t>
+  </si>
+  <si>
+    <t>callback_type</t>
   </si>
   <si>
     <t>效果名</t>
+  </si>
+  <si>
+    <t>类型
+1可堆叠
+2固定
+3短时</t>
   </si>
   <si>
     <t>持续类型
@@ -622,6 +628,19 @@
 2持续回合</t>
   </si>
   <si>
+    <t>回调类型
+1回合开始
+2回合结束
+3攻击前
+4攻击后
+5受到伤害前
+6受到伤害后
+7释放技能前
+8释放技能后
+9被治疗时
+10使用卡牌时</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -667,12 +686,12 @@
     <t>使目标收到的攻击伤害增加</t>
   </si>
   <si>
+    <t>res://asserts/textures/widgets/Buffs/defense_down.png</t>
+  </si>
+  <si>
     <t>VULNERABLE</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/defense_down.png</t>
-  </si>
-  <si>
     <t>weak</t>
   </si>
   <si>
@@ -710,6 +729,9 @@
   </si>
   <si>
     <t>effect_name</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
   <si>
     <t>effect_type</t>
@@ -737,7 +759,7 @@
 1、造成伤害
 2、获得护盾
 3、给予BUFF
-4、特性</t>
+4、易伤</t>
   </si>
   <si>
     <t>效果参数，根据类型。*号分割
@@ -869,6 +891,9 @@
     <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
   </si>
   <si>
+    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
+  </si>
+  <si>
     <t>恢复</t>
   </si>
   <si>
@@ -878,12 +903,18 @@
     <t>减少行动点数</t>
   </si>
   <si>
+    <t>造成持续性的毒素伤害。</t>
+  </si>
+  <si>
     <t>放毒</t>
   </si>
   <si>
     <t>所有人恢复10点生命值。</t>
   </si>
   <si>
+    <t>玩家获得“混乱”卡牌。</t>
+  </si>
+  <si>
     <t>给与卡牌</t>
   </si>
   <si>
@@ -906,6 +937,9 @@
   </si>
   <si>
     <t>造成15点伤害</t>
+  </si>
+  <si>
+    <t>造成5点伤害</t>
   </si>
   <si>
     <t>Name</t>
@@ -1797,6 +1831,9 @@
     <t>destruction_ray*curse_gaze</t>
   </si>
   <si>
+    <t>split*absorb*entangle</t>
+  </si>
+  <si>
     <t>sprint_stab*set_trap</t>
   </si>
   <si>
@@ -1807,6 +1844,9 @@
   </si>
   <si>
     <t>heavy_strike*bone_shield</t>
+  </si>
+  <si>
+    <t>toxin_spray*healing_spore*hallucinogenic_spore</t>
   </si>
   <si>
     <t>描述：</t>
@@ -2832,7 +2872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2998,25 +3038,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -3589,67 +3617,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3661,82 +3689,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3827,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3882,17 +3910,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="72" t="s">
-        <v>366</v>
+      <c r="X4" s="68" t="s">
+        <v>373</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3900,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -3956,16 +3984,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3973,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -4029,16 +4057,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="Z6" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4046,7 +4074,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4102,16 +4130,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4119,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4175,16 +4203,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4192,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4248,16 +4276,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4265,7 +4293,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4321,16 +4349,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4338,7 +4366,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4394,16 +4422,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4411,7 +4439,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4467,16 +4495,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4484,7 +4512,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4540,16 +4568,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4557,7 +4585,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4613,16 +4641,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4630,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4686,16 +4714,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4703,7 +4731,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4759,16 +4787,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4776,7 +4804,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4832,16 +4860,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4849,7 +4877,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4905,16 +4933,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4922,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -4978,16 +5006,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4995,7 +5023,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5051,16 +5079,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5068,7 +5096,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5124,16 +5152,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5141,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5197,16 +5225,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5214,7 +5242,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5270,16 +5298,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5287,7 +5315,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5343,16 +5371,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5360,7 +5388,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5416,16 +5444,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5433,7 +5461,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5489,16 +5517,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5506,7 +5534,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5562,16 +5590,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5579,7 +5607,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5635,16 +5663,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5652,7 +5680,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5708,16 +5736,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5725,7 +5753,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5781,16 +5809,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5798,7 +5826,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5854,16 +5882,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5871,7 +5899,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5927,16 +5955,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5944,7 +5972,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -6000,16 +6028,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6017,7 +6045,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6073,16 +6101,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6090,7 +6118,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6146,16 +6174,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6163,7 +6191,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6219,16 +6247,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6236,7 +6264,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6292,16 +6320,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6309,7 +6337,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6365,16 +6393,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6382,7 +6410,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6438,16 +6466,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6455,7 +6483,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6511,16 +6539,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6528,7 +6556,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6584,16 +6612,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6662,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6670,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6678,7 +6706,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6686,16 +6714,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6703,172 +6731,172 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F16" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>51</v>
+        <v>550</v>
       </c>
       <c r="H17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H20">
-        <f>IF('intent|意图'!F20='intent|意图'!F19,#REF!&amp;"*"&amp;'intent|意图'!D20,'intent|意图'!D20)</f>
+        <f>IF('intent|意图'!F22='intent|意图'!F21,#REF!&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H21">
-        <f>IF('intent|意图'!F21='intent|意图'!F20,H20&amp;"*"&amp;'intent|意图'!D21,'intent|意图'!D21)</f>
+        <f>IF('intent|意图'!F23='intent|意图'!F22,H20&amp;"*"&amp;'intent|意图'!D23,'intent|意图'!D23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="H22">
-        <f>IF('intent|意图'!F22='intent|意图'!F21,H21&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
+        <f>IF('intent|意图'!F24='intent|意图'!F23,H21&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H23">
-        <f>IF('intent|意图'!F23='intent|意图'!F22,H22&amp;"*"&amp;'intent|意图'!D23,'intent|意图'!D23)</f>
+        <f>IF('intent|意图'!F25='intent|意图'!F24,H22&amp;"*"&amp;'intent|意图'!D25,'intent|意图'!D25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24">
-        <f>IF('intent|意图'!F15='intent|意图'!F23,H23&amp;"*"&amp;'intent|意图'!D15,'intent|意图'!D15)</f>
+        <f>IF('intent|意图'!F17='intent|意图'!F25,H23&amp;"*"&amp;'intent|意图'!D17,'intent|意图'!D17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="H25">
-        <f>IF('intent|意图'!F16='intent|意图'!F15,H24&amp;"*"&amp;'intent|意图'!D16,'intent|意图'!D16)</f>
+        <f>IF('intent|意图'!F18='intent|意图'!F17,H24&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>54</v>
+        <v>555</v>
       </c>
       <c r="H26">
-        <f>IF('intent|意图'!F17='intent|意图'!F16,H25&amp;"*"&amp;'intent|意图'!D17,'intent|意图'!D17)</f>
+        <f>IF('intent|意图'!F19='intent|意图'!F18,H25&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H27">
-        <f>IF('intent|意图'!F24='intent|意图'!F17,H26&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
+        <f>IF('intent|意图'!F26='intent|意图'!F19,H26&amp;"*"&amp;'intent|意图'!D26,'intent|意图'!D26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H28">
-        <f>IF('intent|意图'!F25='intent|意图'!F24,H27&amp;"*"&amp;'intent|意图'!D25,'intent|意图'!D25)</f>
+        <f>IF('intent|意图'!F27='intent|意图'!F26,H27&amp;"*"&amp;'intent|意图'!D27,'intent|意图'!D27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H29">
-        <f>IF('intent|意图'!F26='intent|意图'!F25,H28&amp;"*"&amp;'intent|意图'!D26,'intent|意图'!D26)</f>
+        <f>IF('intent|意图'!F28='intent|意图'!F27,H28&amp;"*"&amp;'intent|意图'!D28,'intent|意图'!D28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -6975,7 +7003,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="71" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="67" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -6993,7 +7021,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="70" customFormat="1" spans="1:5">
+    <row r="2" s="66" customFormat="1" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
@@ -7060,15 +7088,15 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.4666666666667" style="21" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7106,11 +7134,11 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7120,72 +7148,72 @@
       <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="40" t="str">
+        <f>"enemy_"&amp;A4</f>
+        <v>enemy_slime</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="40" t="str">
-        <f t="shared" ref="D4:D8" si="0">"enemy_"&amp;A4</f>
-        <v>enemy_slime</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="40" t="str">
+        <f>"enemy_"&amp;A5</f>
+        <v>enemy_mushroom</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>enemy_flying_eye</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="40" t="str">
+        <f>"enemy_"&amp;A6</f>
+        <v>enemy_skeleton</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>enemy_goblin</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="40" t="str">
+        <f>"enemy_"&amp;A7</f>
+        <v>enemy_flying_eye</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>enemy_mushroom</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="40" t="str">
+        <f>"enemy_"&amp;A8</f>
+        <v>enemy_goblin</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>enemy_skeleton</v>
       </c>
     </row>
   </sheetData>
@@ -7201,7 +7229,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+      <selection activeCell="H3" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7273,7 +7301,7 @@
       <c r="H2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="21" t="s">
@@ -7414,728 +7442,838 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="9.06666666666667" style="63"/>
-    <col min="4" max="6" width="9.06666666666667" style="63"/>
-    <col min="7" max="7" width="62" customWidth="1"/>
-    <col min="8" max="8" width="67.125" customWidth="1"/>
+    <col min="2" max="2" width="9.06666666666667" style="59"/>
+    <col min="4" max="7" width="9.06666666666667" style="59"/>
+    <col min="8" max="8" width="62" customWidth="1"/>
+    <col min="9" max="9" width="67.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="60" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="C2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="F2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="G2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="56" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="F3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="61">
+        <v>1</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="65">
-        <v>1</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="40" t="s">
+      <c r="I4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="1">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="61">
+        <v>2</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="65">
-        <v>2</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="61">
         <v>3</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="61">
+        <v>4</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="65">
-        <v>4</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="61">
+        <v>5</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="65">
+      <c r="I8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="61">
+        <v>6</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="61">
+        <v>7</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="61">
+        <v>8</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="61">
+        <v>1</v>
+      </c>
+      <c r="E12" s="61">
+        <v>2</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="65">
-        <v>6</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="65">
-        <v>7</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="65">
-        <v>8</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="47" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66">
-        <v>1</v>
-      </c>
-      <c r="F12" s="66">
-        <v>0</v>
-      </c>
-      <c r="G12" s="47" t="s">
+      <c r="C13" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62">
+        <v>2</v>
+      </c>
+      <c r="F13" s="62">
+        <v>0</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="47">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="48" t="s">
+      <c r="I13" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="49" t="s">
+      <c r="J13" s="47">
+        <v>0</v>
+      </c>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="48" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67">
-        <v>1</v>
-      </c>
-      <c r="F13" s="67">
-        <v>1</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="48" t="s">
-        <v>149</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63">
+        <v>2</v>
+      </c>
+      <c r="F14" s="63">
+        <v>1</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="49">
+        <v>0</v>
+      </c>
+      <c r="K14" s="49"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67">
-        <v>1</v>
-      </c>
-      <c r="F14" s="67">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63">
+        <v>1</v>
+      </c>
+      <c r="F15" s="63">
         <v>3</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G15" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="49">
+        <v>0</v>
+      </c>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" s="42" customFormat="1" spans="1:10">
-      <c r="A15" s="50" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="61">
+        <v>1</v>
+      </c>
+      <c r="E16" s="61">
+        <v>2</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="51" t="s">
+      <c r="I16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="1">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" s="42" customFormat="1" spans="1:11">
+      <c r="A17" s="50" t="s">
         <v>153</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68">
-        <v>1</v>
-      </c>
-      <c r="F15" s="68">
-        <v>0</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="51">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" s="42" customFormat="1" spans="1:10">
-      <c r="A16" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68">
-        <v>1</v>
-      </c>
-      <c r="F16" s="68">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="51">
-        <v>0</v>
-      </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" s="42" customFormat="1" spans="1:10">
-      <c r="A17" s="50" t="s">
-        <v>159</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64">
+        <v>2</v>
+      </c>
+      <c r="F17" s="64">
+        <v>0</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="51">
+        <v>0</v>
+      </c>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" s="42" customFormat="1" spans="1:11">
+      <c r="A18" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64">
+        <v>2</v>
+      </c>
+      <c r="F18" s="64">
+        <v>1</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="51">
+        <v>0</v>
+      </c>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" s="42" customFormat="1" spans="1:11">
+      <c r="A19" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64">
+        <v>1</v>
+      </c>
+      <c r="F19" s="64">
+        <v>3</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="51">
+        <v>0</v>
+      </c>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" s="58" customFormat="1" spans="1:11">
+      <c r="A20" s="52" t="s">
         <v>160</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68">
-        <v>1</v>
-      </c>
-      <c r="F17" s="68">
-        <v>3</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="51">
-        <v>0</v>
-      </c>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" s="62" customFormat="1" spans="1:10">
-      <c r="A18" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69">
-        <v>1</v>
-      </c>
-      <c r="F18" s="69">
-        <v>0</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="53">
-        <v>0</v>
-      </c>
-      <c r="J18" s="53"/>
-    </row>
-    <row r="19" s="62" customFormat="1" spans="1:10">
-      <c r="A19" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69">
-        <v>1</v>
-      </c>
-      <c r="F19" s="69">
-        <v>1</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="53">
-        <v>0</v>
-      </c>
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" s="62" customFormat="1" spans="1:10">
-      <c r="A20" s="52" t="s">
-        <v>168</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65">
+        <v>1</v>
+      </c>
+      <c r="F20" s="65">
+        <v>0</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="53">
+        <v>0</v>
+      </c>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" s="58" customFormat="1" spans="1:11">
+      <c r="A21" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65">
+        <v>1</v>
+      </c>
+      <c r="F21" s="65">
+        <v>1</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="53">
+        <v>0</v>
+      </c>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" s="58" customFormat="1" spans="1:11">
+      <c r="A22" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65">
+        <v>1</v>
+      </c>
+      <c r="F22" s="65">
+        <v>3</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="53">
+        <v>0</v>
+      </c>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="48" t="s">
         <v>169</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69">
-        <v>1</v>
-      </c>
-      <c r="F20" s="69">
-        <v>3</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="53">
-        <v>0</v>
-      </c>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67">
-        <v>1</v>
-      </c>
-      <c r="F21" s="67">
-        <v>0</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67">
-        <v>1</v>
-      </c>
-      <c r="F22" s="67">
-        <v>1</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="48" t="s">
-        <v>177</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63">
+        <v>1</v>
+      </c>
+      <c r="F23" s="63">
+        <v>0</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="49">
+        <v>0</v>
+      </c>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63">
+        <v>1</v>
+      </c>
+      <c r="F24" s="63">
+        <v>1</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="49">
+        <v>0</v>
+      </c>
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63">
+        <v>1</v>
+      </c>
+      <c r="F25" s="63">
+        <v>3</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="49">
+        <v>0</v>
+      </c>
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67">
-        <v>1</v>
-      </c>
-      <c r="F23" s="67">
+      <c r="B26" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63">
+        <v>1</v>
+      </c>
+      <c r="F26" s="63">
+        <v>0</v>
+      </c>
+      <c r="G26" s="63"/>
+      <c r="H26" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="49">
+        <v>0</v>
+      </c>
+      <c r="K26" s="49"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63">
+        <v>1</v>
+      </c>
+      <c r="F27" s="63">
+        <v>1</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="49">
+        <v>0</v>
+      </c>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" s="41" customFormat="1" spans="1:11">
+      <c r="A28" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62">
+        <v>1</v>
+      </c>
+      <c r="F28" s="62">
         <v>3</v>
       </c>
-      <c r="G23" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67">
-        <v>1</v>
-      </c>
-      <c r="F24" s="67">
-        <v>0</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="49">
-        <v>0</v>
-      </c>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67">
-        <v>1</v>
-      </c>
-      <c r="F25" s="67">
-        <v>1</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="49">
-        <v>0</v>
-      </c>
-      <c r="J25" s="49"/>
-    </row>
-    <row r="26" s="41" customFormat="1" spans="1:10">
-      <c r="A26" s="46" t="s">
+      <c r="G28" s="62"/>
+      <c r="H28" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66">
-        <v>1</v>
-      </c>
-      <c r="F26" s="66">
-        <v>3</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="47">
-        <v>0</v>
-      </c>
-      <c r="J26" s="47"/>
+      <c r="I28" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="47">
+        <v>0</v>
+      </c>
+      <c r="K28" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8146,22 +8284,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="67.125" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="67.125" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8172,16 +8311,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
+    </row>
+    <row r="2" ht="148.5" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
@@ -8191,17 +8336,23 @@
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -8212,192 +8363,178 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" s="54" customFormat="1" spans="1:6">
-      <c r="A4" s="59" t="s">
+    </row>
+    <row r="4" s="54" customFormat="1" spans="1:8">
+      <c r="A4" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60">
+      <c r="B4" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" s="54" customFormat="1" spans="1:6">
-      <c r="A5" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="60" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="H4" s="57"/>
+    </row>
+    <row r="5" s="54" customFormat="1" spans="1:8">
+      <c r="A5" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" s="54" customFormat="1" spans="1:6">
-      <c r="A6" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" s="54" customFormat="1" spans="1:8">
+      <c r="A6" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" s="54" customFormat="1" spans="1:6">
-      <c r="A7" s="60" t="s">
+      <c r="B6" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="C6" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" s="54" customFormat="1" spans="1:8">
+      <c r="A7" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="B7" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="57"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="61">
+        <v>207</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+        <v>212</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+        <v>215</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+        <v>218</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="49"/>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="51"/>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="53"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="49"/>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" s="49"/>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="49"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="49"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="49"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="47"/>
+        <v>220</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8408,10 +8545,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A32" sqref="$A32:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8429,51 +8566,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="108" spans="1:8">
+    <row r="2" ht="81" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8532,7 +8669,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8547,12 +8684,12 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" s="41" customFormat="1" spans="1:8">
       <c r="A6" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
@@ -8571,16 +8708,16 @@
         <v>8</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
       <c r="A7" s="45" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -8592,21 +8729,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -8621,18 +8758,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8640,25 +8777,23 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8666,25 +8801,23 @@
       <c r="E10" s="1">
         <v>-1</v>
       </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8692,25 +8825,23 @@
       <c r="E11" s="1">
         <v>-1</v>
       </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -8718,25 +8849,23 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -8744,25 +8873,23 @@
       <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -8770,25 +8897,23 @@
       <c r="E14" s="1">
         <v>-1</v>
       </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -8796,25 +8921,23 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -8822,25 +8945,23 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -8849,18 +8970,18 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="47" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -8869,10 +8990,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="49" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="I18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8892,21 +9013,21 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="49" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="I19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" s="42" customFormat="1" spans="1:9">
       <c r="A20" s="50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" s="51">
         <v>0</v>
@@ -8915,10 +9036,10 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" spans="1:9">
@@ -8938,21 +9059,21 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="42" t="s">
         <v>273</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:9">
       <c r="A22" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>160</v>
-      </c>
       <c r="C22" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="51">
         <v>0</v>
@@ -8961,21 +9082,21 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -8984,21 +9105,21 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="53" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="I23" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -9007,21 +9128,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -9030,21 +9151,21 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -9053,21 +9174,21 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="49" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -9076,21 +9197,21 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="49" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I27" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -9099,18 +9220,18 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -9119,21 +9240,21 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="49" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -9142,21 +9263,21 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -9165,7 +9286,51 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="47" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="40">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -9195,22 +9360,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9218,22 +9383,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9244,16 +9409,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>10</v>
@@ -9261,10 +9426,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9279,15 +9444,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9302,15 +9467,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9325,15 +9490,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9348,12 +9513,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -9371,15 +9536,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -9394,15 +9559,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -9417,15 +9582,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -9440,15 +9605,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -9463,15 +9628,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -9486,15 +9651,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -9509,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="562">
   <si>
     <t>ID</t>
   </si>
@@ -302,7 +302,7 @@
     <t>items</t>
   </si>
   <si>
-    <t>shielded</t>
+    <t>shielded_5</t>
   </si>
   <si>
     <t>block</t>
@@ -605,6 +605,9 @@
     <t>召唤另一个骷髅怪加入战斗</t>
   </si>
   <si>
+    <t>is_stacked</t>
+  </si>
+  <si>
     <t>buff_type</t>
   </si>
   <si>
@@ -617,15 +620,17 @@
     <t>效果名</t>
   </si>
   <si>
+    <t>能否堆叠</t>
+  </si>
+  <si>
     <t>类型
-1可堆叠
-2固定
-3短时</t>
+1数值型
+2状态型</t>
   </si>
   <si>
     <t>持续类型
 1永久
-2持续回合</t>
+2持续回合（状态型每回合减少堆叠数，数值型只能持续一回合）</t>
   </si>
   <si>
     <t>回调类型
@@ -644,6 +649,9 @@
     <t>图标</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>格挡</t>
   </si>
   <si>
@@ -651,6 +659,9 @@
   </si>
   <si>
     <t>res://asserts/textures/widgets/Buffs/fortify_spell.png</t>
+  </si>
+  <si>
+    <t>shielded</t>
   </si>
   <si>
     <t>strength</t>
@@ -777,6 +788,12 @@
     <t>获得5点护盾</t>
   </si>
   <si>
+    <t>护盾*5</t>
+  </si>
+  <si>
+    <t>block*5</t>
+  </si>
+  <si>
     <t>trounce_01</t>
   </si>
   <si>
@@ -973,9 +990,6 @@
   </si>
   <si>
     <t>属性描述</t>
-  </si>
-  <si>
-    <t>bool</t>
   </si>
   <si>
     <t>MaxHealth</t>
@@ -2872,7 +2886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3041,12 +3055,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3070,6 +3084,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3617,67 +3637,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3689,82 +3709,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3855,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3910,17 +3930,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="68" t="s">
-        <v>373</v>
+      <c r="X4" s="70" t="s">
+        <v>378</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3928,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -3984,16 +4004,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4001,7 +4021,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -4057,16 +4077,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4074,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4130,16 +4150,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4147,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4203,16 +4223,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4220,7 +4240,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4276,16 +4296,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4293,7 +4313,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4349,16 +4369,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4366,7 +4386,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4422,16 +4442,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4439,7 +4459,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4495,16 +4515,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4512,7 +4532,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4568,16 +4588,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4585,7 +4605,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4641,16 +4661,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4658,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4714,16 +4734,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4731,7 +4751,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4787,16 +4807,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4804,7 +4824,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4860,16 +4880,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4877,7 +4897,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4933,16 +4953,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4950,7 +4970,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -5006,16 +5026,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5023,7 +5043,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5079,16 +5099,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5096,7 +5116,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5152,16 +5172,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5169,7 +5189,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5225,16 +5245,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5242,7 +5262,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5298,16 +5318,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5315,7 +5335,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5371,16 +5391,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5388,7 +5408,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5444,16 +5464,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5461,7 +5481,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5517,16 +5537,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5534,7 +5554,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5590,16 +5610,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5607,7 +5627,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5663,16 +5683,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5680,7 +5700,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5736,16 +5756,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5753,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5809,16 +5829,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5826,7 +5846,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5882,16 +5902,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5899,7 +5919,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5955,16 +5975,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5972,7 +5992,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -6028,16 +6048,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6045,7 +6065,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6101,16 +6121,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6118,7 +6138,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6174,16 +6194,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6191,7 +6211,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6247,16 +6267,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6264,7 +6284,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6320,16 +6340,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6337,7 +6357,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6393,16 +6413,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6410,7 +6430,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6466,16 +6486,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6483,7 +6503,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6539,16 +6559,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6556,7 +6576,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6612,16 +6632,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -6690,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6698,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6706,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6714,7 +6734,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -6723,7 +6743,7 @@
         <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6731,32 +6751,32 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F16" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="H16" t="s">
         <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H17" t="s">
         <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F18" t="s">
         <v>160</v>
@@ -6765,18 +6785,18 @@
         <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H19" t="s">
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -6799,7 +6819,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H22">
         <f>IF('intent|意图'!F24='intent|意图'!F23,H21&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
@@ -6826,7 +6846,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H25">
         <f>IF('intent|意图'!F18='intent|意图'!F17,H24&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
@@ -6835,7 +6855,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H26">
         <f>IF('intent|意图'!F19='intent|意图'!F18,H25&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
@@ -6853,7 +6873,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H28">
         <f>IF('intent|意图'!F27='intent|意图'!F26,H27&amp;"*"&amp;'intent|意图'!D27,'intent|意图'!D27)</f>
@@ -6871,32 +6891,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +7023,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="67" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="69" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -7021,7 +7041,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="66" customFormat="1" spans="1:5">
+    <row r="2" s="68" customFormat="1" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
@@ -7229,7 +7249,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H1:H3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7272,7 +7292,7 @@
       <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="66" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7301,10 +7321,10 @@
       <c r="H2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="66" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7336,11 +7356,11 @@
       <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -7368,6 +7388,7 @@
       <c r="I4" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -7444,8 +7465,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8284,23 +8305,26 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="67.125" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="67.125" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8319,40 +8343,46 @@
       <c r="F1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" ht="148.5" spans="1:8">
+    <row r="2" ht="148.5" spans="1:9">
       <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>190</v>
+      <c r="D2" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="G2" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -8363,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -8371,90 +8401,111 @@
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" s="54" customFormat="1" spans="1:8">
-      <c r="A4" s="57" t="s">
+    <row r="4" s="54" customFormat="1" spans="1:9">
+      <c r="A4" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57">
+      <c r="B4" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="56">
+        <v>1</v>
+      </c>
+      <c r="E4" s="56">
+        <v>1</v>
+      </c>
+      <c r="F4" s="56">
         <v>2</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="57"/>
-    </row>
-    <row r="5" s="54" customFormat="1" spans="1:8">
-      <c r="A5" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="G4" s="56">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" s="54" customFormat="1" spans="1:8">
-      <c r="A6" s="57" t="s">
+      <c r="I4" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="57" t="s">
+    </row>
+    <row r="5" s="54" customFormat="1" spans="1:9">
+      <c r="A5" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="7" s="54" customFormat="1" spans="1:8">
-      <c r="A7" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="D5" s="56">
+        <v>1</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" s="54" customFormat="1" spans="1:9">
+      <c r="A6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="57"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C6" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="56"/>
+    </row>
+    <row r="7" s="54" customFormat="1" spans="1:9">
+      <c r="A7" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="56">
+        <v>1</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -8463,78 +8514,93 @@
         <v>2</v>
       </c>
       <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8545,10 +8611,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="$A32:$XFD33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8566,22 +8632,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -8592,25 +8658,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8665,11 +8731,11 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8684,40 +8750,40 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" s="41" customFormat="1" spans="1:8">
-      <c r="A6" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45">
-        <v>8</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
       <c r="A7" s="45" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -8726,98 +8792,98 @@
         <v>0</v>
       </c>
       <c r="F7" s="45">
+        <v>1</v>
+      </c>
+      <c r="G7" s="45">
+        <v>8</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" s="41" customFormat="1" spans="1:8">
+      <c r="A8" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
         <v>3</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>241</v>
+      <c r="G8" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8827,117 +8893,117 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>6</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>257</v>
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>261</v>
+        <v>6</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -8947,41 +9013,45 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
         <v>9</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="46" t="s">
+      <c r="H17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="47" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>147</v>
+      <c r="B18" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -8989,22 +9059,19 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="I18" t="s">
-        <v>273</v>
+      <c r="H18" s="47" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -9013,44 +9080,44 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="49" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" s="42" customFormat="1" spans="1:9">
-      <c r="A20" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="I20" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" spans="1:9">
       <c r="A21" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D21" s="51">
         <v>0</v>
@@ -9059,21 +9126,21 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:9">
       <c r="A22" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" s="51">
         <v>0</v>
@@ -9082,44 +9149,44 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="I22" s="42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="I23" t="s">
-        <v>282</v>
+    </row>
+    <row r="23" s="42" customFormat="1" spans="1:9">
+      <c r="A23" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="51">
+        <v>0</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -9127,22 +9194,22 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>239</v>
+      <c r="H24" s="53" t="s">
+        <v>287</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -9150,22 +9217,22 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="53" t="s">
-        <v>168</v>
+      <c r="H25" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="I25" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>170</v>
+      <c r="A26" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>167</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -9173,22 +9240,22 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="49" t="s">
-        <v>284</v>
+      <c r="H26" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -9197,21 +9264,21 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="49" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -9219,19 +9286,22 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="I28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -9239,22 +9309,19 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="I29" t="s">
-        <v>282</v>
+      <c r="H29" s="47" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="48" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -9262,22 +9329,22 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="53" t="s">
-        <v>168</v>
+      <c r="H30" s="49" t="s">
+        <v>293</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>184</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>182</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -9285,35 +9352,36 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="47" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="40" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="40"/>
@@ -9327,10 +9395,32 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="40">
         <v>8</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>235</v>
+      <c r="H34" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9360,22 +9450,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9383,22 +9473,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9418,7 +9508,7 @@
         <v>108</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>10</v>
@@ -9426,10 +9516,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9444,15 +9534,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9467,15 +9557,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9490,15 +9580,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9513,12 +9603,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -9536,15 +9626,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -9559,15 +9649,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -9582,15 +9672,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -9605,15 +9695,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -9628,15 +9718,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -9651,15 +9741,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -9674,7 +9764,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="557">
   <si>
     <t>ID</t>
   </si>
@@ -652,18 +652,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>持续到下一个回合开始之前，格挡伤害</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/fortify_spell.png</t>
-  </si>
-  <si>
-    <t>shielded</t>
-  </si>
-  <si>
     <t>strength</t>
   </si>
   <si>
@@ -782,298 +770,295 @@
     <t>技能效果描述</t>
   </si>
   <si>
+    <t>护盾*5</t>
+  </si>
+  <si>
+    <t>获得5点护盾</t>
+  </si>
+  <si>
+    <t>trounce_01</t>
+  </si>
+  <si>
+    <t>造成8点伤害</t>
+  </si>
+  <si>
+    <t>trounce_02</t>
+  </si>
+  <si>
+    <t>给予易伤</t>
+  </si>
+  <si>
+    <t>vulnerable*2</t>
+  </si>
+  <si>
+    <t>给与2层易伤</t>
+  </si>
+  <si>
+    <t>易伤（Vulnerable）</t>
+  </si>
+  <si>
+    <t>目标受到的伤害增加50%。</t>
+  </si>
+  <si>
+    <t>WEAK</t>
+  </si>
+  <si>
+    <t>弱化（Weak）</t>
+  </si>
+  <si>
+    <t>目标造成的伤害减少25%。</t>
+  </si>
+  <si>
+    <t>POISONED</t>
+  </si>
+  <si>
+    <t>中毒（Poisoned）</t>
+  </si>
+  <si>
+    <t>在目标的回合开始时，中毒将造成等同于其堆叠数的伤害，并减少1点堆叠数。</t>
+  </si>
+  <si>
+    <t>BURNING</t>
+  </si>
+  <si>
+    <t>燃烧（Burning）</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <t>每回合结束时，目标受到等同于燃烧堆叠数的伤害，然后燃烧堆叠数减半。</t>
+  </si>
+  <si>
+    <t>STRENGTHENED</t>
+  </si>
+  <si>
+    <t>强化（Strengthened）</t>
+  </si>
+  <si>
+    <t>目标的攻击力增加。</t>
+  </si>
+  <si>
+    <t>REGENERATING</t>
+  </si>
+  <si>
+    <t>再生（Regenerating）</t>
+  </si>
+  <si>
+    <t>目标每回合恢复5生命值。</t>
+  </si>
+  <si>
+    <t>BLEEDING</t>
+  </si>
+  <si>
+    <t>流血（Bleeding）</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>每回合结束时，目标受到等同于流血堆叠数的伤害。</t>
+  </si>
+  <si>
+    <t>ENERGIZED</t>
+  </si>
+  <si>
+    <t>充能（Energized）</t>
+  </si>
+  <si>
+    <t>充能</t>
+  </si>
+  <si>
+    <t>目标在下一回合获得额外的能量点数。</t>
+  </si>
+  <si>
+    <t>FROZEN</t>
+  </si>
+  <si>
+    <t>冻结（Frozen）</t>
+  </si>
+  <si>
+    <t>冻结</t>
+  </si>
+  <si>
+    <t>目标在下一回合无法行动。</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
+  </si>
+  <si>
+    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>减少玩家下一回合的行动点数。</t>
+  </si>
+  <si>
+    <t>减少行动点数</t>
+  </si>
+  <si>
+    <t>造成持续性的毒素伤害。</t>
+  </si>
+  <si>
+    <t>放毒</t>
+  </si>
+  <si>
+    <t>所有人恢复10点生命值。</t>
+  </si>
+  <si>
+    <t>玩家获得“混乱”卡牌。</t>
+  </si>
+  <si>
+    <t>给与卡牌</t>
+  </si>
+  <si>
+    <t>对玩家造成10点伤害</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>获得护盾</t>
+  </si>
+  <si>
+    <t>对玩家造成12点伤害</t>
+  </si>
+  <si>
+    <t>蓄力一回合，下一回合对玩家造成双倍伤害</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>造成15点伤害</t>
+  </si>
+  <si>
+    <t>造成5点伤害</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BaseValue</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>可见性</t>
+  </si>
+  <si>
+    <t>属性描述</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>角色的最大生命值</t>
+  </si>
+  <si>
+    <t>CurrentHealth</t>
+  </si>
+  <si>
+    <t>当前生命值</t>
+  </si>
+  <si>
+    <t>角色当前的生命值</t>
+  </si>
+  <si>
+    <t>MaxEnergy</t>
+  </si>
+  <si>
+    <t>最大能量值</t>
+  </si>
+  <si>
+    <t>角色可以累积的最大能量值</t>
+  </si>
+  <si>
+    <t>CurrentEnergy</t>
+  </si>
+  <si>
+    <t>当前能量值</t>
+  </si>
+  <si>
+    <t>角色当前的能量值</t>
+  </si>
+  <si>
+    <t>BaseAttack</t>
+  </si>
+  <si>
+    <t>角色基础的攻击力</t>
+  </si>
+  <si>
+    <t>BaseDefense</t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>角色基础的防御值</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>角色持有的金币数量</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>增加角色攻击力的强化值</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>影响角色行动速度或攻击速度的属性</t>
+  </si>
+  <si>
+    <t>MagicPower</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>影响角色魔法或特殊技能效果的属性</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
     <t>护盾</t>
-  </si>
-  <si>
-    <t>获得5点护盾</t>
-  </si>
-  <si>
-    <t>护盾*5</t>
-  </si>
-  <si>
-    <t>block*5</t>
-  </si>
-  <si>
-    <t>trounce_01</t>
-  </si>
-  <si>
-    <t>造成8点伤害</t>
-  </si>
-  <si>
-    <t>trounce_02</t>
-  </si>
-  <si>
-    <t>给予易伤</t>
-  </si>
-  <si>
-    <t>vulnerable*2</t>
-  </si>
-  <si>
-    <t>给与2层易伤</t>
-  </si>
-  <si>
-    <t>易伤（Vulnerable）</t>
-  </si>
-  <si>
-    <t>目标受到的伤害增加50%。</t>
-  </si>
-  <si>
-    <t>WEAK</t>
-  </si>
-  <si>
-    <t>弱化（Weak）</t>
-  </si>
-  <si>
-    <t>目标造成的伤害减少25%。</t>
-  </si>
-  <si>
-    <t>POISONED</t>
-  </si>
-  <si>
-    <t>中毒（Poisoned）</t>
-  </si>
-  <si>
-    <t>在目标的回合开始时，中毒将造成等同于其堆叠数的伤害，并减少1点堆叠数。</t>
-  </si>
-  <si>
-    <t>BURNING</t>
-  </si>
-  <si>
-    <t>燃烧（Burning）</t>
-  </si>
-  <si>
-    <t>燃烧</t>
-  </si>
-  <si>
-    <t>每回合结束时，目标受到等同于燃烧堆叠数的伤害，然后燃烧堆叠数减半。</t>
-  </si>
-  <si>
-    <t>STRENGTHENED</t>
-  </si>
-  <si>
-    <t>强化（Strengthened）</t>
-  </si>
-  <si>
-    <t>目标的攻击力增加。</t>
-  </si>
-  <si>
-    <t>REGENERATING</t>
-  </si>
-  <si>
-    <t>再生（Regenerating）</t>
-  </si>
-  <si>
-    <t>目标每回合恢复5生命值。</t>
-  </si>
-  <si>
-    <t>BLEEDING</t>
-  </si>
-  <si>
-    <t>流血（Bleeding）</t>
-  </si>
-  <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>每回合结束时，目标受到等同于流血堆叠数的伤害。</t>
-  </si>
-  <si>
-    <t>ENERGIZED</t>
-  </si>
-  <si>
-    <t>充能（Energized）</t>
-  </si>
-  <si>
-    <t>充能</t>
-  </si>
-  <si>
-    <t>目标在下一回合获得额外的能量点数。</t>
-  </si>
-  <si>
-    <t>FROZEN</t>
-  </si>
-  <si>
-    <t>冻结（Frozen）</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
-    <t>目标在下一回合无法行动。</t>
-  </si>
-  <si>
-    <t>分裂</t>
-  </si>
-  <si>
-    <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
-  </si>
-  <si>
-    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
-    <t>减少玩家下一回合的行动点数。</t>
-  </si>
-  <si>
-    <t>减少行动点数</t>
-  </si>
-  <si>
-    <t>造成持续性的毒素伤害。</t>
-  </si>
-  <si>
-    <t>放毒</t>
-  </si>
-  <si>
-    <t>所有人恢复10点生命值。</t>
-  </si>
-  <si>
-    <t>玩家获得“混乱”卡牌。</t>
-  </si>
-  <si>
-    <t>给与卡牌</t>
-  </si>
-  <si>
-    <t>对玩家造成10点伤害</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>获得护盾</t>
-  </si>
-  <si>
-    <t>对玩家造成12点伤害</t>
-  </si>
-  <si>
-    <t>蓄力一回合，下一回合对玩家造成双倍伤害</t>
-  </si>
-  <si>
-    <t>蓄力</t>
-  </si>
-  <si>
-    <t>造成15点伤害</t>
-  </si>
-  <si>
-    <t>造成5点伤害</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>BaseValue</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>visibility</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>最小值</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <t>可见性</t>
-  </si>
-  <si>
-    <t>属性描述</t>
-  </si>
-  <si>
-    <t>MaxHealth</t>
-  </si>
-  <si>
-    <t>最大生命值</t>
-  </si>
-  <si>
-    <t>角色的最大生命值</t>
-  </si>
-  <si>
-    <t>CurrentHealth</t>
-  </si>
-  <si>
-    <t>当前生命值</t>
-  </si>
-  <si>
-    <t>角色当前的生命值</t>
-  </si>
-  <si>
-    <t>MaxEnergy</t>
-  </si>
-  <si>
-    <t>最大能量值</t>
-  </si>
-  <si>
-    <t>角色可以累积的最大能量值</t>
-  </si>
-  <si>
-    <t>CurrentEnergy</t>
-  </si>
-  <si>
-    <t>当前能量值</t>
-  </si>
-  <si>
-    <t>角色当前的能量值</t>
-  </si>
-  <si>
-    <t>BaseAttack</t>
-  </si>
-  <si>
-    <t>角色基础的攻击力</t>
-  </si>
-  <si>
-    <t>BaseDefense</t>
-  </si>
-  <si>
-    <t>防御力</t>
-  </si>
-  <si>
-    <t>角色基础的防御值</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>角色持有的金币数量</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>增加角色攻击力的强化值</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
-    <t>影响角色行动速度或攻击速度的属性</t>
-  </si>
-  <si>
-    <t>MagicPower</t>
-  </si>
-  <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>影响角色魔法或特殊技能效果的属性</t>
-  </si>
-  <si>
-    <t>Shield</t>
   </si>
   <si>
     <t>充当额外生命值的保护层</t>
@@ -3637,67 +3622,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="W1" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>355</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3709,82 +3694,82 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="R2" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="W2" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Y2" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="Z2" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="AA2" s="33" t="s">
         <v>371</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3875,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3931,16 +3916,16 @@
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
       <c r="X4" s="70" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3948,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -4004,16 +3989,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="AA5" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4021,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -4077,16 +4062,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4094,7 +4079,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4150,16 +4135,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4167,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4223,16 +4208,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4240,7 +4225,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4296,16 +4281,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4313,7 +4298,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4369,16 +4354,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4386,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4442,16 +4427,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4459,7 +4444,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4515,16 +4500,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4532,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4588,16 +4573,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4605,7 +4590,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4661,16 +4646,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4678,7 +4663,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4734,16 +4719,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4751,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4807,16 +4792,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4824,7 +4809,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4880,16 +4865,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4897,7 +4882,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4953,16 +4938,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4970,7 +4955,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -5026,16 +5011,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5043,7 +5028,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5099,16 +5084,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5116,7 +5101,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5172,16 +5157,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5189,7 +5174,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5245,16 +5230,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5262,7 +5247,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5318,16 +5303,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5335,7 +5320,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5391,16 +5376,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5408,7 +5393,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5464,16 +5449,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5481,7 +5466,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5537,16 +5522,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5554,7 +5539,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5610,16 +5595,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5627,7 +5612,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5683,16 +5668,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5700,7 +5685,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5756,16 +5741,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5773,7 +5758,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5829,16 +5814,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5846,7 +5831,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5902,16 +5887,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5919,7 +5904,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5975,16 +5960,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5992,7 +5977,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -6048,16 +6033,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6065,7 +6050,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6121,16 +6106,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6138,7 +6123,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6194,16 +6179,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6211,7 +6196,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6267,16 +6252,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6284,7 +6269,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6340,16 +6325,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6357,7 +6342,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6413,16 +6398,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6430,7 +6415,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6486,16 +6471,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6503,7 +6488,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6559,16 +6544,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6576,7 +6561,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6632,16 +6617,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -6710,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6718,7 +6703,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6726,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6734,7 +6719,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -6743,7 +6728,7 @@
         <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6751,32 +6736,32 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F16" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H16" t="s">
         <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H17" t="s">
         <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F18" t="s">
         <v>160</v>
@@ -6785,18 +6770,18 @@
         <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H19" t="s">
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -6819,7 +6804,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H22">
         <f>IF('intent|意图'!F24='intent|意图'!F23,H21&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
@@ -6846,7 +6831,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H25">
         <f>IF('intent|意图'!F18='intent|意图'!F17,H24&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
@@ -6855,7 +6840,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H26">
         <f>IF('intent|意图'!F19='intent|意图'!F18,H25&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
@@ -6873,7 +6858,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H28">
         <f>IF('intent|意图'!F27='intent|意图'!F26,H27&amp;"*"&amp;'intent|意图'!D27,'intent|意图'!D27)</f>
@@ -6891,32 +6876,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -7249,7 +7234,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7465,8 +7450,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7833,9 +7818,7 @@
       <c r="F13" s="62">
         <v>0</v>
       </c>
-      <c r="G13" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="G13" s="61"/>
       <c r="H13" s="47" t="s">
         <v>144</v>
       </c>
@@ -7864,9 +7847,7 @@
       <c r="F14" s="63">
         <v>1</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="G14" s="61"/>
       <c r="H14" s="49" t="s">
         <v>144</v>
       </c>
@@ -7895,9 +7876,7 @@
       <c r="F15" s="63">
         <v>3</v>
       </c>
-      <c r="G15" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="G15" s="61"/>
       <c r="H15" s="49" t="s">
         <v>144</v>
       </c>
@@ -7959,9 +7938,7 @@
       <c r="F17" s="64">
         <v>0</v>
       </c>
-      <c r="G17" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="G17" s="61"/>
       <c r="H17" s="51" t="s">
         <v>144</v>
       </c>
@@ -7990,9 +7967,7 @@
       <c r="F18" s="64">
         <v>1</v>
       </c>
-      <c r="G18" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="G18" s="61"/>
       <c r="H18" s="51" t="s">
         <v>144</v>
       </c>
@@ -8021,9 +7996,7 @@
       <c r="F19" s="64">
         <v>3</v>
       </c>
-      <c r="G19" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="G19" s="61"/>
       <c r="H19" s="51" t="s">
         <v>144</v>
       </c>
@@ -8305,10 +8278,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8413,42 +8386,32 @@
     </row>
     <row r="4" s="54" customFormat="1" spans="1:9">
       <c r="A4" s="56" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D4" s="56">
         <v>1</v>
       </c>
-      <c r="E4" s="56">
-        <v>1</v>
-      </c>
-      <c r="F4" s="56">
-        <v>2</v>
-      </c>
-      <c r="G4" s="56">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>200</v>
-      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" s="54" customFormat="1" spans="1:9">
       <c r="A5" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="C5" s="56" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>203</v>
       </c>
       <c r="D5" s="56">
         <v>1</v>
@@ -8456,18 +8419,18 @@
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
-      <c r="H5" s="40"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="56"/>
     </row>
     <row r="6" s="54" customFormat="1" spans="1:9">
       <c r="A6" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="56" t="s">
         <v>205</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>206</v>
       </c>
       <c r="D6" s="56">
         <v>1</v>
@@ -8478,63 +8441,63 @@
       <c r="H6" s="1"/>
       <c r="I6" s="56"/>
     </row>
-    <row r="7" s="54" customFormat="1" spans="1:9">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="I7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="56">
-        <v>1</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8547,13 +8510,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8566,13 +8529,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8580,27 +8543,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8611,10 +8555,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8632,22 +8576,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -8658,25 +8602,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="H2" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8731,11 +8675,11 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8750,40 +8694,40 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" s="41" customFormat="1" spans="1:8">
+      <c r="A6" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45">
+        <v>8</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
       <c r="A7" s="45" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -8792,98 +8736,98 @@
         <v>0</v>
       </c>
       <c r="F7" s="45">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>238</v>
       </c>
       <c r="H7" s="45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="8" s="41" customFormat="1" spans="1:8">
-      <c r="A8" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="45">
-        <v>0</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <v>3</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8893,117 +8837,117 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>260</v>
+        <v>6</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>263</v>
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -9013,45 +8957,41 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="47" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>276</v>
+    <row r="18" spans="1:9">
+      <c r="A18" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -9059,19 +8999,22 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="47" t="s">
-        <v>277</v>
+      <c r="H18" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="I18" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -9080,44 +9023,44 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="49" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="I20" t="s">
-        <v>281</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" s="42" customFormat="1" spans="1:9">
+      <c r="A20" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="51">
+        <v>0</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" spans="1:9">
       <c r="A21" s="50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D21" s="51">
         <v>0</v>
@@ -9126,21 +9069,21 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:9">
       <c r="A22" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D22" s="51">
         <v>0</v>
@@ -9149,44 +9092,44 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="23" s="42" customFormat="1" spans="1:9">
-      <c r="A23" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="51">
-        <v>0</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="I23" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -9194,22 +9137,22 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="53" t="s">
-        <v>287</v>
+      <c r="H24" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -9217,22 +9160,22 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>245</v>
+      <c r="H25" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>167</v>
+      <c r="A26" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>170</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -9240,22 +9183,22 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="53" t="s">
-        <v>168</v>
+      <c r="H26" s="49" t="s">
+        <v>284</v>
       </c>
       <c r="I26" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -9264,21 +9207,21 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="49" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="48" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -9286,22 +9229,19 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="I28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -9309,19 +9249,22 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="47" t="s">
-        <v>177</v>
+      <c r="H29" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="I29" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="48" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -9329,22 +9272,22 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="49" t="s">
-        <v>293</v>
+      <c r="H30" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>182</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>184</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -9352,36 +9295,35 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" t="s">
-        <v>289</v>
+      <c r="H31" s="47" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>184</v>
-      </c>
+      <c r="A32" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="47" t="s">
-        <v>185</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="40">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="40" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="40"/>
@@ -9395,32 +9337,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="40">
-        <v>8</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -9450,22 +9370,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9473,22 +9393,22 @@
         <v>5</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9516,10 +9436,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9534,15 +9454,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9557,15 +9477,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9580,15 +9500,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9603,12 +9523,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>8</v>
@@ -9626,15 +9546,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -9649,15 +9569,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -9672,15 +9592,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -9695,15 +9615,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -9718,15 +9638,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -9741,15 +9661,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -9764,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="character|角色" sheetId="32" r:id="rId1"/>
-    <sheet name="combat|战斗" sheetId="31" r:id="rId2"/>
+    <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
+    <sheet name="character|角色" sheetId="32" r:id="rId2"/>
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId3"/>
     <sheet name="monster|魔物" sheetId="28" r:id="rId4"/>
     <sheet name="card|卡牌" sheetId="29" r:id="rId5"/>
@@ -48,6 +48,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>mark_04</t>
+  </si>
+  <si>
+    <t>mark_05</t>
+  </si>
+  <si>
+    <t>mark_06</t>
+  </si>
+  <si>
+    <t>战斗名</t>
+  </si>
+  <si>
+    <t>位置1</t>
+  </si>
+  <si>
+    <t>位置2</t>
+  </si>
+  <si>
+    <t>位置3</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>测试用</t>
+  </si>
+  <si>
+    <t>slime</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
@@ -72,9 +105,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -84,15 +114,18 @@
     <t>铁甲军团残留下的士兵，他出卖自己的灵魂，获得了恶魔的力量。</t>
   </si>
   <si>
-    <t>slime</t>
-  </si>
-  <si>
     <t>史莱姆</t>
   </si>
   <si>
     <t>一种黏滑的生物，能够分裂和吸收小型物体。史莱姆的主要攻击方式是覆盖和缠绕。</t>
   </si>
   <si>
+    <t>蘑菇怪</t>
+  </si>
+  <si>
+    <t>一种生长在森林里的神秘生物，能够释放毒素和治疗药剂。</t>
+  </si>
+  <si>
     <t>flying_eye</t>
   </si>
   <si>
@@ -111,15 +144,6 @@
     <t>一种小型、狡猾且迅速的生物。擅长使用小刀和陷阱。</t>
   </si>
   <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>蘑菇怪</t>
-  </si>
-  <si>
-    <t>一种生长在森林里的神秘生物，能够释放毒素和治疗药剂。</t>
-  </si>
-  <si>
     <t>skeleton</t>
   </si>
   <si>
@@ -127,30 +151,6 @@
   </si>
   <si>
     <t>不死生物，使用古老的武器和盔甲。虽然动作缓慢，但具有较高的防御力。</t>
-  </si>
-  <si>
-    <t>mark_04</t>
-  </si>
-  <si>
-    <t>mark_05</t>
-  </si>
-  <si>
-    <t>mark_06</t>
-  </si>
-  <si>
-    <t>战斗名</t>
-  </si>
-  <si>
-    <t>位置1</t>
-  </si>
-  <si>
-    <t>位置2</t>
-  </si>
-  <si>
-    <t>位置3</t>
-  </si>
-  <si>
-    <t>测试用</t>
   </si>
   <si>
     <t>hero_name</t>
@@ -1861,7 +1861,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,6 +1898,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2741,137 +2749,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3080,6 +3088,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -3433,16 +3447,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="5" max="5" width="37" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
@@ -3462,37 +3473,37 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3500,101 +3511,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3615,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>351</v>
@@ -3774,85 +3698,85 @@
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -3915,7 +3839,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="70" t="s">
+      <c r="X4" s="72" t="s">
         <v>373</v>
       </c>
       <c r="Y4" s="9" t="s">
@@ -6913,13 +6837,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="79.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
@@ -6929,47 +6856,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
+      <c r="A2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6977,14 +6904,101 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="71">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="71">
+        <v>10</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50</v>
+      </c>
+      <c r="D6" s="71">
+        <v>10</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="71">
+        <v>10</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="71">
+        <v>10</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="71">
+        <v>10</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7028,7 +7042,7 @@
     </row>
     <row r="2" s="68" customFormat="1" spans="1:5">
       <c r="A2" s="43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>39</v>
@@ -7045,19 +7059,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7065,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
@@ -7093,7 +7107,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -7134,13 +7148,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>43</v>
@@ -7148,10 +7162,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="40" t="str">
         <f>"enemy_"&amp;A4</f>
@@ -7163,10 +7177,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="40" t="str">
         <f>"enemy_"&amp;A5</f>
@@ -7178,10 +7192,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C6" s="40" t="str">
         <f>"enemy_"&amp;A6</f>
@@ -7193,10 +7207,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C7" s="40" t="str">
         <f>"enemy_"&amp;A7</f>
@@ -7208,10 +7222,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C8" s="40" t="str">
         <f>"enemy_"&amp;A8</f>
@@ -7283,7 +7297,7 @@
     </row>
     <row r="2" ht="54" spans="1:10">
       <c r="A2" s="43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>65</v>
@@ -7315,34 +7329,34 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7450,8 +7464,8 @@
   <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7535,34 +7549,34 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>108</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>74</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K3" s="55" t="s">
         <v>43</v>
@@ -7786,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>141</v>
@@ -7806,7 +7820,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>143</v>
@@ -7835,7 +7849,7 @@
         <v>146</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>147</v>
@@ -7864,7 +7878,7 @@
         <v>149</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>150</v>
@@ -7906,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H16" s="40" t="s">
         <v>152</v>
@@ -7926,7 +7940,7 @@
         <v>153</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>154</v>
@@ -7955,7 +7969,7 @@
         <v>156</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>157</v>
@@ -7984,7 +7998,7 @@
         <v>158</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>159</v>
@@ -8013,7 +8027,7 @@
         <v>160</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>161</v>
@@ -8042,7 +8056,7 @@
         <v>163</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>164</v>
@@ -8071,7 +8085,7 @@
         <v>166</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>167</v>
@@ -8100,7 +8114,7 @@
         <v>169</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>170</v>
@@ -8129,7 +8143,7 @@
         <v>172</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>173</v>
@@ -8158,7 +8172,7 @@
         <v>175</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>176</v>
@@ -8187,7 +8201,7 @@
         <v>178</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>179</v>
@@ -8216,7 +8230,7 @@
         <v>181</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>182</v>
@@ -8245,7 +8259,7 @@
         <v>183</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>184</v>
@@ -8305,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>186</v>
@@ -8328,13 +8342,13 @@
     </row>
     <row r="2" ht="148.5" spans="1:9">
       <c r="A2" s="43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>191</v>
@@ -8357,25 +8371,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>196</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H3" s="55" t="s">
         <v>74</v>
@@ -8594,12 +8608,12 @@
         <v>225</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="81" spans="1:8">
       <c r="A2" s="43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>221</v>
@@ -8625,28 +8639,28 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -9390,7 +9404,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="36" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>295</v>
@@ -9413,10 +9427,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>108</v>
@@ -9431,7 +9445,7 @@
         <v>196</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -9531,7 +9545,7 @@
         <v>312</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C8" s="39">
         <v>10</v>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="559">
   <si>
     <t>ID</t>
   </si>
@@ -652,6 +652,12 @@
     <t>bool</t>
   </si>
   <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>格挡部分伤害</t>
+  </si>
+  <si>
     <t>strength</t>
   </si>
   <si>
@@ -682,7 +688,7 @@
     <t>易伤</t>
   </si>
   <si>
-    <t>使目标收到的攻击伤害增加</t>
+    <t>使目标受到的攻击伤害增加</t>
   </si>
   <si>
     <t>res://asserts/textures/widgets/Buffs/defense_down.png</t>
@@ -2879,7 +2885,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3046,6 +3052,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3546,67 +3555,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3618,82 +3627,82 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>364</v>
-      </c>
       <c r="X2" s="18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3784,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3839,17 +3848,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="72" t="s">
-        <v>373</v>
+      <c r="X4" s="73" t="s">
+        <v>375</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3857,7 +3866,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -3913,16 +3922,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3930,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -3986,16 +3995,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4003,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4059,16 +4068,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4076,7 +4085,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4132,16 +4141,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4149,7 +4158,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4205,16 +4214,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4222,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4278,16 +4287,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4295,7 +4304,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4351,16 +4360,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4368,7 +4377,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4424,16 +4433,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4441,7 +4450,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4497,16 +4506,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4514,7 +4523,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4570,16 +4579,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4587,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4643,16 +4652,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4660,7 +4669,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4716,16 +4725,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4733,7 +4742,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4789,16 +4798,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4806,7 +4815,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4862,16 +4871,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4879,7 +4888,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -4935,16 +4944,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4952,7 +4961,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5008,16 +5017,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5025,7 +5034,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5081,16 +5090,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5098,7 +5107,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5154,16 +5163,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5171,7 +5180,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5227,16 +5236,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5244,7 +5253,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5300,16 +5309,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5317,7 +5326,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5373,16 +5382,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5390,7 +5399,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5446,16 +5455,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5463,7 +5472,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5519,16 +5528,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5536,7 +5545,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5592,16 +5601,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5609,7 +5618,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5665,16 +5674,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5682,7 +5691,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5738,16 +5747,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5755,7 +5764,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5811,16 +5820,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5828,7 +5837,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5884,16 +5893,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5901,7 +5910,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -5957,16 +5966,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -5974,7 +5983,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6030,16 +6039,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6047,7 +6056,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6103,16 +6112,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6120,7 +6129,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6176,16 +6185,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6193,7 +6202,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6249,16 +6258,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6266,7 +6275,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6322,16 +6331,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6339,7 +6348,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6395,16 +6404,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6412,7 +6421,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6468,16 +6477,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6485,7 +6494,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6541,16 +6550,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6627,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6635,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6643,7 +6652,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -6652,7 +6661,7 @@
         <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6660,32 +6669,32 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F16" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H16" t="s">
         <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H17" t="s">
         <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F18" t="s">
         <v>160</v>
@@ -6694,18 +6703,18 @@
         <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H19" t="s">
         <v>178</v>
       </c>
       <c r="I19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -6728,7 +6737,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H22">
         <f>IF('intent|意图'!F24='intent|意图'!F23,H21&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
@@ -6755,7 +6764,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H25">
         <f>IF('intent|意图'!F18='intent|意图'!F17,H24&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
@@ -6764,7 +6773,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H26">
         <f>IF('intent|意图'!F19='intent|意图'!F18,H25&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
@@ -6782,7 +6791,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H28">
         <f>IF('intent|意图'!F27='intent|意图'!F26,H27&amp;"*"&amp;'intent|意图'!D27,'intent|意图'!D27)</f>
@@ -6800,32 +6809,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -6839,7 +6848,7 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6858,7 +6867,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="71" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -6875,7 +6884,7 @@
       <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6892,7 +6901,7 @@
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -6909,7 +6918,7 @@
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="72">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -6926,10 +6935,10 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="72">
         <v>10</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="68" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6943,10 +6952,10 @@
       <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="72">
         <v>10</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="68" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6960,10 +6969,10 @@
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="72">
         <v>10</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="68" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6977,10 +6986,10 @@
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="72">
         <v>10</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="68" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6994,10 +7003,10 @@
       <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="72">
         <v>10</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="68" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7022,7 +7031,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="69" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="70" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -7040,7 +7049,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="68" customFormat="1" spans="1:5">
+    <row r="2" s="69" customFormat="1" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
@@ -7248,7 +7257,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7291,7 +7300,7 @@
       <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="67" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7320,10 +7329,10 @@
       <c r="H2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="67" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7355,8 +7364,8 @@
       <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>9</v>
+      <c r="J3" s="67" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7387,7 +7396,7 @@
       <c r="I4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -7471,8 +7480,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="9.06666666666667" style="59"/>
-    <col min="4" max="7" width="9.06666666666667" style="59"/>
+    <col min="2" max="2" width="9.06666666666667" style="60"/>
+    <col min="4" max="7" width="9.06666666666667" style="60"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="67.125" customWidth="1"/>
   </cols>
@@ -7481,19 +7490,19 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>96</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7516,19 +7525,19 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="61" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="43" t="s">
@@ -7551,19 +7560,19 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -7586,16 +7595,16 @@
       <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="61">
-        <v>1</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="62">
+        <v>1</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="40" t="s">
         <v>111</v>
       </c>
@@ -7611,16 +7620,16 @@
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="62">
         <v>2</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="40" t="s">
         <v>115</v>
       </c>
@@ -7636,16 +7645,16 @@
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="62">
         <v>3</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="40" t="s">
         <v>118</v>
       </c>
@@ -7661,16 +7670,16 @@
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="62">
         <v>4</v>
       </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="1" t="s">
         <v>122</v>
       </c>
@@ -7686,16 +7695,16 @@
       <c r="A8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="62">
         <v>5</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="1" t="s">
         <v>126</v>
       </c>
@@ -7711,16 +7720,16 @@
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="62">
         <v>6</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="1" t="s">
         <v>130</v>
       </c>
@@ -7736,16 +7745,16 @@
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="62">
         <v>7</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="1" t="s">
         <v>134</v>
       </c>
@@ -7761,16 +7770,16 @@
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="62">
         <v>8</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="1" t="s">
         <v>138</v>
       </c>
@@ -7786,20 +7795,20 @@
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="61">
-        <v>1</v>
-      </c>
-      <c r="E12" s="61">
+      <c r="D12" s="62">
+        <v>1</v>
+      </c>
+      <c r="E12" s="62">
         <v>2</v>
       </c>
-      <c r="F12" s="61">
-        <v>0</v>
-      </c>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="62">
+        <v>0</v>
+      </c>
+      <c r="G12" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -7825,14 +7834,14 @@
       <c r="C13" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63">
         <v>2</v>
       </c>
-      <c r="F13" s="62">
-        <v>0</v>
-      </c>
-      <c r="G13" s="61"/>
+      <c r="F13" s="63">
+        <v>0</v>
+      </c>
+      <c r="G13" s="62"/>
       <c r="H13" s="47" t="s">
         <v>144</v>
       </c>
@@ -7854,14 +7863,14 @@
       <c r="C14" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64">
         <v>2</v>
       </c>
-      <c r="F14" s="63">
-        <v>1</v>
-      </c>
-      <c r="G14" s="61"/>
+      <c r="F14" s="64">
+        <v>1</v>
+      </c>
+      <c r="G14" s="62"/>
       <c r="H14" s="49" t="s">
         <v>144</v>
       </c>
@@ -7883,14 +7892,14 @@
       <c r="C15" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63">
-        <v>1</v>
-      </c>
-      <c r="F15" s="63">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64">
+        <v>1</v>
+      </c>
+      <c r="F15" s="64">
         <v>3</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="49" t="s">
         <v>144</v>
       </c>
@@ -7906,20 +7915,20 @@
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="61">
-        <v>1</v>
-      </c>
-      <c r="E16" s="61">
+      <c r="D16" s="62">
+        <v>1</v>
+      </c>
+      <c r="E16" s="62">
         <v>2</v>
       </c>
-      <c r="F16" s="61">
-        <v>0</v>
-      </c>
-      <c r="G16" s="61" t="s">
+      <c r="F16" s="62">
+        <v>0</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="40" t="s">
@@ -7945,14 +7954,14 @@
       <c r="C17" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64">
+      <c r="D17" s="65"/>
+      <c r="E17" s="65">
         <v>2</v>
       </c>
-      <c r="F17" s="64">
-        <v>0</v>
-      </c>
-      <c r="G17" s="61"/>
+      <c r="F17" s="65">
+        <v>0</v>
+      </c>
+      <c r="G17" s="62"/>
       <c r="H17" s="51" t="s">
         <v>144</v>
       </c>
@@ -7974,14 +7983,14 @@
       <c r="C18" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64">
+      <c r="D18" s="65"/>
+      <c r="E18" s="65">
         <v>2</v>
       </c>
-      <c r="F18" s="64">
-        <v>1</v>
-      </c>
-      <c r="G18" s="61"/>
+      <c r="F18" s="65">
+        <v>1</v>
+      </c>
+      <c r="G18" s="62"/>
       <c r="H18" s="51" t="s">
         <v>144</v>
       </c>
@@ -8003,14 +8012,14 @@
       <c r="C19" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64">
-        <v>1</v>
-      </c>
-      <c r="F19" s="64">
+      <c r="D19" s="65"/>
+      <c r="E19" s="65">
+        <v>1</v>
+      </c>
+      <c r="F19" s="65">
         <v>3</v>
       </c>
-      <c r="G19" s="61"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="51" t="s">
         <v>144</v>
       </c>
@@ -8022,7 +8031,7 @@
       </c>
       <c r="K19" s="51"/>
     </row>
-    <row r="20" s="58" customFormat="1" spans="1:11">
+    <row r="20" s="59" customFormat="1" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>160</v>
       </c>
@@ -8032,14 +8041,14 @@
       <c r="C20" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65">
-        <v>1</v>
-      </c>
-      <c r="F20" s="65">
-        <v>0</v>
-      </c>
-      <c r="G20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66">
+        <v>1</v>
+      </c>
+      <c r="F20" s="66">
+        <v>0</v>
+      </c>
+      <c r="G20" s="66"/>
       <c r="H20" s="53" t="s">
         <v>162</v>
       </c>
@@ -8051,7 +8060,7 @@
       </c>
       <c r="K20" s="53"/>
     </row>
-    <row r="21" s="58" customFormat="1" spans="1:11">
+    <row r="21" s="59" customFormat="1" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>163</v>
       </c>
@@ -8061,14 +8070,14 @@
       <c r="C21" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65">
-        <v>1</v>
-      </c>
-      <c r="F21" s="65">
-        <v>1</v>
-      </c>
-      <c r="G21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66">
+        <v>1</v>
+      </c>
+      <c r="F21" s="66">
+        <v>1</v>
+      </c>
+      <c r="G21" s="66"/>
       <c r="H21" s="53" t="s">
         <v>165</v>
       </c>
@@ -8080,7 +8089,7 @@
       </c>
       <c r="K21" s="53"/>
     </row>
-    <row r="22" s="58" customFormat="1" spans="1:11">
+    <row r="22" s="59" customFormat="1" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>166</v>
       </c>
@@ -8090,14 +8099,14 @@
       <c r="C22" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65">
-        <v>1</v>
-      </c>
-      <c r="F22" s="65">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66">
+        <v>1</v>
+      </c>
+      <c r="F22" s="66">
         <v>3</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="53" t="s">
         <v>168</v>
       </c>
@@ -8119,14 +8128,14 @@
       <c r="C23" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63">
-        <v>1</v>
-      </c>
-      <c r="F23" s="63">
-        <v>0</v>
-      </c>
-      <c r="G23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64">
+        <v>1</v>
+      </c>
+      <c r="F23" s="64">
+        <v>0</v>
+      </c>
+      <c r="G23" s="64"/>
       <c r="H23" s="49" t="s">
         <v>171</v>
       </c>
@@ -8148,14 +8157,14 @@
       <c r="C24" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63">
-        <v>1</v>
-      </c>
-      <c r="F24" s="63">
-        <v>1</v>
-      </c>
-      <c r="G24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64">
+        <v>1</v>
+      </c>
+      <c r="F24" s="64">
+        <v>1</v>
+      </c>
+      <c r="G24" s="64"/>
       <c r="H24" s="49" t="s">
         <v>174</v>
       </c>
@@ -8177,14 +8186,14 @@
       <c r="C25" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63">
-        <v>1</v>
-      </c>
-      <c r="F25" s="63">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64">
+        <v>1</v>
+      </c>
+      <c r="F25" s="64">
         <v>3</v>
       </c>
-      <c r="G25" s="63"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="49" t="s">
         <v>177</v>
       </c>
@@ -8206,14 +8215,14 @@
       <c r="C26" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63">
-        <v>1</v>
-      </c>
-      <c r="F26" s="63">
-        <v>0</v>
-      </c>
-      <c r="G26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64">
+        <v>1</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0</v>
+      </c>
+      <c r="G26" s="64"/>
       <c r="H26" s="49" t="s">
         <v>180</v>
       </c>
@@ -8235,14 +8244,14 @@
       <c r="C27" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63">
-        <v>1</v>
-      </c>
-      <c r="F27" s="63">
-        <v>1</v>
-      </c>
-      <c r="G27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64">
+        <v>1</v>
+      </c>
+      <c r="F27" s="64">
+        <v>1</v>
+      </c>
+      <c r="G27" s="64"/>
       <c r="H27" s="53" t="s">
         <v>168</v>
       </c>
@@ -8264,14 +8273,14 @@
       <c r="C28" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62">
-        <v>1</v>
-      </c>
-      <c r="F28" s="62">
+      <c r="D28" s="63"/>
+      <c r="E28" s="63">
+        <v>1</v>
+      </c>
+      <c r="F28" s="63">
         <v>3</v>
       </c>
-      <c r="G28" s="62"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="47" t="s">
         <v>185</v>
       </c>
@@ -8292,10 +8301,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8365,7 +8374,7 @@
       <c r="H2" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="58" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8398,120 +8407,118 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" s="54" customFormat="1" spans="1:9">
-      <c r="A4" s="56" t="s">
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="C4" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" s="54" customFormat="1" spans="1:9">
+      <c r="A5" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="56">
-        <v>1</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="5" s="54" customFormat="1" spans="1:9">
-      <c r="A5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="D5" s="57">
+        <v>1</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" s="54" customFormat="1" spans="1:9">
+      <c r="A6" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="56">
-        <v>1</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" s="54" customFormat="1" spans="1:9">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="D6" s="57">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" s="54" customFormat="1" spans="1:9">
+      <c r="A7" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="56">
-        <v>1</v>
-      </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="56"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="D7" s="57">
+        <v>1</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8524,13 +8531,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8543,10 +8550,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>220</v>
@@ -8557,8 +8564,27 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8590,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>15</v>
@@ -8616,25 +8642,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8693,7 +8719,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8708,12 +8734,12 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" s="41" customFormat="1" spans="1:8">
       <c r="A6" s="45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
@@ -8732,16 +8758,16 @@
         <v>8</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
       <c r="A7" s="45" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -8753,21 +8779,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -8782,15 +8808,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>125</v>
@@ -8806,18 +8832,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8830,18 +8856,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8854,15 +8880,15 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>121</v>
@@ -8878,18 +8904,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -8902,18 +8928,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -8926,18 +8952,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -8950,18 +8976,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -8974,7 +9000,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -8982,10 +9008,10 @@
         <v>142</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -8994,7 +9020,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="47" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9014,10 +9040,10 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I18" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9037,10 +9063,10 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="49" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" s="42" customFormat="1" spans="1:9">
@@ -9060,10 +9086,10 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" spans="1:9">
@@ -9083,10 +9109,10 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:9">
@@ -9106,10 +9132,10 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -9129,10 +9155,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I23" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -9152,10 +9178,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -9178,7 +9204,7 @@
         <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -9198,10 +9224,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I26" t="s">
         <v>284</v>
-      </c>
-      <c r="I26" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -9221,10 +9247,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="49" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9264,10 +9290,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="49" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I29" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -9290,7 +9316,7 @@
         <v>168</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9332,7 +9358,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9354,7 +9380,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -9384,22 +9410,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9407,22 +9433,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9450,10 +9476,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9468,15 +9494,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9491,15 +9517,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9514,15 +9540,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9537,12 +9563,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>19</v>
@@ -9560,15 +9586,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -9583,15 +9609,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -9606,15 +9632,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -9629,15 +9655,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -9652,15 +9678,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -9675,15 +9701,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -9698,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="558">
   <si>
     <t>ID</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>res://asserts/textures/cards/card_icons/card_strike.png</t>
-  </si>
-  <si>
-    <t>attack_01</t>
   </si>
   <si>
     <t>defense</t>
@@ -2885,7 +2882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3087,12 +3084,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3100,9 +3091,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -3555,67 +3543,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>352</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3627,82 +3615,82 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="X2" s="18" t="s">
+      <c r="Y2" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Z2" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="AA2" s="33" t="s">
         <v>372</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3793,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3848,17 +3836,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="73" t="s">
+      <c r="X4" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y4" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="23" t="s">
         <v>377</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3866,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -3922,16 +3910,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="AA5" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3939,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -3995,16 +3983,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="26" t="s">
         <v>384</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4012,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4068,16 +4056,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="26" t="s">
         <v>388</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4085,7 +4073,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4141,16 +4129,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="26" t="s">
         <v>392</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4158,7 +4146,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4214,16 +4202,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="26" t="s">
         <v>397</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4231,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4287,16 +4275,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="26" t="s">
         <v>402</v>
-      </c>
-      <c r="AA10" s="26" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4304,7 +4292,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4360,16 +4348,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="26" t="s">
         <v>406</v>
-      </c>
-      <c r="AA11" s="26" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4377,7 +4365,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4433,16 +4421,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="26" t="s">
         <v>411</v>
-      </c>
-      <c r="AA12" s="26" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4450,7 +4438,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4506,16 +4494,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="26" t="s">
         <v>415</v>
-      </c>
-      <c r="AA13" s="26" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4523,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4579,16 +4567,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="26" t="s">
         <v>420</v>
-      </c>
-      <c r="AA14" s="26" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4596,7 +4584,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4652,16 +4640,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="AA15" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4669,7 +4657,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4725,16 +4713,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="Z16" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="AA16" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4742,7 +4730,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4798,16 +4786,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y17" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="26" t="s">
         <v>433</v>
-      </c>
-      <c r="AA17" s="26" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4815,7 +4803,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4871,16 +4859,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="AA18" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4888,7 +4876,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -4944,16 +4932,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y19" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="AA19" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4961,7 +4949,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5017,16 +5005,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="Z20" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="AA20" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5034,7 +5022,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5090,16 +5078,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="AA21" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5107,7 +5095,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5163,16 +5151,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="26" t="s">
         <v>454</v>
-      </c>
-      <c r="AA22" s="26" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5180,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5236,16 +5224,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="26" t="s">
         <v>459</v>
-      </c>
-      <c r="AA23" s="26" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5253,7 +5241,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5309,16 +5297,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="26" t="s">
         <v>464</v>
-      </c>
-      <c r="AA24" s="26" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5326,7 +5314,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5382,16 +5370,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y25" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Z25" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="AA25" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5399,7 +5387,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5455,16 +5443,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y26" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="26" t="s">
         <v>473</v>
-      </c>
-      <c r="AA26" s="26" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5472,7 +5460,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5528,16 +5516,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y27" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="26" t="s">
         <v>478</v>
-      </c>
-      <c r="AA27" s="26" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5545,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5601,16 +5589,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="26" t="s">
         <v>483</v>
-      </c>
-      <c r="AA28" s="26" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5618,7 +5606,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5674,16 +5662,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="26" t="s">
         <v>488</v>
-      </c>
-      <c r="AA29" s="26" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5691,7 +5679,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5747,16 +5735,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="Z30" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="AA30" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5764,7 +5752,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5820,16 +5808,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="Z31" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="AA31" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5837,7 +5825,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5893,16 +5881,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AA32" s="26" t="s">
         <v>501</v>
-      </c>
-      <c r="AA32" s="26" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5910,7 +5898,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -5966,16 +5954,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y33" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AA33" s="26" t="s">
         <v>506</v>
-      </c>
-      <c r="AA33" s="26" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -5983,7 +5971,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6039,16 +6027,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y34" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="Z34" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="AA34" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6056,7 +6044,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6112,16 +6100,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y35" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AA35" s="26" t="s">
         <v>515</v>
-      </c>
-      <c r="AA35" s="26" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6129,7 +6117,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6185,16 +6173,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y36" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="26" t="s">
         <v>520</v>
-      </c>
-      <c r="AA36" s="26" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6202,7 +6190,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6258,16 +6246,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y37" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" s="26" t="s">
         <v>525</v>
-      </c>
-      <c r="AA37" s="26" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6275,7 +6263,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6331,16 +6319,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y38" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AA38" s="26" t="s">
         <v>530</v>
-      </c>
-      <c r="AA38" s="26" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6348,7 +6336,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6404,16 +6392,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y39" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Z39" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="AA39" s="26" t="s">
         <v>535</v>
-      </c>
-      <c r="AA39" s="26" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6421,7 +6409,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6477,16 +6465,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y40" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Z40" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="AA40" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6494,7 +6482,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6550,16 +6538,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y41" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="Y41" s="12" t="s">
+      <c r="Z41" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="Z41" s="12" t="s">
-        <v>544</v>
-      </c>
       <c r="AA41" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6593,7 +6581,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -6609,7 +6597,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6628,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6636,7 +6624,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6644,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6652,16 +6640,16 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>547</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
         <v>548</v>
-      </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I15" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6669,52 +6657,52 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>549</v>
+      </c>
+      <c r="F16" t="s">
+        <v>548</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
         <v>550</v>
-      </c>
-      <c r="F16" t="s">
-        <v>549</v>
-      </c>
-      <c r="H16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
+        <v>551</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" t="s">
         <v>552</v>
-      </c>
-      <c r="H17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
+        <v>553</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" t="s">
         <v>554</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -6728,7 +6716,7 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21">
         <f>IF('intent|意图'!F23='intent|意图'!F22,H20&amp;"*"&amp;'intent|意图'!D23,'intent|意图'!D23)</f>
@@ -6737,7 +6725,7 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H22">
         <f>IF('intent|意图'!F24='intent|意图'!F23,H21&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
@@ -6755,7 +6743,7 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24">
         <f>IF('intent|意图'!F17='intent|意图'!F25,H23&amp;"*"&amp;'intent|意图'!D17,'intent|意图'!D17)</f>
@@ -6764,7 +6752,7 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H25">
         <f>IF('intent|意图'!F18='intent|意图'!F17,H24&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
@@ -6773,7 +6761,7 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H26">
         <f>IF('intent|意图'!F19='intent|意图'!F18,H25&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
@@ -6782,7 +6770,7 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27">
         <f>IF('intent|意图'!F26='intent|意图'!F19,H26&amp;"*"&amp;'intent|意图'!D26,'intent|意图'!D26)</f>
@@ -6791,7 +6779,7 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H28">
         <f>IF('intent|意图'!F27='intent|意图'!F26,H27&amp;"*"&amp;'intent|意图'!D27,'intent|意图'!D27)</f>
@@ -6809,32 +6797,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +6855,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="69" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -6884,7 +6872,7 @@
       <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6901,7 +6889,7 @@
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -6918,7 +6906,7 @@
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="45">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -6935,10 +6923,10 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="45">
         <v>10</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6952,10 +6940,10 @@
       <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="45">
         <v>10</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6969,10 +6957,10 @@
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="45">
         <v>10</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6986,10 +6974,10 @@
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="45">
         <v>10</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7003,10 +6991,10 @@
       <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="45">
         <v>10</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7031,7 +7019,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="70" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="68" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -7049,7 +7037,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="69" customFormat="1" spans="1:5">
+    <row r="2" s="67" customFormat="1" spans="1:5">
       <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
@@ -7256,8 +7244,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7300,7 +7288,7 @@
       <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7332,7 +7320,7 @@
       <c r="I2" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7364,7 +7352,7 @@
       <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7391,19 +7379,19 @@
         <v>2</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="68"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -7412,30 +7400,30 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="40" t="s">
+      <c r="I5" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="J5" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -7444,22 +7432,22 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>89</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>90</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7491,31 +7479,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I1" s="55" t="s">
         <v>60</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>63</v>
@@ -7526,34 +7514,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="E2" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="F2" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>103</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="K2" s="55" t="s">
         <v>106</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7570,7 +7558,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="61" t="s">
         <v>21</v>
@@ -7593,11 +7581,11 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="62"/>
       <c r="C4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="62">
         <v>1</v>
@@ -7606,10 +7594,10 @@
       <c r="F4" s="62"/>
       <c r="G4" s="62"/>
       <c r="H4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="J4" s="1">
         <v>8</v>
@@ -7618,11 +7606,11 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="62">
         <v>2</v>
@@ -7631,10 +7619,10 @@
       <c r="F5" s="62"/>
       <c r="G5" s="62"/>
       <c r="H5" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>115</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>116</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -7643,11 +7631,11 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="62">
         <v>3</v>
@@ -7656,10 +7644,10 @@
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -7668,11 +7656,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="62">
         <v>4</v>
@@ -7681,10 +7669,10 @@
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -7693,11 +7681,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="62"/>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="62">
         <v>5</v>
@@ -7706,10 +7694,10 @@
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
       <c r="H8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -7718,11 +7706,11 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="62">
         <v>6</v>
@@ -7731,10 +7719,10 @@
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -7743,11 +7731,11 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="62">
         <v>7</v>
@@ -7756,10 +7744,10 @@
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7768,11 +7756,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="62">
         <v>8</v>
@@ -7781,10 +7769,10 @@
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
       <c r="H11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7793,11 +7781,11 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="62">
         <v>1</v>
@@ -7812,27 +7800,27 @@
         <v>14</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="63">
@@ -7843,10 +7831,10 @@
       </c>
       <c r="G13" s="62"/>
       <c r="H13" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="47" t="s">
         <v>144</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>145</v>
       </c>
       <c r="J13" s="47">
         <v>0</v>
@@ -7855,13 +7843,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64">
@@ -7872,10 +7860,10 @@
       </c>
       <c r="G14" s="62"/>
       <c r="H14" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="49">
         <v>0</v>
@@ -7884,13 +7872,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="64">
@@ -7901,10 +7889,10 @@
       </c>
       <c r="G15" s="62"/>
       <c r="H15" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J15" s="49">
         <v>0</v>
@@ -7913,11 +7901,11 @@
     </row>
     <row r="16" customFormat="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="62"/>
       <c r="C16" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="62">
         <v>1</v>
@@ -7932,27 +7920,27 @@
         <v>14</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="1">
         <v>8</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" s="42" customFormat="1" spans="1:11">
       <c r="A17" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="65"/>
       <c r="E17" s="65">
@@ -7963,10 +7951,10 @@
       </c>
       <c r="G17" s="62"/>
       <c r="H17" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="51">
         <v>0</v>
@@ -7975,13 +7963,13 @@
     </row>
     <row r="18" s="42" customFormat="1" spans="1:11">
       <c r="A18" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="65"/>
       <c r="E18" s="65">
@@ -7992,10 +7980,10 @@
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="51">
         <v>0</v>
@@ -8004,13 +7992,13 @@
     </row>
     <row r="19" s="42" customFormat="1" spans="1:11">
       <c r="A19" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="65">
@@ -8021,10 +8009,10 @@
       </c>
       <c r="G19" s="62"/>
       <c r="H19" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J19" s="51">
         <v>0</v>
@@ -8033,13 +8021,13 @@
     </row>
     <row r="20" s="59" customFormat="1" spans="1:11">
       <c r="A20" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="66">
@@ -8050,10 +8038,10 @@
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" s="53">
         <v>0</v>
@@ -8062,13 +8050,13 @@
     </row>
     <row r="21" s="59" customFormat="1" spans="1:11">
       <c r="A21" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="66">
@@ -8079,10 +8067,10 @@
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J21" s="53">
         <v>0</v>
@@ -8091,13 +8079,13 @@
     </row>
     <row r="22" s="59" customFormat="1" spans="1:11">
       <c r="A22" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66">
@@ -8108,10 +8096,10 @@
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" s="53">
         <v>0</v>
@@ -8120,13 +8108,13 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="64"/>
       <c r="E23" s="64">
@@ -8137,10 +8125,10 @@
       </c>
       <c r="G23" s="64"/>
       <c r="H23" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J23" s="49">
         <v>0</v>
@@ -8149,13 +8137,13 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="64"/>
       <c r="E24" s="64">
@@ -8166,10 +8154,10 @@
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J24" s="49">
         <v>0</v>
@@ -8178,13 +8166,13 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D25" s="64"/>
       <c r="E25" s="64">
@@ -8195,10 +8183,10 @@
       </c>
       <c r="G25" s="64"/>
       <c r="H25" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J25" s="49">
         <v>0</v>
@@ -8207,13 +8195,13 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64">
@@ -8224,10 +8212,10 @@
       </c>
       <c r="G26" s="64"/>
       <c r="H26" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" s="49">
         <v>0</v>
@@ -8236,13 +8224,13 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64">
@@ -8253,10 +8241,10 @@
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J27" s="49">
         <v>0</v>
@@ -8265,13 +8253,13 @@
     </row>
     <row r="28" s="41" customFormat="1" spans="1:11">
       <c r="A28" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="63"/>
       <c r="E28" s="63">
@@ -8282,10 +8270,10 @@
       </c>
       <c r="G28" s="63"/>
       <c r="H28" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" s="47">
         <v>0</v>
@@ -8303,7 +8291,7 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8331,16 +8319,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="H1" s="55" t="s">
         <v>60</v>
@@ -8354,25 +8342,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="55" t="s">
         <v>194</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>195</v>
       </c>
       <c r="I2" s="58" t="s">
         <v>72</v>
@@ -8389,7 +8377,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
@@ -8409,13 +8397,13 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>198</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -8426,13 +8414,13 @@
     </row>
     <row r="5" s="54" customFormat="1" spans="1:9">
       <c r="A5" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="C5" s="57" t="s">
         <v>200</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>201</v>
       </c>
       <c r="D5" s="57">
         <v>1</v>
@@ -8445,13 +8433,13 @@
     </row>
     <row r="6" s="54" customFormat="1" spans="1:9">
       <c r="A6" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="C6" s="57" t="s">
         <v>203</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>204</v>
       </c>
       <c r="D6" s="57">
         <v>1</v>
@@ -8464,13 +8452,13 @@
     </row>
     <row r="7" s="54" customFormat="1" spans="1:9">
       <c r="A7" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="C7" s="57" t="s">
         <v>206</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>207</v>
       </c>
       <c r="D7" s="57">
         <v>1</v>
@@ -8483,13 +8471,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -8504,21 +8492,21 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8531,13 +8519,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8550,13 +8538,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8569,13 +8557,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -8616,22 +8604,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>15</v>
@@ -8642,25 +8630,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8715,11 +8703,11 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8734,16 +8722,16 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" s="41" customFormat="1" spans="1:8">
       <c r="A6" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="45">
         <v>0</v>
@@ -8758,16 +8746,16 @@
         <v>8</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
       <c r="A7" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="45">
         <v>0</v>
@@ -8779,21 +8767,21 @@
         <v>3</v>
       </c>
       <c r="G7" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="45" t="s">
         <v>240</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -8808,18 +8796,18 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8832,18 +8820,18 @@
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8856,18 +8844,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8880,18 +8868,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -8904,18 +8892,18 @@
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -8928,18 +8916,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -8952,18 +8940,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -8976,18 +8964,18 @@
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -9000,18 +8988,18 @@
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -9020,18 +9008,18 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>147</v>
-      </c>
       <c r="C18" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -9040,21 +9028,21 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" t="s">
         <v>274</v>
-      </c>
-      <c r="I18" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>150</v>
-      </c>
       <c r="C19" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -9063,21 +9051,21 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19" t="s">
         <v>276</v>
-      </c>
-      <c r="I19" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="20" s="42" customFormat="1" spans="1:9">
       <c r="A20" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>154</v>
-      </c>
       <c r="C20" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="51">
         <v>0</v>
@@ -9086,21 +9074,21 @@
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" s="42" t="s">
         <v>278</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" s="42" customFormat="1" spans="1:9">
       <c r="A21" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>157</v>
-      </c>
       <c r="C21" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="51">
         <v>0</v>
@@ -9109,21 +9097,21 @@
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" s="42" customFormat="1" spans="1:9">
       <c r="A22" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>159</v>
-      </c>
       <c r="C22" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="51">
         <v>0</v>
@@ -9132,21 +9120,21 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="42" t="s">
         <v>281</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="53" t="s">
-        <v>161</v>
-      </c>
       <c r="C23" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -9155,21 +9143,21 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I23" t="s">
         <v>283</v>
-      </c>
-      <c r="I23" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="53" t="s">
-        <v>164</v>
-      </c>
       <c r="C24" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -9178,21 +9166,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>167</v>
-      </c>
       <c r="C25" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -9201,21 +9189,21 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>170</v>
-      </c>
       <c r="C26" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -9224,21 +9212,21 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>173</v>
-      </c>
       <c r="C27" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -9247,21 +9235,21 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="I27" t="s">
         <v>287</v>
-      </c>
-      <c r="I27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>176</v>
-      </c>
       <c r="C28" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -9270,18 +9258,18 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="49" t="s">
-        <v>179</v>
-      </c>
       <c r="C29" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -9290,21 +9278,21 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>182</v>
-      </c>
       <c r="C30" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -9313,21 +9301,21 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="B31" s="47" t="s">
-        <v>184</v>
-      </c>
       <c r="C31" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -9336,12 +9324,12 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="40"/>
@@ -9358,12 +9346,12 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="40"/>
@@ -9380,7 +9368,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -9410,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>295</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9433,22 +9421,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9459,16 +9447,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>9</v>
@@ -9476,10 +9464,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>302</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>303</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9494,15 +9482,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>306</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9517,15 +9505,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9540,15 +9528,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>311</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>312</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9563,12 +9551,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>19</v>
@@ -9586,145 +9574,145 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="39">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>317</v>
-      </c>
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="C10" s="39">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>320</v>
-      </c>
-      <c r="C10" s="39">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="39">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>322</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="39">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="39">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>324</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="39">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C13" s="39">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>327</v>
-      </c>
-      <c r="C13" s="39">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="C14" s="39">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>330</v>
-      </c>
-      <c r="C14" s="39">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="buff|增益" sheetId="39" r:id="rId7"/>
     <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId8"/>
     <sheet name="attribute|属性" sheetId="35" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
-    <sheet name="sheet2" sheetId="30" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="sheet" sheetId="30" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'monster|魔物'!$A$1:$B$4</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="552">
   <si>
     <t>ID</t>
   </si>
@@ -195,10 +195,10 @@
     <t>意图池</t>
   </si>
   <si>
-    <t>split*absorb*entangle*attack_5</t>
-  </si>
-  <si>
-    <t>toxin_spray*healing_spore*hallucinogenic_spore*attack_8</t>
+    <t>split*attack_5</t>
+  </si>
+  <si>
+    <t>toxin_spray*attack_8</t>
   </si>
   <si>
     <t>heavy_strike*bone_shield*summon_assistance</t>
@@ -473,55 +473,31 @@
     <t>split</t>
   </si>
   <si>
-    <t>脆弱</t>
+    <t>增益法术</t>
+  </si>
+  <si>
+    <t>敌人打算释放一个正面效果的法术</t>
+  </si>
+  <si>
+    <t>res://asserts/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
+  </si>
+  <si>
+    <t>attack_8</t>
+  </si>
+  <si>
+    <t>敌人打算进行攻击,造成8点伤害</t>
+  </si>
+  <si>
+    <t>toxin_spray</t>
+  </si>
+  <si>
+    <t>攻击法术</t>
   </si>
   <si>
     <t>敌人打算释放一个负面效果的法术</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
-  </si>
-  <si>
-    <t>absorb</t>
-  </si>
-  <si>
-    <t>吸收</t>
-  </si>
-  <si>
-    <t>res://asserts/textures/widgets/Buffs/summoning_spell.png</t>
-  </si>
-  <si>
-    <t>entangle</t>
-  </si>
-  <si>
-    <t>缠绕</t>
-  </si>
-  <si>
-    <t>attack_8</t>
-  </si>
-  <si>
-    <t>敌人打算进行攻击,造成8点伤害</t>
-  </si>
-  <si>
-    <t>toxin_spray</t>
-  </si>
-  <si>
-    <t>毒素喷射</t>
-  </si>
-  <si>
     <t>res://asserts/textures/widgets/Buffs/poisoned.png</t>
-  </si>
-  <si>
-    <t>healing_spore</t>
-  </si>
-  <si>
-    <t>治疗孢子</t>
-  </si>
-  <si>
-    <t>hallucinogenic_spore</t>
-  </si>
-  <si>
-    <t>迷幻孢子</t>
   </si>
   <si>
     <t>destruction_ray</t>
@@ -724,6 +700,9 @@
     <t>entangled</t>
   </si>
   <si>
+    <t>缠绕</t>
+  </si>
+  <si>
     <t>目标在下一个回合无法攻击</t>
   </si>
   <si>
@@ -797,6 +776,21 @@
     <t>给与2层易伤</t>
   </si>
   <si>
+    <t>造成5点伤害</t>
+  </si>
+  <si>
+    <t>防护</t>
+  </si>
+  <si>
+    <t>自身获得5点护盾</t>
+  </si>
+  <si>
+    <t>毒素喷雾</t>
+  </si>
+  <si>
+    <t>造成2回合易伤BUFF</t>
+  </si>
+  <si>
     <t>易伤（Vulnerable）</t>
   </si>
   <si>
@@ -887,31 +881,22 @@
     <t>目标在下一回合无法行动。</t>
   </si>
   <si>
-    <t>分裂</t>
-  </si>
-  <si>
-    <t>史莱姆分裂成两个较小的实体，增加战斗中的敌人数量。</t>
-  </si>
-  <si>
-    <t>回复一定量的生命值，吸收的量取决于其当前生命值。</t>
+    <t>healing_spore</t>
+  </si>
+  <si>
+    <t>治疗孢子</t>
+  </si>
+  <si>
+    <t>所有人恢复10点生命值。</t>
   </si>
   <si>
     <t>恢复</t>
   </si>
   <si>
-    <t>减少玩家下一回合的行动点数。</t>
-  </si>
-  <si>
-    <t>减少行动点数</t>
-  </si>
-  <si>
-    <t>造成持续性的毒素伤害。</t>
-  </si>
-  <si>
-    <t>放毒</t>
-  </si>
-  <si>
-    <t>所有人恢复10点生命值。</t>
+    <t>hallucinogenic_spore</t>
+  </si>
+  <si>
+    <t>迷幻孢子</t>
   </si>
   <si>
     <t>玩家获得“混乱”卡牌。</t>
@@ -939,9 +924,6 @@
   </si>
   <si>
     <t>造成15点伤害</t>
-  </si>
-  <si>
-    <t>造成5点伤害</t>
   </si>
   <si>
     <t>Name</t>
@@ -2060,7 +2042,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2075,7 +2057,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,13 +2093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,7 +2764,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2782,16 +2788,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2800,25 +2806,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2881,8 +2875,20 @@
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3012,6 +3018,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3021,22 +3033,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3045,7 +3063,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3054,13 +3090,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3072,16 +3114,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3543,67 +3600,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>351</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -3615,82 +3672,82 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="R2" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="W2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Y2" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Z2" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="AA2" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -3781,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
@@ -3836,17 +3893,17 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="70" t="s">
-        <v>374</v>
+      <c r="X4" s="87" t="s">
+        <v>368</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -3854,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -3910,16 +3967,16 @@
       <c r="V5" s="1"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -3927,7 +3984,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -3983,16 +4040,16 @@
       <c r="V6" s="1"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4000,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -4056,16 +4113,16 @@
       <c r="V7" s="1"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4073,7 +4130,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -4129,16 +4186,16 @@
       <c r="V8" s="1"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4146,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1">
         <v>10</v>
@@ -4202,16 +4259,16 @@
       <c r="V9" s="1"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4219,7 +4276,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
@@ -4275,16 +4332,16 @@
       <c r="V10" s="1"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4292,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -4348,16 +4405,16 @@
       <c r="V11" s="1"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -4365,7 +4422,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -4421,16 +4478,16 @@
       <c r="V12" s="1"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -4438,7 +4495,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -4494,16 +4551,16 @@
       <c r="V13" s="1"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -4511,7 +4568,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C14" s="1">
         <v>10</v>
@@ -4567,16 +4624,16 @@
       <c r="V14" s="1"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -4584,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -4640,16 +4697,16 @@
       <c r="V15" s="1"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -4657,7 +4714,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -4713,16 +4770,16 @@
       <c r="V16" s="1"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -4730,7 +4787,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1">
         <v>10</v>
@@ -4786,16 +4843,16 @@
       <c r="V17" s="1"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -4803,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -4859,16 +4916,16 @@
       <c r="V18" s="1"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -4876,7 +4933,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -4932,16 +4989,16 @@
       <c r="V19" s="1"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -4949,7 +5006,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -5005,16 +5062,16 @@
       <c r="V20" s="1"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5022,7 +5079,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
@@ -5078,16 +5135,16 @@
       <c r="V21" s="1"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5095,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -5151,16 +5208,16 @@
       <c r="V22" s="1"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5168,7 +5225,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -5224,16 +5281,16 @@
       <c r="V23" s="1"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5241,7 +5298,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -5297,16 +5354,16 @@
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5314,7 +5371,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -5370,16 +5427,16 @@
       <c r="V25" s="1"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -5387,7 +5444,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C26" s="1">
         <v>10</v>
@@ -5443,16 +5500,16 @@
       <c r="V26" s="1"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -5460,7 +5517,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C27" s="1">
         <v>10</v>
@@ -5516,16 +5573,16 @@
       <c r="V27" s="1"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -5533,7 +5590,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -5589,16 +5646,16 @@
       <c r="V28" s="1"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -5606,7 +5663,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -5662,16 +5719,16 @@
       <c r="V29" s="1"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -5679,7 +5736,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -5735,16 +5792,16 @@
       <c r="V30" s="1"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -5752,7 +5809,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -5808,16 +5865,16 @@
       <c r="V31" s="1"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -5825,7 +5882,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -5881,16 +5938,16 @@
       <c r="V32" s="1"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -5898,7 +5955,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
@@ -5954,16 +6011,16 @@
       <c r="V33" s="1"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -5971,7 +6028,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C34" s="1">
         <v>10</v>
@@ -6027,16 +6084,16 @@
       <c r="V34" s="1"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6044,7 +6101,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C35" s="1">
         <v>10</v>
@@ -6100,16 +6157,16 @@
       <c r="V35" s="1"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6117,7 +6174,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C36" s="1">
         <v>10</v>
@@ -6173,16 +6230,16 @@
       <c r="V36" s="1"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6190,7 +6247,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C37" s="1">
         <v>10</v>
@@ -6246,16 +6303,16 @@
       <c r="V37" s="1"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6263,7 +6320,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C38" s="1">
         <v>10</v>
@@ -6319,16 +6376,16 @@
       <c r="V38" s="1"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6336,7 +6393,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C39" s="1">
         <v>10</v>
@@ -6392,16 +6449,16 @@
       <c r="V39" s="1"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -6409,7 +6466,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -6465,16 +6522,16 @@
       <c r="V40" s="1"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -6482,7 +6539,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -6538,16 +6595,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6562,7 +6619,7 @@
   <dimension ref="A7:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J15:J19"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6616,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6624,7 +6681,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6632,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6640,7 +6697,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F15" t="s">
         <v>141</v>
@@ -6649,7 +6706,7 @@
         <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6657,52 +6714,52 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F16" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -6710,25 +6767,25 @@
         <v>54</v>
       </c>
       <c r="H20">
-        <f>IF('intent|意图'!F22='intent|意图'!F21,#REF!&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
+        <f>IF('intent|意图'!F18='intent|意图'!F17,#REF!&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H21">
-        <f>IF('intent|意图'!F23='intent|意图'!F22,H20&amp;"*"&amp;'intent|意图'!D23,'intent|意图'!D23)</f>
+        <f>IF('intent|意图'!F19='intent|意图'!F18,H20&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H22">
-        <f>IF('intent|意图'!F24='intent|意图'!F23,H21&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
+        <f>IF('intent|意图'!F20='intent|意图'!F19,H21&amp;"*"&amp;'intent|意图'!D20,'intent|意图'!D20)</f>
         <v>0</v>
       </c>
     </row>
@@ -6737,52 +6794,52 @@
         <v>55</v>
       </c>
       <c r="H23">
-        <f>IF('intent|意图'!F25='intent|意图'!F24,H22&amp;"*"&amp;'intent|意图'!D25,'intent|意图'!D25)</f>
+        <f>IF('intent|意图'!F21='intent|意图'!F20,H22&amp;"*"&amp;'intent|意图'!D21,'intent|意图'!D21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H24">
-        <f>IF('intent|意图'!F17='intent|意图'!F25,H23&amp;"*"&amp;'intent|意图'!D17,'intent|意图'!D17)</f>
-        <v>0</v>
+        <f>IF('intent|意图'!F15='intent|意图'!F21,H23&amp;"*"&amp;'intent|意图'!D15,'intent|意图'!D15)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>554</v>
-      </c>
-      <c r="H25">
-        <f>IF('intent|意图'!F18='intent|意图'!F17,H24&amp;"*"&amp;'intent|意图'!D18,'intent|意图'!D18)</f>
-        <v>0</v>
+        <v>548</v>
+      </c>
+      <c r="H25" t="e">
+        <f>IF('intent|意图'!#REF!='intent|意图'!F15,H24&amp;"*"&amp;'intent|意图'!#REF!,'intent|意图'!#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>556</v>
-      </c>
-      <c r="H26">
-        <f>IF('intent|意图'!F19='intent|意图'!F18,H25&amp;"*"&amp;'intent|意图'!D19,'intent|意图'!D19)</f>
-        <v>0</v>
+        <v>550</v>
+      </c>
+      <c r="H26" t="e">
+        <f>IF('intent|意图'!#REF!='intent|意图'!#REF!,H25&amp;"*"&amp;'intent|意图'!#REF!,'intent|意图'!#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27">
-        <f>IF('intent|意图'!F26='intent|意图'!F19,H26&amp;"*"&amp;'intent|意图'!D26,'intent|意图'!D26)</f>
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="H27" t="e">
+        <f>IF('intent|意图'!F22='intent|意图'!#REF!,H26&amp;"*"&amp;'intent|意图'!D22,'intent|意图'!D22)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H28">
-        <f>IF('intent|意图'!F27='intent|意图'!F26,H27&amp;"*"&amp;'intent|意图'!D27,'intent|意图'!D27)</f>
+        <f>IF('intent|意图'!F23='intent|意图'!F22,H27&amp;"*"&amp;'intent|意图'!D23,'intent|意图'!D23)</f>
         <v>0</v>
       </c>
     </row>
@@ -6791,38 +6848,38 @@
         <v>53</v>
       </c>
       <c r="H29">
-        <f>IF('intent|意图'!F28='intent|意图'!F27,H28&amp;"*"&amp;'intent|意图'!D28,'intent|意图'!D28)</f>
+        <f>IF('intent|意图'!F24='intent|意图'!F23,H28&amp;"*"&amp;'intent|意图'!D24,'intent|意图'!D24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +6912,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="86" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -6863,16 +6920,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="86" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6889,7 +6946,7 @@
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="86" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -6906,7 +6963,7 @@
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="47">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -6923,7 +6980,7 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="47">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -6940,7 +6997,7 @@
       <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -6957,7 +7014,7 @@
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="47">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -6974,7 +7031,7 @@
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="47">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -6991,7 +7048,7 @@
       <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="47">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7019,7 +7076,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="68" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="85" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
     <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
   </cols>
@@ -7037,20 +7094,20 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="67" customFormat="1" spans="1:5">
-      <c r="A2" s="43" t="s">
+    <row r="2" s="84" customFormat="1" spans="1:5">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="45" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7104,7 +7161,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -7244,8 +7301,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7293,31 +7350,31 @@
       </c>
     </row>
     <row r="2" ht="54" spans="1:10">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="68" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -7459,17 +7516,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="9.06666666666667" style="60"/>
-    <col min="4" max="7" width="9.06666666666667" style="60"/>
+    <col min="2" max="2" width="9.06666666666667" style="72"/>
+    <col min="4" max="7" width="9.06666666666667" style="72"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="67.125" customWidth="1"/>
   </cols>
@@ -7478,34 +7535,34 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="73" t="s">
         <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="73" t="s">
         <v>95</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="65" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7513,34 +7570,34 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="73" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="65" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7548,34 +7605,34 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="73" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="73" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="65" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7583,16 +7640,16 @@
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="62">
-        <v>1</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="74">
+        <v>1</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="40" t="s">
         <v>110</v>
       </c>
@@ -7608,16 +7665,16 @@
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="74">
         <v>2</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="40" t="s">
         <v>114</v>
       </c>
@@ -7633,16 +7690,16 @@
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="74">
         <v>3</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="40" t="s">
         <v>117</v>
       </c>
@@ -7658,16 +7715,16 @@
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="74">
         <v>4</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="1" t="s">
         <v>121</v>
       </c>
@@ -7683,16 +7740,16 @@
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="74">
         <v>5</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="1" t="s">
         <v>125</v>
       </c>
@@ -7708,16 +7765,16 @@
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="74">
         <v>6</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="1" t="s">
         <v>129</v>
       </c>
@@ -7733,16 +7790,16 @@
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="74">
         <v>7</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="1" t="s">
         <v>133</v>
       </c>
@@ -7758,16 +7815,16 @@
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="74">
         <v>8</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="1" t="s">
         <v>137</v>
       </c>
@@ -7779,506 +7836,406 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="69" customFormat="1" spans="1:11">
+      <c r="A12" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="62">
-        <v>1</v>
-      </c>
-      <c r="E12" s="62">
+      <c r="D12" s="75">
+        <v>1</v>
+      </c>
+      <c r="E12" s="75">
+        <v>1</v>
+      </c>
+      <c r="F12" s="75">
+        <v>0</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="49">
+        <v>5</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" s="69" customFormat="1" spans="1:11">
+      <c r="A13" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="76">
+        <v>3</v>
+      </c>
+      <c r="E13" s="76">
+        <v>5</v>
+      </c>
+      <c r="F13" s="76">
         <v>2</v>
       </c>
-      <c r="F12" s="62">
-        <v>0</v>
-      </c>
-      <c r="G12" s="62" t="s">
+      <c r="G13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H13" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="51">
+        <v>0</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" s="70" customFormat="1" spans="1:11">
+      <c r="A14" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="79">
+        <v>1</v>
+      </c>
+      <c r="E14" s="79">
+        <v>1</v>
+      </c>
+      <c r="F14" s="79">
+        <v>0</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J14" s="77">
+        <v>8</v>
+      </c>
+      <c r="K14" s="77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" s="70" customFormat="1" spans="1:11">
+      <c r="A15" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="79">
         <v>5</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63">
+      <c r="E15" s="79">
+        <v>1</v>
+      </c>
+      <c r="F15" s="79">
         <v>2</v>
       </c>
-      <c r="F13" s="63">
-        <v>0</v>
-      </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="47">
-        <v>0</v>
-      </c>
-      <c r="K13" s="49"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64">
-        <v>2</v>
-      </c>
-      <c r="F14" s="64">
-        <v>1</v>
-      </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="49" t="s">
+      <c r="G15" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" s="77">
+        <v>0</v>
+      </c>
+      <c r="K15" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="49">
-        <v>0</v>
-      </c>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64">
-        <v>1</v>
-      </c>
-      <c r="F15" s="64">
+    </row>
+    <row r="16" s="71" customFormat="1" spans="1:11">
+      <c r="A16" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81">
+        <v>1</v>
+      </c>
+      <c r="F16" s="81">
+        <v>0</v>
+      </c>
+      <c r="G16" s="81"/>
+      <c r="H16" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="59">
+        <v>0</v>
+      </c>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" s="71" customFormat="1" spans="1:11">
+      <c r="A17" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81">
+        <v>1</v>
+      </c>
+      <c r="F17" s="81">
+        <v>1</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" s="71" customFormat="1" spans="1:11">
+      <c r="A18" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81">
+        <v>1</v>
+      </c>
+      <c r="F18" s="81">
         <v>3</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="49">
-        <v>0</v>
-      </c>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="62">
-        <v>1</v>
-      </c>
-      <c r="E16" s="62">
-        <v>2</v>
-      </c>
-      <c r="F16" s="62">
-        <v>0</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="1">
-        <v>8</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" s="42" customFormat="1" spans="1:11">
-      <c r="A17" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65">
-        <v>2</v>
-      </c>
-      <c r="F17" s="65">
-        <v>0</v>
-      </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="J17" s="51">
-        <v>0</v>
-      </c>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" s="42" customFormat="1" spans="1:11">
-      <c r="A18" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65">
-        <v>2</v>
-      </c>
-      <c r="F18" s="65">
-        <v>1</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="51">
-        <v>0</v>
-      </c>
-      <c r="K18" s="51"/>
-    </row>
-    <row r="19" s="42" customFormat="1" spans="1:11">
-      <c r="A19" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65">
-        <v>1</v>
-      </c>
-      <c r="F19" s="65">
+      <c r="G18" s="81"/>
+      <c r="H18" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="59">
+        <v>0</v>
+      </c>
+      <c r="K18" s="59"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82">
+        <v>1</v>
+      </c>
+      <c r="F19" s="82">
+        <v>0</v>
+      </c>
+      <c r="G19" s="82"/>
+      <c r="H19" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="61">
+        <v>0</v>
+      </c>
+      <c r="K19" s="61"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82">
+        <v>1</v>
+      </c>
+      <c r="F20" s="82">
+        <v>1</v>
+      </c>
+      <c r="G20" s="82"/>
+      <c r="H20" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" s="61">
+        <v>0</v>
+      </c>
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82">
+        <v>1</v>
+      </c>
+      <c r="F21" s="82">
         <v>3</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="51">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51"/>
-    </row>
-    <row r="20" s="59" customFormat="1" spans="1:11">
-      <c r="A20" s="52" t="s">
+      <c r="G21" s="82"/>
+      <c r="H21" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" s="61">
+        <v>0</v>
+      </c>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82">
+        <v>1</v>
+      </c>
+      <c r="F22" s="82">
+        <v>0</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="61">
+        <v>0</v>
+      </c>
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82">
+        <v>1</v>
+      </c>
+      <c r="F23" s="82">
+        <v>1</v>
+      </c>
+      <c r="G23" s="82"/>
+      <c r="H23" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66">
-        <v>1</v>
-      </c>
-      <c r="F20" s="66">
-        <v>0</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="I20" s="53" t="s">
+      <c r="I23" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="53">
-        <v>0</v>
-      </c>
-      <c r="K20" s="53"/>
-    </row>
-    <row r="21" s="59" customFormat="1" spans="1:11">
-      <c r="A21" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66">
-        <v>1</v>
-      </c>
-      <c r="F21" s="66">
-        <v>1</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="53" t="s">
+      <c r="J23" s="61">
+        <v>0</v>
+      </c>
+      <c r="K23" s="61"/>
+    </row>
+    <row r="24" s="41" customFormat="1" spans="1:11">
+      <c r="A24" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83">
+        <v>1</v>
+      </c>
+      <c r="F24" s="83">
+        <v>3</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="53">
-        <v>0</v>
-      </c>
-      <c r="K21" s="53"/>
-    </row>
-    <row r="22" s="59" customFormat="1" spans="1:11">
-      <c r="A22" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66">
-        <v>1</v>
-      </c>
-      <c r="F22" s="66">
-        <v>3</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="53">
-        <v>0</v>
-      </c>
-      <c r="K22" s="53"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64">
-        <v>1</v>
-      </c>
-      <c r="F23" s="64">
-        <v>0</v>
-      </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="49">
-        <v>0</v>
-      </c>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64">
-        <v>1</v>
-      </c>
-      <c r="F24" s="64">
-        <v>1</v>
-      </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" s="49">
-        <v>0</v>
-      </c>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64">
-        <v>1</v>
-      </c>
-      <c r="F25" s="64">
-        <v>3</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="49">
-        <v>0</v>
-      </c>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64">
-        <v>1</v>
-      </c>
-      <c r="F26" s="64">
-        <v>0</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="49">
-        <v>0</v>
-      </c>
-      <c r="K26" s="49"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64">
-        <v>1</v>
-      </c>
-      <c r="F27" s="64">
-        <v>1</v>
-      </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="49">
-        <v>0</v>
-      </c>
-      <c r="K27" s="49"/>
-    </row>
-    <row r="28" s="41" customFormat="1" spans="1:11">
-      <c r="A28" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63">
-        <v>1</v>
-      </c>
-      <c r="F28" s="63">
-        <v>3</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="47">
-        <v>0</v>
-      </c>
-      <c r="K28" s="47"/>
+      <c r="J24" s="62">
+        <v>0</v>
+      </c>
+      <c r="K24" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8319,18 +8276,18 @@
         <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="65" t="s">
         <v>60</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -8338,31 +8295,31 @@
       </c>
     </row>
     <row r="2" ht="148.5" spans="1:9">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>189</v>
+      <c r="B2" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="68" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8377,7 +8334,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>21</v>
@@ -8388,7 +8345,7 @@
       <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="65" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -8400,84 +8357,84 @@
         <v>85</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="56"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" s="54" customFormat="1" spans="1:9">
-      <c r="A5" s="57" t="s">
+    <row r="5" s="64" customFormat="1" spans="1:9">
+      <c r="A5" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="67"/>
+    </row>
+    <row r="6" s="64" customFormat="1" spans="1:9">
+      <c r="A6" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="67">
+        <v>1</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="67"/>
+    </row>
+    <row r="7" s="64" customFormat="1" spans="1:9">
+      <c r="A7" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="57">
-        <v>1</v>
-      </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" s="54" customFormat="1" spans="1:9">
-      <c r="A6" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="57">
-        <v>1</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" s="54" customFormat="1" spans="1:9">
-      <c r="A7" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="57">
-        <v>1</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="67">
+        <v>1</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="57"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -8492,21 +8449,21 @@
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -8519,13 +8476,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -8538,13 +8495,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -8557,13 +8514,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -8571,7 +8528,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="1"/>
     </row>
   </sheetData>
@@ -8583,10 +8540,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8604,51 +8561,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="81" spans="1:8">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>231</v>
+      <c r="F2" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8707,7 +8664,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="40" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -8722,212 +8679,212 @@
         <v>5</v>
       </c>
       <c r="H5" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" s="41" customFormat="1" spans="1:8">
+      <c r="A6" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1</v>
+      </c>
+      <c r="G6" s="47">
+        <v>8</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" s="41" customFormat="1" spans="1:8">
+      <c r="A7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0</v>
+      </c>
+      <c r="F7" s="47">
+        <v>3</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="48">
+        <v>5</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" s="41" customFormat="1" spans="1:8">
-      <c r="A6" s="45" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45">
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>2</v>
+      </c>
+      <c r="G9" s="49">
+        <v>5</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" s="42" customFormat="1" spans="1:8">
+      <c r="A10" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0</v>
+      </c>
+      <c r="F10" s="53">
+        <v>1</v>
+      </c>
+      <c r="G10" s="52">
         <v>8</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" s="41" customFormat="1" spans="1:8">
-      <c r="A7" s="45" t="s">
+      <c r="H10" s="53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" s="43" customFormat="1" spans="1:8">
+      <c r="A11" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
+      <c r="D11" s="53">
+        <v>0</v>
+      </c>
+      <c r="E11" s="53">
+        <v>0</v>
+      </c>
+      <c r="F11" s="53">
+        <v>3</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="53" t="s">
         <v>238</v>
-      </c>
-      <c r="D7" s="45">
-        <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
-        <v>3</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1">
-        <v>6</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>258</v>
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -8937,45 +8894,45 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -8985,156 +8942,163 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
         <v>9</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" s="44" customFormat="1" spans="1:9">
+      <c r="A21" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="47" t="s">
+      <c r="C21" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="57">
+        <v>0</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="47" t="s">
+      <c r="I21" s="44" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="49" t="s">
+    <row r="22" s="44" customFormat="1" spans="1:9">
+      <c r="A22" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="I18" t="s">
+      <c r="B22" s="57" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="49" t="s">
+      <c r="C22" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="57">
+        <v>0</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I22" s="44" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" s="42" customFormat="1" spans="1:9">
-      <c r="A20" s="50" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" s="42" customFormat="1" spans="1:9">
-      <c r="A21" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" s="42" customFormat="1" spans="1:9">
-      <c r="A22" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>160</v>
+      <c r="C23" s="59" t="s">
+        <v>152</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -9142,22 +9106,22 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="53" t="s">
-        <v>282</v>
+      <c r="H23" s="59" t="s">
+        <v>277</v>
       </c>
       <c r="I23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>163</v>
+      <c r="A24" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>155</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -9166,21 +9130,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>166</v>
+      <c r="A25" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>158</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -9188,22 +9152,22 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="53" t="s">
-        <v>167</v>
+      <c r="H25" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>169</v>
+      <c r="A26" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>161</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -9211,22 +9175,22 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="49" t="s">
-        <v>285</v>
+      <c r="H26" s="61" t="s">
+        <v>280</v>
       </c>
       <c r="I26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>172</v>
+      <c r="A27" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>164</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -9234,22 +9198,22 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="49" t="s">
-        <v>286</v>
+      <c r="H27" s="61" t="s">
+        <v>281</v>
       </c>
       <c r="I27" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>175</v>
+      <c r="A28" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>167</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -9257,19 +9221,19 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="47" t="s">
-        <v>176</v>
+      <c r="H28" s="62" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>178</v>
+      <c r="A29" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>170</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -9277,22 +9241,22 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="49" t="s">
-        <v>288</v>
+      <c r="H29" s="61" t="s">
+        <v>283</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>181</v>
+      <c r="A30" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>173</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -9300,22 +9264,22 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="53" t="s">
-        <v>167</v>
+      <c r="H30" s="59" t="s">
+        <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>183</v>
+      <c r="A31" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>175</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -9323,52 +9287,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="40">
-        <v>8</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>236</v>
+      <c r="H31" s="62" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9398,22 +9318,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9421,22 +9341,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9456,7 +9376,7 @@
         <v>107</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>9</v>
@@ -9464,10 +9384,10 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="39" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" s="39">
         <v>100</v>
@@ -9482,15 +9402,15 @@
         <v>1</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="39" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C5" s="39">
         <v>100</v>
@@ -9505,15 +9425,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C6" s="39">
         <v>3</v>
@@ -9528,15 +9448,15 @@
         <v>1</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="39" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C7" s="39">
         <v>3</v>
@@ -9551,12 +9471,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>19</v>
@@ -9574,15 +9494,15 @@
         <v>1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C9" s="39">
         <v>0</v>
@@ -9597,15 +9517,15 @@
         <v>1</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="39" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C10" s="39">
         <v>0</v>
@@ -9620,15 +9540,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="39" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -9643,15 +9563,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="39" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C12" s="39">
         <v>0</v>
@@ -9666,15 +9586,15 @@
         <v>1</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="39" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C13" s="39">
         <v>0</v>
@@ -9689,15 +9609,15 @@
         <v>1</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="39" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C14" s="39">
         <v>0</v>
@@ -9712,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -281,7 +281,7 @@
     <t>造成6点伤害</t>
   </si>
   <si>
-    <t>res://asserts/textures/cards/card_icons/card_strike.png</t>
+    <t>res://assets/textures/cards/card_icons/card_strike.png</t>
   </si>
   <si>
     <t>defense</t>
@@ -293,7 +293,7 @@
     <t>获得5点[color=yellow]格挡[/color]</t>
   </si>
   <si>
-    <t>res://asserts/textures/cards/card_icons/card_defense.png</t>
+    <t>res://assets/textures/cards/card_icons/card_defense.png</t>
   </si>
   <si>
     <t>items</t>
@@ -314,7 +314,7 @@
     <t>造成8点伤害，给与2层[color=yellow]易伤[/color]</t>
   </si>
   <si>
-    <t>res://asserts/textures/cards/card_icons/card_trounce.png</t>
+    <t>res://assets/textures/cards/card_icons/card_trounce.png</t>
   </si>
   <si>
     <t>trounce_01*trounce_02</t>
@@ -380,7 +380,7 @@
     <t>敌人打算进行攻击。</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/poison_dagger.png</t>
+    <t>res://assets/textures/widgets/Buffs/poison_dagger.png</t>
   </si>
   <si>
     <t>MULTI_ATTACK</t>
@@ -392,7 +392,7 @@
     <t>敌人计划多次攻击。</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/thorn_vine_spell.png</t>
+    <t>res://assets/textures/widgets/Buffs/thorn_vine_spell.png</t>
   </si>
   <si>
     <t>DEFEND</t>
@@ -401,7 +401,7 @@
     <t>敌人将增加防御力</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/healing_spell.png</t>
+    <t>res://assets/textures/widgets/Buffs/healing_spell.png</t>
   </si>
   <si>
     <t>BUFF</t>
@@ -413,7 +413,7 @@
     <t>敌人将提升某项能力，如攻击力、防御力或特殊能力。</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/on_fire_(burning).png</t>
+    <t>res://assets/textures/widgets/Buffs/on_fire_(burning).png</t>
   </si>
   <si>
     <t>DEBUFF</t>
@@ -425,7 +425,7 @@
     <t>敌人计划施放会削弱玩家能力的效果，如减少玩家的攻击力或防御力。</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/disarmed.png</t>
+    <t>res://assets/textures/widgets/Buffs/disarmed.png</t>
   </si>
   <si>
     <t>HEAL</t>
@@ -437,7 +437,7 @@
     <t>敌人会恢复一定量的生命值。</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/lucky_boost.png</t>
+    <t>res://assets/textures/widgets/Buffs/lucky_boost.png</t>
   </si>
   <si>
     <t>STRATEGY</t>
@@ -449,7 +449,7 @@
     <t>敌人将采取某种特殊行动，如召唤援助、准备强力攻击或其他战术动作。</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/confused.png</t>
+    <t>res://assets/textures/widgets/Buffs/confused.png</t>
   </si>
   <si>
     <t>ESCAPE</t>
@@ -461,7 +461,7 @@
     <t>在某些战斗中，敌人可能会试图逃跑，尤其是在遭遇战中</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/swiftness.png</t>
+    <t>res://assets/textures/widgets/Buffs/swiftness.png</t>
   </si>
   <si>
     <t>attack_5</t>
@@ -479,7 +479,7 @@
     <t>敌人打算释放一个正面效果的法术</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
+    <t>res://assets/textures/widgets/Buffs/ghost_form_(physical_damage_immunity).png</t>
   </si>
   <si>
     <t>attack_8</t>
@@ -497,7 +497,7 @@
     <t>敌人打算释放一个负面效果的法术</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/poisoned.png</t>
+    <t>res://assets/textures/widgets/Buffs/poisoned.png</t>
   </si>
   <si>
     <t>destruction_ray</t>
@@ -664,7 +664,7 @@
     <t>使目标受到的攻击伤害增加</t>
   </si>
   <si>
-    <t>res://asserts/textures/widgets/Buffs/defense_down.png</t>
+    <t>res://assets/textures/widgets/Buffs/defense_down.png</t>
   </si>
   <si>
     <t>VULNERABLE</t>
@@ -2042,7 +2042,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2063,19 +2063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2764,7 +2752,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2788,16 +2776,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2806,89 +2794,89 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3021,9 +3009,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3033,112 +3018,103 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3503,8 +3479,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -3893,7 +3869,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="87" t="s">
+      <c r="X4" s="83" t="s">
         <v>368</v>
       </c>
       <c r="Y4" s="9" t="s">
@@ -6894,7 +6870,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6912,7 +6888,7 @@
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="82" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -6920,16 +6896,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="82" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -6946,7 +6922,7 @@
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="82" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -6963,7 +6939,7 @@
       <c r="C4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -6980,7 +6956,7 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -6997,7 +6973,7 @@
       <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7014,7 +6990,7 @@
       <c r="C7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -7031,7 +7007,7 @@
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -7048,7 +7024,7 @@
       <c r="C9" s="1">
         <v>50</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -7076,9 +7052,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.33333333333333" style="85" customWidth="1"/>
+    <col min="1" max="1" width="8.33333333333333" style="81" customWidth="1"/>
     <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7094,20 +7071,20 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" s="84" customFormat="1" spans="1:5">
-      <c r="A2" s="45" t="s">
+    <row r="2" s="80" customFormat="1" spans="1:5">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7302,7 +7279,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7350,31 +7327,31 @@
       </c>
     </row>
     <row r="2" ht="54" spans="1:10">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="66" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -7518,15 +7495,15 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="9.06666666666667" style="72"/>
-    <col min="4" max="7" width="9.06666666666667" style="72"/>
+    <col min="2" max="2" width="9.06666666666667" style="69"/>
+    <col min="4" max="7" width="9.06666666666667" style="69"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="67.125" customWidth="1"/>
   </cols>
@@ -7535,34 +7512,34 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="70" t="s">
         <v>95</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="63" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7570,34 +7547,34 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="63" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7605,34 +7582,34 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="63" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7640,16 +7617,16 @@
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="74">
-        <v>1</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="D4" s="71">
+        <v>1</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="40" t="s">
         <v>110</v>
       </c>
@@ -7665,16 +7642,16 @@
       <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="71">
         <v>2</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="40" t="s">
         <v>114</v>
       </c>
@@ -7690,16 +7667,16 @@
       <c r="A6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="71">
         <v>3</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="40" t="s">
         <v>117</v>
       </c>
@@ -7715,16 +7692,16 @@
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="71">
         <v>4</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="1" t="s">
         <v>121</v>
       </c>
@@ -7740,16 +7717,16 @@
       <c r="A8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="71">
         <v>5</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="1" t="s">
         <v>125</v>
       </c>
@@ -7765,16 +7742,16 @@
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="71">
         <v>6</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="1" t="s">
         <v>129</v>
       </c>
@@ -7790,16 +7767,16 @@
       <c r="A10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="71">
         <v>7</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="1" t="s">
         <v>133</v>
       </c>
@@ -7815,16 +7792,16 @@
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="71">
         <v>8</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="1" t="s">
         <v>137</v>
       </c>
@@ -7836,406 +7813,406 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" s="69" customFormat="1" spans="1:11">
-      <c r="A12" s="49" t="s">
+    <row r="12" s="67" customFormat="1" spans="1:11">
+      <c r="A12" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="75">
-        <v>1</v>
-      </c>
-      <c r="E12" s="75">
-        <v>1</v>
-      </c>
-      <c r="F12" s="75">
-        <v>0</v>
-      </c>
-      <c r="G12" s="75" t="s">
+      <c r="D12" s="72">
+        <v>1</v>
+      </c>
+      <c r="E12" s="72">
+        <v>1</v>
+      </c>
+      <c r="F12" s="72">
+        <v>0</v>
+      </c>
+      <c r="G12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="48">
         <v>5</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" s="69" customFormat="1" spans="1:11">
-      <c r="A13" s="50" t="s">
+    <row r="13" s="67" customFormat="1" spans="1:11">
+      <c r="A13" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="73">
         <v>3</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="73">
         <v>5</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="73">
         <v>2</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="51">
-        <v>0</v>
-      </c>
-      <c r="K13" s="50" t="s">
+      <c r="J13" s="50">
+        <v>0</v>
+      </c>
+      <c r="K13" s="49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" s="70" customFormat="1" spans="1:11">
-      <c r="A14" s="77" t="s">
+    <row r="14" s="68" customFormat="1" spans="1:11">
+      <c r="A14" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="79">
-        <v>1</v>
-      </c>
-      <c r="E14" s="79">
-        <v>1</v>
-      </c>
-      <c r="F14" s="79">
-        <v>0</v>
-      </c>
-      <c r="G14" s="79" t="s">
+      <c r="D14" s="76">
+        <v>1</v>
+      </c>
+      <c r="E14" s="76">
+        <v>1</v>
+      </c>
+      <c r="F14" s="76">
+        <v>0</v>
+      </c>
+      <c r="G14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="74">
         <v>8</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="74" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" s="70" customFormat="1" spans="1:11">
-      <c r="A15" s="80" t="s">
+    <row r="15" s="68" customFormat="1" spans="1:11">
+      <c r="A15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="76">
         <v>5</v>
       </c>
-      <c r="E15" s="79">
-        <v>1</v>
-      </c>
-      <c r="F15" s="79">
+      <c r="E15" s="76">
+        <v>1</v>
+      </c>
+      <c r="F15" s="76">
         <v>2</v>
       </c>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="77">
-        <v>0</v>
-      </c>
-      <c r="K15" s="80" t="s">
+      <c r="J15" s="74">
+        <v>0</v>
+      </c>
+      <c r="K15" s="77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" s="71" customFormat="1" spans="1:11">
-      <c r="A16" s="58" t="s">
+    <row r="16" s="67" customFormat="1" spans="1:11">
+      <c r="A16" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81">
-        <v>1</v>
-      </c>
-      <c r="F16" s="81">
-        <v>0</v>
-      </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="59" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72">
+        <v>1</v>
+      </c>
+      <c r="F16" s="72">
+        <v>0</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="59">
-        <v>0</v>
-      </c>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" s="71" customFormat="1" spans="1:11">
-      <c r="A17" s="58" t="s">
+      <c r="J16" s="48">
+        <v>0</v>
+      </c>
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" s="67" customFormat="1" spans="1:11">
+      <c r="A17" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81">
-        <v>1</v>
-      </c>
-      <c r="F17" s="81">
-        <v>1</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="59" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72">
+        <v>1</v>
+      </c>
+      <c r="F17" s="72">
+        <v>1</v>
+      </c>
+      <c r="G17" s="72"/>
+      <c r="H17" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="59">
-        <v>0</v>
-      </c>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" s="71" customFormat="1" spans="1:11">
-      <c r="A18" s="58" t="s">
+      <c r="J17" s="48">
+        <v>0</v>
+      </c>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" s="67" customFormat="1" spans="1:11">
+      <c r="A18" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81">
-        <v>1</v>
-      </c>
-      <c r="F18" s="81">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72">
+        <v>1</v>
+      </c>
+      <c r="F18" s="72">
         <v>3</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="59" t="s">
+      <c r="G18" s="72"/>
+      <c r="H18" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="59">
-        <v>0</v>
-      </c>
-      <c r="K18" s="59"/>
+      <c r="J18" s="48">
+        <v>0</v>
+      </c>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82">
-        <v>1</v>
-      </c>
-      <c r="F19" s="82">
-        <v>0</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="61" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="78">
+        <v>1</v>
+      </c>
+      <c r="F19" s="78">
+        <v>0</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="61">
-        <v>0</v>
-      </c>
-      <c r="K19" s="61"/>
+      <c r="J19" s="59">
+        <v>0</v>
+      </c>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82">
-        <v>1</v>
-      </c>
-      <c r="F20" s="82">
-        <v>1</v>
-      </c>
-      <c r="G20" s="82"/>
-      <c r="H20" s="61" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78">
+        <v>1</v>
+      </c>
+      <c r="F20" s="78">
+        <v>1</v>
+      </c>
+      <c r="G20" s="78"/>
+      <c r="H20" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="61">
-        <v>0</v>
-      </c>
-      <c r="K20" s="61"/>
+      <c r="J20" s="59">
+        <v>0</v>
+      </c>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82">
-        <v>1</v>
-      </c>
-      <c r="F21" s="82">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78">
+        <v>1</v>
+      </c>
+      <c r="F21" s="78">
         <v>3</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="61" t="s">
+      <c r="G21" s="78"/>
+      <c r="H21" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="I21" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J21" s="61">
-        <v>0</v>
-      </c>
-      <c r="K21" s="61"/>
+      <c r="J21" s="59">
+        <v>0</v>
+      </c>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82">
-        <v>1</v>
-      </c>
-      <c r="F22" s="82">
-        <v>0</v>
-      </c>
-      <c r="G22" s="82"/>
-      <c r="H22" s="61" t="s">
+      <c r="D22" s="78"/>
+      <c r="E22" s="78">
+        <v>1</v>
+      </c>
+      <c r="F22" s="78">
+        <v>0</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="I22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="61">
-        <v>0</v>
-      </c>
-      <c r="K22" s="61"/>
+      <c r="J22" s="59">
+        <v>0</v>
+      </c>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82">
-        <v>1</v>
-      </c>
-      <c r="F23" s="82">
-        <v>1</v>
-      </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="59" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78">
+        <v>1</v>
+      </c>
+      <c r="F23" s="78">
+        <v>1</v>
+      </c>
+      <c r="G23" s="78"/>
+      <c r="H23" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="J23" s="61">
-        <v>0</v>
-      </c>
-      <c r="K23" s="61"/>
+      <c r="J23" s="59">
+        <v>0</v>
+      </c>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" s="41" customFormat="1" spans="1:11">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83">
-        <v>1</v>
-      </c>
-      <c r="F24" s="83">
+      <c r="D24" s="79"/>
+      <c r="E24" s="79">
+        <v>1</v>
+      </c>
+      <c r="F24" s="79">
         <v>3</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="62" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I24" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="J24" s="62">
-        <v>0</v>
-      </c>
-      <c r="K24" s="62"/>
+      <c r="J24" s="60">
+        <v>0</v>
+      </c>
+      <c r="K24" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8249,7 +8226,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8287,7 +8264,7 @@
       <c r="G1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="63" t="s">
         <v>60</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -8295,10 +8272,10 @@
       </c>
     </row>
     <row r="2" ht="148.5" spans="1:9">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8307,19 +8284,19 @@
       <c r="D2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="66" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8345,7 +8322,7 @@
       <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="63" t="s">
         <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -8366,65 +8343,65 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
-      <c r="H4" s="66"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="40"/>
     </row>
-    <row r="5" s="64" customFormat="1" spans="1:9">
-      <c r="A5" s="67" t="s">
+    <row r="5" s="62" customFormat="1" spans="1:9">
+      <c r="A5" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="67">
-        <v>1</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="40"/>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" s="64" customFormat="1" spans="1:9">
-      <c r="A6" s="67" t="s">
+      <c r="I5" s="65"/>
+    </row>
+    <row r="6" s="62" customFormat="1" spans="1:9">
+      <c r="A6" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="67">
-        <v>1</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="D6" s="65">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="67"/>
-    </row>
-    <row r="7" s="64" customFormat="1" spans="1:9">
-      <c r="A7" s="67" t="s">
+      <c r="I6" s="65"/>
+    </row>
+    <row r="7" s="62" customFormat="1" spans="1:9">
+      <c r="A7" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="67">
-        <v>1</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="D7" s="65">
+        <v>1</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
@@ -8528,7 +8505,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="1"/>
     </row>
   </sheetData>
@@ -8583,7 +8560,7 @@
       </c>
     </row>
     <row r="2" ht="81" spans="1:8">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8592,16 +8569,16 @@
       <c r="C2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>224</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -8683,146 +8660,146 @@
       </c>
     </row>
     <row r="6" s="41" customFormat="1" spans="1:8">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="47">
-        <v>0</v>
-      </c>
-      <c r="E6" s="47">
-        <v>0</v>
-      </c>
-      <c r="F6" s="47">
-        <v>1</v>
-      </c>
-      <c r="G6" s="47">
+      <c r="D6" s="46">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1</v>
+      </c>
+      <c r="G6" s="46">
         <v>8</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" s="41" customFormat="1" spans="1:8">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="47">
-        <v>0</v>
-      </c>
-      <c r="E7" s="47">
-        <v>0</v>
-      </c>
-      <c r="F7" s="47">
+      <c r="D7" s="46">
+        <v>0</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0</v>
+      </c>
+      <c r="F7" s="46">
         <v>3</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="46" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="49">
-        <v>0</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0</v>
-      </c>
-      <c r="F8" s="49">
-        <v>1</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="D8" s="48">
+        <v>0</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>1</v>
+      </c>
+      <c r="G8" s="47">
         <v>5</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="48" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="49">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="D9" s="48">
+        <v>1</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
         <v>2</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>5</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="50" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10" s="42" customFormat="1" spans="1:8">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="53">
-        <v>0</v>
-      </c>
-      <c r="E10" s="53">
-        <v>0</v>
-      </c>
-      <c r="F10" s="53">
-        <v>1</v>
-      </c>
-      <c r="G10" s="52">
+      <c r="D10" s="52">
+        <v>0</v>
+      </c>
+      <c r="E10" s="52">
+        <v>0</v>
+      </c>
+      <c r="F10" s="52">
+        <v>1</v>
+      </c>
+      <c r="G10" s="51">
         <v>8</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="52" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" s="43" customFormat="1" spans="1:8">
-      <c r="A11" s="54" t="s">
+    <row r="11" s="42" customFormat="1" spans="1:8">
+      <c r="A11" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="53">
-        <v>0</v>
-      </c>
-      <c r="E11" s="53">
-        <v>0</v>
-      </c>
-      <c r="F11" s="53">
+      <c r="D11" s="52">
+        <v>0</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0</v>
+      </c>
+      <c r="F11" s="52">
         <v>3</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="52" t="s">
         <v>238</v>
       </c>
     </row>
@@ -9044,60 +9021,60 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" s="44" customFormat="1" spans="1:9">
-      <c r="A21" s="56" t="s">
+    <row r="21" s="43" customFormat="1" spans="1:9">
+      <c r="A21" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="57">
-        <v>0</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57" t="s">
+      <c r="D21" s="56">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="43" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" s="44" customFormat="1" spans="1:9">
-      <c r="A22" s="56" t="s">
+    <row r="22" s="43" customFormat="1" spans="1:9">
+      <c r="A22" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="57">
-        <v>0</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57" t="s">
+      <c r="D22" s="56">
+        <v>0</v>
+      </c>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="43" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="48" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="1">
@@ -9106,7 +9083,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="48" t="s">
         <v>277</v>
       </c>
       <c r="I23" t="s">
@@ -9114,13 +9091,13 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="48" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="1">
@@ -9137,13 +9114,13 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="48" t="s">
         <v>158</v>
       </c>
       <c r="D25" s="1">
@@ -9152,7 +9129,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="48" t="s">
         <v>159</v>
       </c>
       <c r="I25" t="s">
@@ -9160,13 +9137,13 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="59" t="s">
         <v>161</v>
       </c>
       <c r="D26" s="1">
@@ -9175,7 +9152,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="59" t="s">
         <v>280</v>
       </c>
       <c r="I26" t="s">
@@ -9183,13 +9160,13 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="1">
@@ -9198,7 +9175,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="61" t="s">
+      <c r="H27" s="59" t="s">
         <v>281</v>
       </c>
       <c r="I27" t="s">
@@ -9206,13 +9183,13 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="59" t="s">
         <v>167</v>
       </c>
       <c r="D28" s="1">
@@ -9221,18 +9198,18 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="60" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>170</v>
       </c>
       <c r="D29" s="1">
@@ -9241,7 +9218,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="59" t="s">
         <v>283</v>
       </c>
       <c r="I29" t="s">
@@ -9249,13 +9226,13 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="59" t="s">
         <v>173</v>
       </c>
       <c r="D30" s="1">
@@ -9264,7 +9241,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="48" t="s">
         <v>159</v>
       </c>
       <c r="I30" t="s">
@@ -9272,13 +9249,13 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="60" t="s">
         <v>175</v>
       </c>
       <c r="D31" s="1">
@@ -9287,7 +9264,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="60" t="s">
         <v>176</v>
       </c>
     </row>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -3479,8 +3479,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -3563,7 +3563,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6595,10 +6595,13 @@
   <dimension ref="A7:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
   <sheetData>
     <row r="7" spans="3:5">
       <c r="C7" s="1" t="s">
@@ -6870,7 +6873,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7047,7 +7050,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -7138,7 +7141,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -7278,8 +7281,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7496,7 +7499,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8226,7 +8229,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8520,7 +8523,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9280,7 +9283,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD41"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="combat|战斗" sheetId="31" r:id="rId1"/>
@@ -7136,12 +7136,12 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -7281,8 +7281,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -8523,14 +8523,13 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="71.2" customWidth="1"/>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -7141,7 +7141,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -7499,7 +7499,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="F1" sqref="F1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
